--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02062392732384918</v>
+        <v>0.02087960388890529</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02802768166089975</v>
+        <v>-0.01312689330191863</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0187065035714668</v>
+        <v>0.0187003824530608</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01510692564253491</v>
+        <v>-0.01333591032083503</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02013661950077454</v>
+        <v>0.02007622556357461</v>
       </c>
       <c r="E4" s="1">
-        <v>0.012393681652491</v>
+        <v>-0.02592414786365815</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01995454172420314</v>
+        <v>0.02014288929864329</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02502375673107382</v>
+        <v>-0.02008652657601973</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01967663353890995</v>
+        <v>0.01955094745833466</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008952996766973476</v>
+        <v>-0.008873551885629882</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02002998268426072</v>
+        <v>0.01984169772453781</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005893909626718985</v>
+        <v>-0.02539062499999989</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02024713031253457</v>
+        <v>0.0197910975400881</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007431874483897594</v>
+        <v>0.004159733777038266</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02004201245897261</v>
+        <v>0.02023846742482609</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02539269146252132</v>
+        <v>-0.01293753472497816</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01881538322733369</v>
+        <v>0.01892928804938096</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02158647594278285</v>
+        <v>-0.007892057026476662</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02000816597419002</v>
+        <v>0.01968588128353391</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0009171507184347893</v>
+        <v>-0.0142288861689106</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01941116291730192</v>
+        <v>0.01925849043987824</v>
       </c>
       <c r="E12" s="1">
-        <v>0.007452574525745215</v>
+        <v>-0.0127774041694686</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02135876305370734</v>
+        <v>0.02102036075120391</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0006491398896463219</v>
+        <v>-0.001623903864891196</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0202642574494125</v>
+        <v>0.02010513995468874</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007465840259191614</v>
+        <v>-0.00251677852348986</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01933327522340464</v>
+        <v>0.01909233308816339</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002784222737818975</v>
+        <v>-0.002313743637204935</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0178334273796653</v>
+        <v>0.01767713427863313</v>
       </c>
       <c r="E16" s="1">
-        <v>0.006539833531510109</v>
+        <v>-0.003839338452451435</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01761750311831131</v>
+        <v>0.01801226010342115</v>
       </c>
       <c r="E17" s="1">
-        <v>0.03819223424570328</v>
+        <v>-0.01532801961986507</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01639474788191859</v>
+        <v>0.01645028060011015</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01887871853546907</v>
+        <v>-0.003368893879842738</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01452014197173105</v>
+        <v>0.01490898291822107</v>
       </c>
       <c r="E19" s="1">
-        <v>0.04263206672845232</v>
+        <v>-0.01822222222222236</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02270976792219794</v>
+        <v>0.02244078021468534</v>
       </c>
       <c r="E20" s="1">
-        <v>0.003411743580535198</v>
+        <v>-0.004473872584108807</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02162790377607492</v>
+        <v>0.02164965034670162</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01646020702528417</v>
+        <v>-0.006010016694490861</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02124967950335381</v>
+        <v>0.02099807257472011</v>
       </c>
       <c r="E22" s="1">
-        <v>0.003415883859948732</v>
+        <v>0.002553191489361506</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02016720367377086</v>
+        <v>0.02010453757154053</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01228389444949962</v>
+        <v>0.008838951310861543</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01912122495729685</v>
+        <v>0.01882246543776488</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0004265301770099983</v>
+        <v>-0.009387668017921902</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0188822606189523</v>
+        <v>0.01880720506467687</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01140290255701437</v>
+        <v>0.002391527160915619</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0200216230103084</v>
+        <v>0.02009911612320663</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01936942441647305</v>
+        <v>-0.01126895642270587</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01820492313432722</v>
+        <v>0.01814980425559599</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01236476043276657</v>
+        <v>0.02849872773536899</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02014518306921351</v>
+        <v>0.02015694490543488</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01603206412825653</v>
+        <v>-0.0147928994082841</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01756143213448473</v>
+        <v>0.01748718279256394</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01114594218042497</v>
+        <v>-0.03341370995521886</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01298542817077591</v>
+        <v>0.01300464899234351</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01694223310879761</v>
+        <v>-0.00200722601364911</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009783876941521533</v>
+        <v>0.009635118455634179</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>0.001458789204959787</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01709410597110101</v>
+        <v>0.01749541536225616</v>
       </c>
       <c r="E32" s="1">
-        <v>0.03927813163481941</v>
+        <v>0.005107252298263587</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01951861531176232</v>
+        <v>0.01990314080565533</v>
       </c>
       <c r="E33" s="1">
-        <v>0.03544380490760379</v>
+        <v>-0.005558806319485021</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02010420027739845</v>
+        <v>0.02020493476290902</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02052717518077918</v>
+        <v>0.01714285714285713</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01807565402979612</v>
+        <v>0.01796427024594701</v>
       </c>
       <c r="E35" s="1">
-        <v>0.009181969949916491</v>
+        <v>-0.005789909015715411</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01873464101062342</v>
+        <v>0.01942083269832109</v>
       </c>
       <c r="E36" s="1">
-        <v>0.05263157894736836</v>
+        <v>0.03333333333333344</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01782323265533319</v>
+        <v>0.01798234174039334</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02450408401400228</v>
+        <v>0.002277904328018332</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.02188450498751401</v>
+        <v>0.02109344990652018</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.02126569305662318</v>
+        <v>-0.005759162303665133</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02269753425299942</v>
+        <v>0.02302870616733923</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0302551203736976</v>
+        <v>-0.01715959821428581</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01915303249721301</v>
+        <v>0.0190907267331015</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01213592233009719</v>
+        <v>0.007194244604316502</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02205975229878291</v>
+        <v>0.02139022400420544</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01538006506950618</v>
+        <v>-0.01216581556022833</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01968376984594243</v>
+        <v>0.01974310768261396</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01850029521747687</v>
+        <v>-0.005797101449275255</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.02019472942946754</v>
+        <v>0.02022983326636841</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01720430107526894</v>
+        <v>-0.01832276250880904</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01946172874998917</v>
+        <v>0.01941059218480151</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01277108433734941</v>
+        <v>-0.003806804663335828</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01872261123591153</v>
+        <v>0.01869897689238164</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01415736455213734</v>
+        <v>0.001879194630872494</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01899236364173904</v>
+        <v>0.01926461466855172</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02999527633443555</v>
+        <v>0.00160513643659721</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01907106691358289</v>
+        <v>0.01908259456060065</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01605298607992811</v>
+        <v>0.03524472433985193</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.0185462425049661</v>
+        <v>0.0186015916167542</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01846965699208436</v>
+        <v>-0.006476683937823857</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.0168683947743882</v>
+        <v>0.01704141926288784</v>
       </c>
       <c r="E49" s="1">
-        <v>0.02585487906588813</v>
+        <v>-0.01219512195121952</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01753574142916782</v>
+        <v>0.01786909370852968</v>
       </c>
       <c r="E50" s="1">
-        <v>0.03474257011301796</v>
+        <v>0.001618122977346426</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0170286558408889</v>
+        <v>0.01742011746872979</v>
       </c>
       <c r="E51" s="1">
-        <v>0.03878252331860588</v>
+        <v>-0.009924385633270472</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01771843088919915</v>
+        <v>0.01756950848948611</v>
       </c>
       <c r="E52" s="1">
-        <v>0.00690448791714604</v>
+        <v>0.005942857142857028</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01639515567089187</v>
+        <v>0.0167056910549516</v>
       </c>
       <c r="E53" s="1">
-        <v>0.03467230443974634</v>
+        <v>-0.008581937065794798</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007529823391693034</v>
+        <v>0.007526777436895846</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01502843216896821</v>
+        <v>-0.008803521408563331</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007671326165422656</v>
+        <v>0.007545049725724912</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.001275781416117394</v>
+        <v>0.001064509261230695</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01543919637027047</v>
+        <v>-0.004635539119866028</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02087960388890529</v>
+        <v>0.02070148208652058</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01312689330191863</v>
+        <v>0.01125511596180084</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0187003824530608</v>
+        <v>0.01853692446823597</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01333591032083503</v>
+        <v>0.009794319294809117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02007622556357461</v>
+        <v>0.01964684021994165</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02592414786365815</v>
+        <v>-0.002957121734844748</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02014288929864329</v>
+        <v>0.01983021234249717</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02008652657601973</v>
+        <v>0.05171870072532347</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01955094745833466</v>
+        <v>0.01946770441704913</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008873551885629882</v>
+        <v>0.02113902014424274</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01984169772453781</v>
+        <v>0.01942796370402005</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02539062499999989</v>
+        <v>0.01402805611222435</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0197910975400881</v>
+        <v>0.01996597630122088</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004159733777038266</v>
+        <v>0.0107705053852527</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02023846742482609</v>
+        <v>0.02006966526821048</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01293753472497816</v>
+        <v>0.02500804117079447</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01892928804938096</v>
+        <v>0.01886735740194988</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.007892057026476662</v>
+        <v>0.01847575057736717</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01968588128353391</v>
+        <v>0.01949614827764355</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0142288861689106</v>
+        <v>0.0442340524600342</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01925849043987824</v>
+        <v>0.01910096017193809</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0127774041694686</v>
+        <v>0.01498637602179853</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02102036075120391</v>
+        <v>0.02108396123323703</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001623903864891196</v>
+        <v>0.004879635653871395</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02010513995468874</v>
+        <v>0.02014793631722207</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00251677852348986</v>
+        <v>-0.003223997757218933</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01909233308816339</v>
+        <v>0.0191368680243197</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002313743637204935</v>
+        <v>-0.002319109461966562</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01767713427863313</v>
+        <v>0.01769127437169831</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.003839338452451435</v>
+        <v>0.01808479098725191</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01801226010342115</v>
+        <v>0.0178187674206038</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01532801961986507</v>
+        <v>0.04981320049813198</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01645028060011015</v>
+        <v>0.01647121430875468</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.003368893879842738</v>
+        <v>-0.01521126760563374</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01490898291822107</v>
+        <v>0.01470547592731524</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01822222222222236</v>
+        <v>0.02203108495548545</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02244078021468534</v>
+        <v>0.02244442503358292</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.004473872584108807</v>
+        <v>-0.003954700701060854</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02164965034670162</v>
+        <v>0.0216197548058525</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.006010016694490861</v>
+        <v>0.01461202552905605</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02099807257472011</v>
+        <v>0.02114972505276739</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002553191489361506</v>
+        <v>0.009337860780984863</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02010453757154053</v>
+        <v>0.020376697579024</v>
       </c>
       <c r="E23" s="1">
-        <v>0.008838951310861543</v>
+        <v>0.02361152361152374</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01882246543776488</v>
+        <v>0.01873260209076496</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.009387668017921902</v>
+        <v>0.01173810036614253</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01880720506467687</v>
+        <v>0.01893998002474414</v>
       </c>
       <c r="E25" s="1">
-        <v>0.002391527160915619</v>
+        <v>0.01584867075664631</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02009911612320663</v>
+        <v>0.01996516938318984</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01126895642270587</v>
+        <v>0.01333737496210996</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01814980425559599</v>
+        <v>0.01875398541858772</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02849872773536899</v>
+        <v>0.01335972290945064</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02015694490543488</v>
+        <v>0.01995125004715427</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0147928994082841</v>
+        <v>0.01801801801801806</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01748718279256394</v>
+        <v>0.01698158996339215</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.03341370995521886</v>
+        <v>0.007840342124020072</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01300464899234351</v>
+        <v>0.01303898846369464</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.00200722601364911</v>
+        <v>0.01327433628318597</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009635118455634179</v>
+        <v>0.009694111495495481</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001458789204959787</v>
+        <v>0.02257829570284042</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01749541536225616</v>
+        <v>0.01766666337175137</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005107252298263587</v>
+        <v>-0.04471544715447151</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01990314080565533</v>
+        <v>0.01988467930959286</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.005558806319485021</v>
+        <v>-0.0305972344807296</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02020493476290902</v>
+        <v>0.02064701511942488</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01714285714285713</v>
+        <v>-0.01033707865168543</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01796427024594701</v>
+        <v>0.01794343625640063</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.005789909015715411</v>
+        <v>-0.02662229617304501</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01942083269832109</v>
+        <v>0.02016165392374988</v>
       </c>
       <c r="E36" s="1">
-        <v>0.03333333333333344</v>
+        <v>0.003722084367245637</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01798234174039334</v>
+        <v>0.01810724061670324</v>
       </c>
       <c r="E37" s="1">
-        <v>0.002277904328018332</v>
+        <v>-0.01590909090909087</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.02109344990652018</v>
+        <v>0.02106963843818594</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.005759162303665133</v>
+        <v>-0.006319115323854319</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02302870616733923</v>
+        <v>0.02273895011491521</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01715959821428581</v>
+        <v>0.02015613910574876</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0190907267331015</v>
+        <v>0.01931761766327432</v>
       </c>
       <c r="E40" s="1">
-        <v>0.007194244604316502</v>
+        <v>0.01984126984126977</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02139022400420544</v>
+        <v>0.02122839956079451</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01216581556022833</v>
+        <v>0.003192945111753165</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01974310768261396</v>
+        <v>0.0197200680312592</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.005797101449275255</v>
+        <v>0.009329446064139768</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.02022983326636841</v>
+        <v>0.01995165350616979</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.01832276250880904</v>
+        <v>0.0122038765254846</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01941059218480151</v>
+        <v>0.01942675332697347</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.003806804663335828</v>
+        <v>0.01886792452830188</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01869897689238164</v>
+        <v>0.01882136307418018</v>
       </c>
       <c r="E45" s="1">
-        <v>0.001879194630872494</v>
+        <v>0.02947481243301175</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01926461466855172</v>
+        <v>0.01938539877788229</v>
       </c>
       <c r="E46" s="1">
-        <v>0.00160513643659721</v>
+        <v>0.01808608058608052</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01908259456060065</v>
+        <v>0.01984715762114916</v>
       </c>
       <c r="E47" s="1">
-        <v>0.03524472433985193</v>
+        <v>-0.005122732123799434</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.0186015916167542</v>
+        <v>0.01856718389440025</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.006476683937823857</v>
+        <v>0.01108213820078241</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01704141926288784</v>
+        <v>0.01691199328321431</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01219512195121952</v>
+        <v>0.04526748971193406</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01786909370852968</v>
+        <v>0.01798136140385985</v>
       </c>
       <c r="E50" s="1">
-        <v>0.001618122977346426</v>
+        <v>0.006865912762520132</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01742011746872979</v>
+        <v>0.01732755606920371</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.009924385633270472</v>
+        <v>0.01121718377088299</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01756950848948611</v>
+        <v>0.01775623127319763</v>
       </c>
       <c r="E52" s="1">
-        <v>0.005942857142857028</v>
+        <v>0.01295160190865707</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.0167056910549516</v>
+        <v>0.01663945671822806</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.008581937065794798</v>
+        <v>0.02514427040395706</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007526777436895846</v>
+        <v>0.007495259860891366</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.008803521408563331</v>
+        <v>0.006055712555510739</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007545049725724912</v>
+        <v>0.007588257163969577</v>
       </c>
       <c r="E55" s="1">
-        <v>0.001064509261230695</v>
+        <v>-0.009570395576350532</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.004635539119866028</v>
+        <v>0.01036375259651123</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02070148208652058</v>
+        <v>0.02071974535328139</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01125511596180084</v>
+        <v>-0.0215851602023609</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01853692446823597</v>
+        <v>0.01852647719904582</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009794319294809117</v>
+        <v>-0.00387972841901052</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01964684021994165</v>
+        <v>0.01938781163849709</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002957121734844748</v>
+        <v>-0.002471576866040492</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01983021234249717</v>
+        <v>0.02064187784484699</v>
       </c>
       <c r="E5" s="1">
-        <v>0.05171870072532347</v>
+        <v>-0.013793103448276</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01946770441704913</v>
+        <v>0.01967532243887026</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02113902014424274</v>
+        <v>-0.02338041889917186</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01942796370402005</v>
+        <v>0.01949842343252954</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01402805611222435</v>
+        <v>0.007905138339920903</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01996597630122088</v>
+        <v>0.01997401421481349</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0107705053852527</v>
+        <v>-0.002459016393442703</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02006966526821048</v>
+        <v>0.02036055651309297</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02500804117079447</v>
+        <v>0.002039695614654446</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01886735740194988</v>
+        <v>0.01901883944468486</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01847575057736717</v>
+        <v>-0.005165028974552732</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01949614827764355</v>
+        <v>0.02014971525948598</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0442340524600342</v>
+        <v>-0.008174791914387636</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01910096017193809</v>
+        <v>0.01918835102073821</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01498637602179853</v>
+        <v>-0.006711409395973256</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02108396123323703</v>
+        <v>0.02096952036110557</v>
       </c>
       <c r="E13" s="1">
-        <v>0.004879635653871395</v>
+        <v>0.001942376173518889</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02014793631722207</v>
+        <v>0.01987697931968755</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003223997757218933</v>
+        <v>-0.001968780762199418</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0191368680243197</v>
+        <v>0.01889664735452627</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002319109461966562</v>
+        <v>-0.0004649000464900244</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01769127437169831</v>
+        <v>0.01782646826424838</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01808479098725191</v>
+        <v>0.004659289458357474</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0178187674206038</v>
+        <v>0.0185144975823636</v>
       </c>
       <c r="E17" s="1">
-        <v>0.04981320049813198</v>
+        <v>0.02431791221826818</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01647121430875468</v>
+        <v>0.01605428363639267</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01521126760563374</v>
+        <v>0.02631578947368407</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01470547592731524</v>
+        <v>0.01487528969458466</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02203108495548545</v>
+        <v>0.005019932083271783</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02244442503358292</v>
+        <v>0.02212635201205149</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003954700701060854</v>
+        <v>0.002346146904890878</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0216197548058525</v>
+        <v>0.02171065931317862</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01461202552905605</v>
+        <v>0.01771229928819729</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02114972505276739</v>
+        <v>0.02112825028214493</v>
       </c>
       <c r="E22" s="1">
-        <v>0.009337860780984863</v>
+        <v>0.01682085786375098</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.020376697579024</v>
+        <v>0.02064387444762736</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02361152361152374</v>
+        <v>0.001015522994342044</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01873260209076496</v>
+        <v>0.01875808312156865</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01173810036614253</v>
+        <v>0.01852048962213937</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01893998002474414</v>
+        <v>0.01904279867804929</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01584867075664631</v>
+        <v>0.01895655091427617</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01996516938318984</v>
+        <v>0.02002392928432272</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01333737496210996</v>
+        <v>-0.0003589590188455283</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01875398541858772</v>
+        <v>0.01880959547330217</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01335972290945064</v>
+        <v>-0.00830078125</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01995125004715427</v>
+        <v>0.02010239577359123</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01801801801801806</v>
+        <v>0.02523762700753851</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01698158996339215</v>
+        <v>0.01693917798865231</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007840342124020072</v>
+        <v>0.0180339462517678</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01303898846369464</v>
+        <v>0.01307655024975005</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01327433628318597</v>
+        <v>-0.02759031361651454</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009694111495495481</v>
+        <v>0.009811306062734254</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02257829570284042</v>
+        <v>0.007122507122507171</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01766666337175137</v>
+        <v>0.01670357886056874</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.04471544715447151</v>
+        <v>0.0372340425531914</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01988467930959286</v>
+        <v>0.0190785378678179</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0305972344807296</v>
+        <v>-0.004248861911987922</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02064701511942488</v>
+        <v>0.02022398888291571</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01033707865168543</v>
+        <v>-0.06948228882833785</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01794343625640063</v>
+        <v>0.01728658687243654</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.02662229617304501</v>
+        <v>0.008547008547008739</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02016165392374988</v>
+        <v>0.02002912045155168</v>
       </c>
       <c r="E36" s="1">
-        <v>0.003722084367245637</v>
+        <v>0.0111248454882571</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01810724061670324</v>
+        <v>0.01763639167955723</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01590909090909087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.02106963843818594</v>
+        <v>0.02072174195606176</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.006319115323854319</v>
+        <v>-0.02384737678855331</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02273895011491521</v>
+        <v>0.02295933469202152</v>
       </c>
       <c r="E39" s="1">
-        <v>0.02015613910574876</v>
+        <v>0.004313343536941794</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01931761766327432</v>
+        <v>0.01949882275308562</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01984126984126977</v>
+        <v>0.01478599221789878</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02122839956079451</v>
+        <v>0.02107773623180158</v>
       </c>
       <c r="E41" s="1">
-        <v>0.003192945111753165</v>
+        <v>-0.02243103970900284</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0197200680312592</v>
+        <v>0.0196998806530688</v>
       </c>
       <c r="E42" s="1">
-        <v>0.009329446064139768</v>
+        <v>-0.01193914885422676</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01995165350616979</v>
+        <v>0.01998799043427607</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0122038765254846</v>
+        <v>-0.008510638297872353</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01942675332697347</v>
+        <v>0.01959026716042653</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01886792452830188</v>
+        <v>-0.0004688232536332881</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01882136307418018</v>
+        <v>0.01917736970544618</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02947481243301175</v>
+        <v>-0.01795939614783981</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01938539877788229</v>
+        <v>0.01953356364146404</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01808608058608052</v>
+        <v>-0.009219698673262777</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01984715762114916</v>
+        <v>0.01954294767453178</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.005122732123799434</v>
+        <v>-0.01458914396052347</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01856718389440025</v>
+        <v>0.01858038547411579</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01108213820078241</v>
+        <v>0.02385557704706653</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01691199328321431</v>
+        <v>0.01749623016437531</v>
       </c>
       <c r="E49" s="1">
-        <v>0.04526748971193406</v>
+        <v>0.02047244094488199</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01798136140385985</v>
+        <v>0.01791911063325751</v>
       </c>
       <c r="E50" s="1">
-        <v>0.006865912762520132</v>
+        <v>-0.01163257119935823</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01732755606920371</v>
+        <v>0.01734219225986983</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01121718377088299</v>
+        <v>0.02430965305640775</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01775623127319763</v>
+        <v>0.0178017103897718</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01295160190865707</v>
+        <v>0.02691790040376874</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01663945671822806</v>
+        <v>0.01688287379024589</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02514427040395706</v>
+        <v>0.002814636107760338</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007495259860891366</v>
+        <v>0.007463301193020075</v>
       </c>
       <c r="E54" s="1">
-        <v>0.006055712555510739</v>
+        <v>-0.01966292134831471</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007588257163969577</v>
+        <v>0.007438543318543497</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.009570395576350532</v>
+        <v>-0.008803951041443048</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01036375259651123</v>
+        <v>0.0003776574159064516</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02071974535328139</v>
+        <v>0.02026485315840116</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0215851602023609</v>
+        <v>-0.007238883143743546</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01852647719904582</v>
+        <v>0.01844763261369005</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00387972841901052</v>
+        <v>-0.005452775073028326</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01938781163849709</v>
+        <v>0.01933259207500241</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002471576866040492</v>
+        <v>-0.001982160555004886</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02064187784484699</v>
+        <v>0.02034947715740803</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.013793103448276</v>
+        <v>0.0003040437823045306</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01967532243887026</v>
+        <v>0.01920805109533193</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02338041889917186</v>
+        <v>-0.008728179551122262</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01949842343252954</v>
+        <v>0.01964514203359852</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007905138339920903</v>
+        <v>0.0117647058823529</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01997401421481349</v>
+        <v>0.01991737584172439</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002459016393442703</v>
+        <v>0.007395234182415722</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02036055651309297</v>
+        <v>0.02039438376065459</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002039695614654446</v>
+        <v>-0.008455335473263936</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01901883944468486</v>
+        <v>0.01891346377803445</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005165028974552732</v>
+        <v>-0.007851082689629085</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02014971525948598</v>
+        <v>0.01997745089762313</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.008174791914387636</v>
+        <v>-0.004945301963134918</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01918835102073821</v>
+        <v>0.01905237487074383</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006711409395973256</v>
+        <v>0.001351351351351227</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02096952036110557</v>
+        <v>0.02100231937616146</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001942376173518889</v>
+        <v>-0.007431340872374737</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01987697931968755</v>
+        <v>0.0198303568238777</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001968780762199418</v>
+        <v>0.005777088910807304</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01889664735452627</v>
+        <v>0.01888073185389028</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0004649000464900244</v>
+        <v>0.004186046511627906</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01782646826424838</v>
+        <v>0.01790276582763169</v>
       </c>
       <c r="E16" s="1">
-        <v>0.004659289458357474</v>
+        <v>0.003188405797101446</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0185144975823636</v>
+        <v>0.01895757204166774</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02431791221826818</v>
+        <v>0.00579038795599307</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01605428363639267</v>
+        <v>0.01647054456142116</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02631578947368407</v>
+        <v>-0.006688963210702337</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01487528969458466</v>
+        <v>0.01494431880574781</v>
       </c>
       <c r="E19" s="1">
-        <v>0.005019932083271783</v>
+        <v>-0.01175260760981356</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02212635201205149</v>
+        <v>0.02216989106057222</v>
       </c>
       <c r="E20" s="1">
-        <v>0.002346146904890878</v>
+        <v>-0.01224342815988466</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02171065931317862</v>
+        <v>0.0220868637407919</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01771229928819729</v>
+        <v>-0.007644762524398052</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02112825028214493</v>
+        <v>0.02147553518192863</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01682085786375098</v>
+        <v>-0.009925558312654958</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02064387444762736</v>
+        <v>0.02065703749342119</v>
       </c>
       <c r="E23" s="1">
-        <v>0.001015522994342044</v>
+        <v>0.02565217391304353</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01875808312156865</v>
+        <v>0.01909827939850699</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01852048962213937</v>
+        <v>-0.007106280698087497</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01904279867804929</v>
+        <v>0.0193964592440642</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01895655091427617</v>
+        <v>0.01580507079354621</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02002392928432272</v>
+        <v>0.0200091848972507</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0003589590188455283</v>
+        <v>0.004608294930875667</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01880959547330217</v>
+        <v>0.01864641917739486</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.00830078125</v>
+        <v>0.000984736582964052</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02010239577359123</v>
+        <v>0.0206019520601054</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02523762700753851</v>
+        <v>0.0383631713554986</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01693917798865231</v>
+        <v>0.01723814809958249</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0180339462517678</v>
+        <v>0.002084056964223757</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01307655024975005</v>
+        <v>0.0127109637376185</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02759031361651454</v>
+        <v>-0.01632986323739538</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009811306062734254</v>
+        <v>0.009877456865211735</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007122507122507171</v>
+        <v>-0.01272984441301273</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01670357886056874</v>
+        <v>0.01731897998542632</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0372340425531914</v>
+        <v>-0.02153846153846162</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0190785378678179</v>
+        <v>0.01899030396581191</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.004248861911987922</v>
+        <v>-0.01005790917403238</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02022398888291571</v>
+        <v>0.01881167547734222</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.06948228882833785</v>
+        <v>0.02049780380673494</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01728658687243654</v>
+        <v>0.01742775375773467</v>
       </c>
       <c r="E35" s="1">
-        <v>0.008547008547008739</v>
+        <v>-0.01949152542372878</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02002912045155168</v>
+        <v>0.0202442959133594</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0111248454882571</v>
+        <v>-0.008557457212713948</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01763639167955723</v>
+        <v>0.01762973367989256</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>-0.009237875288683695</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.02072174195606176</v>
+        <v>0.02021994655515459</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.02384737678855331</v>
+        <v>0.0005428881650377804</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02295933469202152</v>
+        <v>0.02304966131439832</v>
       </c>
       <c r="E39" s="1">
-        <v>0.004313343536941794</v>
+        <v>0.03352729287891365</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01949882275308562</v>
+        <v>0.01977966225843491</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01478599221789878</v>
+        <v>0.004601226993865115</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02107773623180158</v>
+        <v>0.02059716202242576</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.02243103970900284</v>
+        <v>0.005271317829457445</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0196998806530688</v>
+        <v>0.01945733263957622</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01193914885422676</v>
+        <v>0.01344767101929434</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01998799043427607</v>
+        <v>0.0198103983335459</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.008510638297872353</v>
+        <v>-0.005722460658083017</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01959026716042653</v>
+        <v>0.01957369063821065</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.0004688232536332881</v>
+        <v>-0.00351782363977482</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01917736970544618</v>
+        <v>0.01882584600547781</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01795939614783981</v>
+        <v>0.09700503578054609</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01953356364146404</v>
+        <v>0.01934616384842804</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.009219698673262777</v>
+        <v>0.003858374943259024</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01954294767453178</v>
+        <v>0.01925056267973868</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01458914396052347</v>
+        <v>-0.01524058349662538</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01858038547411579</v>
+        <v>0.01901644958814658</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02385557704706653</v>
+        <v>0.005037783375314797</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01749623016437531</v>
+        <v>0.0178476803943159</v>
       </c>
       <c r="E49" s="1">
-        <v>0.02047244094488199</v>
+        <v>0.0007716049382717749</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01791911063325751</v>
+        <v>0.01770397926392689</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01163257119935823</v>
+        <v>-0.01298701298701299</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01734219225986983</v>
+        <v>0.0177570688482095</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02430965305640775</v>
+        <v>0.007834101382488745</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.0178017103897718</v>
+        <v>0.01827399374780332</v>
       </c>
       <c r="E52" s="1">
-        <v>0.02691790040376874</v>
+        <v>-0.003931847968545288</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01688287379024589</v>
+        <v>0.01692400146175984</v>
       </c>
       <c r="E53" s="1">
-        <v>0.002814636107760338</v>
+        <v>-0.003608660785886064</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007463301193020075</v>
+        <v>0.007313788782091008</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.01966292134831471</v>
+        <v>-0.009823986901350668</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007438543318543497</v>
+        <v>0.007370271309730024</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.008803951041443048</v>
+        <v>-0.007365684575389886</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0003776574159064516</v>
+        <v>0.00168250073497167</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -226,7 +226,7 @@
     <t>Preferred Bank</t>
   </si>
   <si>
-    <t>TrustCo Bank Corp N Y</t>
+    <t>Trustpilot Group PLC</t>
   </si>
   <si>
     <t>Getty Realty Corp</t>
@@ -364,6 +364,9 @@
     <t>Financials</t>
   </si>
   <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
     <t>Real Estate</t>
   </si>
   <si>
@@ -376,9 +379,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
     <t>Health Care</t>
   </si>
   <si>
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02026485315840116</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007238883143743546</v>
+        <v>-0.01527777777777772</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01844763261369005</v>
+        <v>0.01020855543710021</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005452775073028326</v>
+        <v>0.008419815938907282</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01933259207500241</v>
+        <v>0.01073560767590618</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001982160555004886</v>
+        <v>-0.01042701092353526</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02034947715740803</v>
+        <v>0.0113261815920398</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0003040437823045306</v>
+        <v>-0.003039513677811523</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01920805109533193</v>
+        <v>0.01059434968017058</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008728179551122262</v>
+        <v>0.003773584905660377</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01964514203359852</v>
+        <v>0.01105943496801706</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0117647058823529</v>
+        <v>0.009689922480620172</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01991737584172439</v>
+        <v>0.01116426794598436</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007395234182415722</v>
+        <v>0.006525285481239873</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02039438376065459</v>
+        <v>0.01125177683013504</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008455335473263936</v>
+        <v>0.003237268061587084</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01891346377803445</v>
+        <v>0.01044109808102345</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.007851082689629085</v>
+        <v>-0.003828972559030031</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01997745089762313</v>
+        <v>0.01106076759061834</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.004945301963134918</v>
+        <v>-0.00135542168674696</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1016,13 +1016,13 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01905237487074383</v>
+        <v>0.4532649253731343</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001351351351351227</v>
+        <v>-0.01011378002528451</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1033,13 +1033,13 @@
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02100231937616146</v>
+        <v>0.01159914712153518</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007431340872374737</v>
+        <v>-0.00423177083333337</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1050,13 +1050,13 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0198303568238777</v>
+        <v>0.0110976368159204</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005777088910807304</v>
+        <v>-0.01302885962454459</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1067,13 +1067,13 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01888073185389028</v>
+        <v>0.01054948471926084</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004186046511627906</v>
+        <v>-0.008337193144974608</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1084,13 +1084,13 @@
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01790276582763169</v>
+        <v>0.009993114783226724</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003188405797101446</v>
+        <v>0.002311470673215688</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1101,13 +1101,13 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01895757204166774</v>
+        <v>0.01060934168443497</v>
       </c>
       <c r="E17" s="1">
-        <v>0.00579038795599307</v>
+        <v>-0.01324122049510645</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1118,13 +1118,13 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01647054456142116</v>
+        <v>0.009103144989339019</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.006688963210702337</v>
+        <v>0.00729517396184054</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1135,13 +1135,13 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01494431880574781</v>
+        <v>0.008217506218905471</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01175260760981356</v>
+        <v>0.004162330905306932</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1152,13 +1152,13 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02216989106057222</v>
+        <v>0.01218461265103056</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01224342815988466</v>
+        <v>0.001275975209624303</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1169,13 +1169,13 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0220868637407919</v>
+        <v>0.01219549573560768</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.007644762524398052</v>
+        <v>0.003442058678905013</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1186,13 +1186,13 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02147553518192863</v>
+        <v>0.01183069029850746</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.009925558312654958</v>
+        <v>0.0008354218880533004</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1203,13 +1203,13 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02065703749342119</v>
+        <v>0.01178871268656716</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02565217391304353</v>
+        <v>0.003956478733926794</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1220,13 +1220,13 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01909827939850699</v>
+        <v>0.010551039445629</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.007106280698087497</v>
+        <v>0.008420166298284348</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1237,13 +1237,13 @@
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0193964592440642</v>
+        <v>0.01096304193319119</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01580507079354621</v>
+        <v>0.08103727714748787</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1254,13 +1254,13 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0200091848972507</v>
+        <v>0.01118470149253731</v>
       </c>
       <c r="E26" s="1">
-        <v>0.004608294930875667</v>
+        <v>-0.01548909805790555</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1271,13 +1271,13 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01864641917739486</v>
+        <v>0.0103853500355366</v>
       </c>
       <c r="E27" s="1">
-        <v>0.000984736582964052</v>
+        <v>-0.01180521396950318</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1288,13 +1288,13 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0206019520601054</v>
+        <v>0.01190298507462687</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0383631713554986</v>
+        <v>0.03910098522167504</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1305,13 +1305,13 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01723814809958249</v>
+        <v>0.009611540511727079</v>
       </c>
       <c r="E29" s="1">
-        <v>0.002084056964223757</v>
+        <v>0.04159445407279039</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1322,13 +1322,13 @@
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0127109637376185</v>
+        <v>0.006957067341862118</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01632986323739538</v>
+        <v>0.003942726706785749</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1339,13 +1339,13 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009877456865211735</v>
+        <v>0.005425995024875622</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01272984441301273</v>
+        <v>-0.01146131805157602</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01731897998542632</v>
+        <v>0.009428971215351812</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02153846153846162</v>
+        <v>-0.005241090146750449</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01899030396581191</v>
+        <v>0.01046019900497512</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01005790917403238</v>
+        <v>0.01816502463054182</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01881167547734222</v>
+        <v>0.01068163646055437</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02049780380673494</v>
+        <v>-0.009564801530368205</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01742775375773467</v>
+        <v>0.009508040156361053</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01949152542372878</v>
+        <v>0.001728608470181303</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0202442959133594</v>
+        <v>0.01116782160625444</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.008557457212713948</v>
+        <v>0.002466091245376223</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01762973367989256</v>
+        <v>0.009718816631130063</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.009237875288683695</v>
+        <v>0.01340326340326348</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.02021994655515459</v>
+        <v>0.01125677416488984</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0005428881650377804</v>
+        <v>-0.003255561584373234</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02304966131439832</v>
+        <v>0.01325515280739161</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03352729287891365</v>
+        <v>0.01782841823056325</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01977966225843491</v>
+        <v>0.01105632551528074</v>
       </c>
       <c r="E40" s="1">
-        <v>0.004601226993865115</v>
+        <v>0.01450381679389312</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02059716202242576</v>
+        <v>0.01152096659559346</v>
       </c>
       <c r="E41" s="1">
-        <v>0.005271317829457445</v>
+        <v>0.003084515731030191</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01945733263957622</v>
+        <v>0.01097192608386638</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01344767101929434</v>
+        <v>0.01076923076923086</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.0198103983335459</v>
+        <v>0.01095971037668799</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.005722460658083017</v>
+        <v>0.004316546762590079</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01957369063821065</v>
+        <v>0.01085276741293532</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.00351782363977482</v>
+        <v>0.01223817368792646</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01882584600547781</v>
+        <v>0.01149109363894812</v>
       </c>
       <c r="E45" s="1">
-        <v>0.09700503578054609</v>
+        <v>0.005073689296931638</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01934616384842804</v>
+        <v>0.01080601457000711</v>
       </c>
       <c r="E46" s="1">
-        <v>0.003858374943259024</v>
+        <v>-0.006556635767578589</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01925056267973868</v>
+        <v>0.01054804104477612</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01524058349662538</v>
+        <v>-0.001989829759009409</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01901644958814658</v>
+        <v>0.01063432835820896</v>
       </c>
       <c r="E48" s="1">
-        <v>0.005037783375314797</v>
+        <v>0.01503759398496229</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.0178476803943159</v>
+        <v>0.009938366204690833</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0007716049382717749</v>
+        <v>0.001542020046260584</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01770397926392689</v>
+        <v>0.009722814498933901</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01298701298701299</v>
+        <v>-0.01439144736842113</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0177570688482095</v>
+        <v>0.009957689232409382</v>
       </c>
       <c r="E51" s="1">
-        <v>0.007834101382488745</v>
+        <v>0.003657978966620679</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01827399374780332</v>
+        <v>0.01012793176972281</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.003931847968545288</v>
+        <v>-0.001096491228070207</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01692400146175984</v>
+        <v>0.009382773631840797</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.003608660785886064</v>
+        <v>0.004024144869215096</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007313788782091008</v>
+        <v>0.004029517590618337</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.009823986901350668</v>
+        <v>0.02811078958247215</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007370271309730024</v>
+        <v>0.004070717839374556</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.007365684575389886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.00168250073497167</v>
+        <v>-0.002202047796730722</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01119402985074627</v>
+        <v>0.01104733671371894</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01527777777777772</v>
+        <v>0.005994358251057763</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01020855543710021</v>
+        <v>0.01031722862544576</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008419815938907282</v>
+        <v>-0.0009708737864076999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01073560767590618</v>
+        <v>0.0106471128287448</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01042701092353526</v>
+        <v>0.01404917210235834</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0113261815920398</v>
+        <v>0.01131667536823436</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003039513677811523</v>
+        <v>0.008536585365853666</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01059434968017058</v>
+        <v>0.01065779733735368</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003773584905660377</v>
+        <v>0.01528822055137846</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01105943496801706</v>
+        <v>0.01119124368904474</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009689922480620172</v>
+        <v>0.08253358925143961</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01116426794598436</v>
+        <v>0.01126191726161387</v>
       </c>
       <c r="E8" s="1">
-        <v>0.006525285481239873</v>
+        <v>-0.0008103727714747766</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01125177683013504</v>
+        <v>0.01131311386536473</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003237268061587084</v>
+        <v>0.0008657327246970326</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01044109808102345</v>
+        <v>0.01042407371153452</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003828972559030031</v>
+        <v>0.004356181934657366</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01106076759061834</v>
+        <v>0.01107015259147748</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.00135542168674696</v>
+        <v>0.0003016136329361263</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4532649253731343</v>
+        <v>0.4496709004403019</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01011378002528451</v>
+        <v>0.001915708812260775</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01159914712153518</v>
+        <v>0.01157555210807024</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00423177083333337</v>
+        <v>0.03072899640405358</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0110976368159204</v>
+        <v>0.0109772196259732</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01302885962454459</v>
+        <v>-0.00823278921220727</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01054948471926084</v>
+        <v>0.01048461926031815</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.008337193144974608</v>
+        <v>-0.005137786081270357</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009993114783226724</v>
+        <v>0.01003831843196823</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002311470673215688</v>
+        <v>0.02219659844335564</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01060934168443497</v>
+        <v>0.01049196485998675</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01324122049510645</v>
+        <v>-0.01983663943990666</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.009103144989339019</v>
+        <v>0.009189790373280002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.00729517396184054</v>
+        <v>-0.06518105849582156</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.008217506218905471</v>
+        <v>0.008269920960234597</v>
       </c>
       <c r="E19" s="1">
-        <v>0.004162330905306932</v>
+        <v>0.07076239822353814</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01218461265103056</v>
+        <v>0.01222708453928232</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001275975209624303</v>
+        <v>0.01929728745676318</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01219549573560768</v>
+        <v>0.01226448031941339</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003442058678905013</v>
+        <v>-0.02107154524665145</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01183069029850746</v>
+        <v>0.01186670496766211</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0008354218880533004</v>
+        <v>0.005008347245408995</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01178871268656716</v>
+        <v>0.01186147401032235</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003956478733926794</v>
+        <v>0.004926108374384341</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.010551039445629</v>
+        <v>0.01066336218558747</v>
       </c>
       <c r="E24" s="1">
-        <v>0.008420166298284348</v>
+        <v>0.1167936541070869</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01096304193319119</v>
+        <v>0.01187761207020034</v>
       </c>
       <c r="E25" s="1">
-        <v>0.08103727714748787</v>
+        <v>0.045127436281859</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01118470149253731</v>
+        <v>0.01103576182939266</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01548909805790555</v>
+        <v>0.0308604623018276</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0103853500355366</v>
+        <v>0.01028539769354848</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01180521396950318</v>
+        <v>0.0119462419113987</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01190298507462687</v>
+        <v>0.01239569944076614</v>
       </c>
       <c r="E28" s="1">
-        <v>0.03910098522167504</v>
+        <v>0.01125925925925952</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.009611540511727079</v>
+        <v>0.01003342136552249</v>
       </c>
       <c r="E29" s="1">
-        <v>0.04159445407279039</v>
+        <v>0.02628951747088193</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006957067341862118</v>
+        <v>0.006999911296319154</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003942726706785749</v>
+        <v>0.004754030591153313</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.005425995024875622</v>
+        <v>0.00537564339384067</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01146131805157602</v>
+        <v>-0.006521739130434745</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009428971215351812</v>
+        <v>0.009400252933481923</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.005241090146750449</v>
+        <v>-0.03793466807165435</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01046019900497512</v>
+        <v>0.01067371280330232</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01816502463054182</v>
+        <v>0.008466888418506402</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01068163646055437</v>
+        <v>0.01060281663680384</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.009564801530368205</v>
+        <v>-0.01183003380009662</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009508040156361053</v>
+        <v>0.009545495472383829</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001728608470181303</v>
+        <v>0.00690250215703192</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01116782160625444</v>
+        <v>0.01122006960289577</v>
       </c>
       <c r="E36" s="1">
-        <v>0.002466091245376223</v>
+        <v>-0.01414514145141454</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009718816631130063</v>
+        <v>0.009870816500131165</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01340326340326348</v>
+        <v>0.01035077630822312</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01125677416488984</v>
+        <v>0.01124488882601847</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.003255561584373234</v>
+        <v>0.02558519324986386</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01325515280739161</v>
+        <v>0.01352124564453241</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01782841823056325</v>
+        <v>-0.008823916765441919</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01105632551528074</v>
+        <v>0.01124143862011352</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01450381679389312</v>
+        <v>0.004514672686230403</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01152096659559346</v>
+        <v>0.01158200733202144</v>
       </c>
       <c r="E41" s="1">
-        <v>0.003084515731030191</v>
+        <v>0.01937269372693717</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01097192608386638</v>
+        <v>0.01111456008038312</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01076923076923086</v>
+        <v>0.01598173515981727</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01095971037668799</v>
+        <v>0.01103130995080563</v>
       </c>
       <c r="E43" s="1">
-        <v>0.004316546762590079</v>
+        <v>0.01074498567335236</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01085276741293532</v>
+        <v>0.0110098296366232</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01223817368792646</v>
+        <v>0.01069518716577544</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01149109363894812</v>
+        <v>0.01157488432628219</v>
       </c>
       <c r="E45" s="1">
-        <v>0.005073689296931638</v>
+        <v>0.02307692307692299</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01080601457000711</v>
+        <v>0.01075885498127929</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.006556635767578589</v>
+        <v>0.002048247610378029</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01054804104477612</v>
+        <v>0.01055028446947687</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.001989829759009409</v>
+        <v>-0.006202924235711227</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01063432835820896</v>
+        <v>0.01081806496648681</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01503759398496229</v>
+        <v>0.01234567901234551</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009938366204690833</v>
+        <v>0.009975658240855759</v>
       </c>
       <c r="E49" s="1">
-        <v>0.001542020046260584</v>
+        <v>0.0007698229407235857</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009722814498933901</v>
+        <v>0.009604037675803295</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01439144736842113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.009957689232409382</v>
+        <v>0.01001617033599775</v>
       </c>
       <c r="E51" s="1">
-        <v>0.003657978966620679</v>
+        <v>-0.01594533029612744</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01012793176972281</v>
+        <v>0.01013915348196449</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.001096491228070207</v>
+        <v>-0.001097694840834218</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009382773631840797</v>
+        <v>0.009441321513447289</v>
       </c>
       <c r="E53" s="1">
-        <v>0.004024144869215096</v>
+        <v>-0.01002004008016033</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004029517590618337</v>
+        <v>0.004151933267230357</v>
       </c>
       <c r="E54" s="1">
-        <v>0.02811078958247215</v>
+        <v>0.009248090068355364</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004070717839374556</v>
+        <v>0.004079701537155768</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>0.003928415539065977</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.002202047796730722</v>
+        <v>0.005883046255797941</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01104733671371894</v>
+        <v>0.01104855922273377</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005994358251057763</v>
+        <v>-0.01156677181913779</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01031722862544576</v>
+        <v>0.01024692874285088</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009708737864076999</v>
+        <v>-0.04237123420796896</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0106471128287448</v>
+        <v>0.01073354997825805</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01404917210235834</v>
+        <v>-0.007916872835230016</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01131667536823436</v>
+        <v>0.01134652897874822</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008536585365853666</v>
+        <v>-0.003929866989117237</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01065779733735368</v>
+        <v>0.01075744952051543</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01528822055137846</v>
+        <v>-0.0007405578869414953</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01119124368904474</v>
+        <v>0.01204404154537096</v>
       </c>
       <c r="E7" s="1">
-        <v>0.08253358925143961</v>
+        <v>-0.001773049645390157</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01126191726161387</v>
+        <v>0.01118697740497442</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008103727714747766</v>
+        <v>0.008110300081102917</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01131311386536473</v>
+        <v>0.01125668440322511</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0008657327246970326</v>
+        <v>-0.01635605881890378</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01042407371153452</v>
+        <v>0.01040825065308819</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004356181934657366</v>
+        <v>-0.003061615001913487</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01107015259147748</v>
+        <v>0.01100872665230481</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0003016136329361263</v>
+        <v>-0.01191014623850428</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4496709004403019</v>
+        <v>0.447897338188481</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001915708812260775</v>
+        <v>-0.002549394518801873</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01157555210807024</v>
+        <v>0.01186147559757154</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03072899640405358</v>
+        <v>0.001585791309863582</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0109772196259732</v>
+        <v>0.01082317326172322</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00823278921220727</v>
+        <v>0.007013024187777273</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01048461926031815</v>
+        <v>0.01036974583500685</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.005137786081270357</v>
+        <v>0.00610328638497637</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01003831843196823</v>
+        <v>0.01020112128685757</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02219659844335564</v>
+        <v>-0.01156232374506494</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01049196485998675</v>
+        <v>0.01022369307676732</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01983663943990666</v>
+        <v>-0.018452380952381</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.009189790373280002</v>
+        <v>0.00854054568408567</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.06518105849582156</v>
+        <v>-0.05542312276519679</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.008269920960234597</v>
+        <v>0.00880333000288786</v>
       </c>
       <c r="E19" s="1">
-        <v>0.07076239822353814</v>
+        <v>-0.02101479330844724</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01222708453928232</v>
+        <v>0.01239014232398706</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01929728745676318</v>
+        <v>0.01535988569387392</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01226448031941339</v>
+        <v>0.01193582972903894</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02107154524665145</v>
+        <v>-0.02119138995494751</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01186670496766211</v>
+        <v>0.01185638588023895</v>
       </c>
       <c r="E22" s="1">
-        <v>0.005008347245408995</v>
+        <v>-0.03156146179401986</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01186147401032235</v>
+        <v>0.01185018970261667</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004926108374384341</v>
+        <v>-0.0113445378151259</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01066336218558747</v>
+        <v>0.01183912509971973</v>
       </c>
       <c r="E24" s="1">
-        <v>0.1167936541070869</v>
+        <v>-0.00570093457943921</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01187761207020034</v>
+        <v>0.01234101548712467</v>
       </c>
       <c r="E25" s="1">
-        <v>0.045127436281859</v>
+        <v>0.000143451441687148</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01103576182939266</v>
+        <v>0.01130979449713039</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0308604623018276</v>
+        <v>-0.02688424512796428</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01028539769354848</v>
+        <v>0.01034739533715504</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0119462419113987</v>
+        <v>-0.01278898180029509</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01239569944076614</v>
+        <v>0.01246195159678817</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01125925925925952</v>
+        <v>-0.03047172575446833</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01003342136552249</v>
+        <v>0.01023697060024364</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02628951747088193</v>
+        <v>-0.006160830090791269</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006999911296319154</v>
+        <v>0.006992054508659709</v>
       </c>
       <c r="E30" s="1">
-        <v>0.004754030591153313</v>
+        <v>-0.02777206336144822</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.00537564339384067</v>
+        <v>0.005309349700093937</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006521739130434745</v>
+        <v>-0.01167031363967908</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009400252933481923</v>
+        <v>0.008990764375961928</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.03793466807165435</v>
+        <v>0.002190580503833583</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01067371280330232</v>
+        <v>0.01070113069177004</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008466888418506402</v>
+        <v>-0.002098950524737742</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01060281663680384</v>
+        <v>0.01041610652114501</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01183003380009662</v>
+        <v>-0.002443195699975642</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009545495472383829</v>
+        <v>0.009555169769734547</v>
       </c>
       <c r="E35" s="1">
-        <v>0.00690250215703192</v>
+        <v>-0.01885175664095984</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01122006960289577</v>
+        <v>0.01099666623514715</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01414514145141454</v>
+        <v>-0.07860262008733632</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009870816500131165</v>
+        <v>0.009914658717855945</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01035077630822312</v>
+        <v>-0.009675583380762798</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01124488882601847</v>
+        <v>0.01146514152180335</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02558519324986386</v>
+        <v>-0.01326963906581746</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01352124564453241</v>
+        <v>0.01332355222437244</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.008823916765441919</v>
+        <v>-0.007706617060855625</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01124143862011352</v>
+        <v>0.01122614609922957</v>
       </c>
       <c r="E40" s="1">
-        <v>0.004514672686230403</v>
+        <v>-0.01048689138576775</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01158200733202144</v>
+        <v>0.01173733075306794</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01937269372693717</v>
+        <v>-0.008748114630467541</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01111456008038312</v>
+        <v>0.01122614609922957</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01598173515981727</v>
+        <v>-0.0009363295880150391</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01103130995080563</v>
+        <v>0.01108462982817778</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01074498567335236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.0110098296366232</v>
+        <v>0.01106250062238391</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01069518716577544</v>
+        <v>-0.02323441453876229</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01157488432628219</v>
+        <v>0.01177273748233813</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02307692307692299</v>
+        <v>-0.006109022556391008</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01075885498127929</v>
+        <v>0.01071783824214441</v>
       </c>
       <c r="E46" s="1">
-        <v>0.002048247610378029</v>
+        <v>-0.0002271178741767299</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01055028446947687</v>
+        <v>0.01042351980508595</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.006202924235711227</v>
+        <v>-0.02674988854213112</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01081806496648681</v>
+        <v>0.01088756925058338</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01234567901234551</v>
+        <v>-0.04634146341463397</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009975658240855759</v>
+        <v>0.009924948798550092</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0007698229407235857</v>
+        <v>-0.02307692307692311</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009604037675803295</v>
+        <v>0.00954786713182257</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>0.001251564455569509</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01001617033599775</v>
+        <v>0.009798812325525041</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01594533029612744</v>
+        <v>-0.04861111111111105</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01013915348196449</v>
+        <v>0.01006878863621024</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.001097694840834218</v>
+        <v>-0.01252747252747255</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009441321513447289</v>
+        <v>0.009292053512845448</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01002004008016033</v>
+        <v>-0.02914979757085012</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004151933267230357</v>
+        <v>0.004165822990695775</v>
       </c>
       <c r="E54" s="1">
-        <v>0.009248090068355364</v>
+        <v>-0.01394422310756971</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004079701537155768</v>
+        <v>0.004071773866071833</v>
       </c>
       <c r="E55" s="1">
-        <v>0.003928415539065977</v>
+        <v>0.0004347826086956719</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E56" s="1">
-        <v>0.005883046255797941</v>
+        <v>-0.008614235939379156</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01104855922273377</v>
+        <v>0.01101565450621742</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01156677181913779</v>
+        <v>0.03439716312056751</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01024692874285088</v>
+        <v>0.009898017583975668</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.04237123420796896</v>
+        <v>0.01968743657398009</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01073354997825805</v>
+        <v>0.01074110019937553</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007916872835230016</v>
+        <v>0.01795511221945145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01134652897874822</v>
+        <v>0.01140014214323788</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003929866989117237</v>
+        <v>0.01790591805766306</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01075744952051543</v>
+        <v>0.01084288618630228</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0007405578869414953</v>
+        <v>0.02519762845849804</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01204404154537096</v>
+        <v>0.01212715301915987</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001773049645390157</v>
+        <v>0.01243339253996467</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01118697740497442</v>
+        <v>0.01137570011348244</v>
       </c>
       <c r="E8" s="1">
-        <v>0.008110300081102917</v>
+        <v>-0.007240547063555924</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01125668440322511</v>
+        <v>0.01116877991637477</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01635605881890378</v>
+        <v>0.02110480454073071</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01040825065308819</v>
+        <v>0.01046654589253364</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003061615001913487</v>
+        <v>0.02725527831094054</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01100872665230481</v>
+        <v>0.01097212760391322</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01191014623850428</v>
+        <v>0.02136100091547122</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.447897338188481</v>
+        <v>0.4506373677786636</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002549394518801873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01186147559757154</v>
+        <v>0.011983514241556</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001585791309863582</v>
+        <v>0.007283090563647843</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01082317326172322</v>
+        <v>0.01099377944762352</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007013024187777273</v>
+        <v>0.009096077316657292</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01036974583500685</v>
+        <v>0.01052368890273813</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00610328638497637</v>
+        <v>-0.001399906672888473</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01020112128685757</v>
+        <v>0.01017078617174867</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01156232374506494</v>
+        <v>0.003423680456490885</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01022369307676732</v>
+        <v>0.01012223693456321</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.018452380952381</v>
+        <v>-0.02031534263189794</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.00854054568408567</v>
+        <v>0.008137298582049771</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.05542312276519679</v>
+        <v>0.06119873817034693</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.00880333000288786</v>
+        <v>0.008693215249683703</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.02101479330844724</v>
+        <v>0.04067222143764981</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01239014232398706</v>
+        <v>0.01268976613330214</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01535988569387392</v>
+        <v>0.009498680738786236</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01193582972903894</v>
+        <v>0.01178440656537472</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02119138995494751</v>
+        <v>0.0144902829867033</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01185638588023895</v>
+        <v>0.01158195066593928</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.03156146179401986</v>
+        <v>0.04116638078902235</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01185018970261667</v>
+        <v>0.01181755397559101</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0113445378151259</v>
+        <v>0.005949851253718608</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01183912509971973</v>
+        <v>0.01187391573370286</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.00570093457943921</v>
+        <v>0.01409906946141559</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01234101548712467</v>
+        <v>0.01245003334830361</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000143451441687148</v>
+        <v>0.01391279403327594</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01130979449713039</v>
+        <v>0.01110136902152416</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.02688424512796428</v>
+        <v>0.03794185064543365</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01034739533715504</v>
+        <v>0.010303822242381</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01278898180029509</v>
+        <v>0.03338315894369703</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01246195159678817</v>
+        <v>0.01218719782285131</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.03047172575446833</v>
+        <v>0.02085222121486852</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01023697060024364</v>
+        <v>0.0102623042740293</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.006160830090791269</v>
+        <v>0.04469820554649284</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006992054508659709</v>
+        <v>0.006856938009655381</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02777206336144822</v>
+        <v>0.02031316123571725</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.005309349700093937</v>
+        <v>0.00529298292763284</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01167031363967908</v>
+        <v>-0.01992619926199268</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.008990764375961928</v>
+        <v>0.009088752023442918</v>
       </c>
       <c r="E32" s="1">
-        <v>0.002190580503833583</v>
+        <v>0.02404371584699438</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01070113069177004</v>
+        <v>0.01077145742354667</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002098950524737742</v>
+        <v>0.03545673076923084</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01041610652114501</v>
+        <v>0.01048094325252657</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.002443195699975642</v>
+        <v>0.02792064658339455</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009555169769734547</v>
+        <v>0.009456498544192527</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01885175664095984</v>
+        <v>0.01746724890829698</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01099666623514715</v>
+        <v>0.01022033987591038</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.07860262008733632</v>
+        <v>-0.009478672985781977</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009914658717855945</v>
+        <v>0.009904044385833173</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.009675583380762798</v>
+        <v>0.005172413793103292</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01146514152180335</v>
+        <v>0.01141130288741845</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01326963906581746</v>
+        <v>0.0250134480903712</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01332355222437244</v>
+        <v>0.01333575000647323</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.007706617060855625</v>
+        <v>0.03093197643277978</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01122614609922957</v>
+        <v>0.0112049407275198</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01048689138576775</v>
+        <v>0.03557910673732034</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01173733075306794</v>
+        <v>0.01173574572074746</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.008748114630467541</v>
+        <v>0.02967133292757151</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01122614609922957</v>
+        <v>0.01131308833862948</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.0009363295880150391</v>
+        <v>-0.002249297094658043</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01108462982817778</v>
+        <v>0.01118094512753159</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>0.0255138199858258</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01106250062238391</v>
+        <v>0.01089935955185594</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.02323441453876229</v>
+        <v>-0.009185115402732036</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01177273748233813</v>
+        <v>0.01180248697094724</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.006109022556391008</v>
+        <v>0.0271867612293144</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01071783824214441</v>
+        <v>0.01080851109422614</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0002271178741767299</v>
+        <v>0.02044525215810999</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01042351980508595</v>
+        <v>0.01023283990939261</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02674988854213112</v>
+        <v>0.01282638570774175</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01088756925058338</v>
+        <v>0.01047324233904198</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.04634146341463397</v>
+        <v>0.03708439897698201</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009924948798550092</v>
+        <v>0.009780160125428905</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.02307692307692311</v>
+        <v>0.01889763779527565</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.00954786713182257</v>
+        <v>0.009642882972007959</v>
       </c>
       <c r="E50" s="1">
-        <v>0.001251564455569509</v>
+        <v>0.03916666666666679</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.009798812325525041</v>
+        <v>0.009403485009334845</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.04861111111111105</v>
+        <v>-0.001459854014598694</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01006878863621024</v>
+        <v>0.0100290447206555</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01252747252747255</v>
+        <v>0.00689962163365232</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009292053512845448</v>
+        <v>0.009099577945298067</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.02914979757085012</v>
+        <v>0.01084236864053367</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004165822990695775</v>
+        <v>0.00414342627703467</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.01394422310756971</v>
+        <v>0.03313131313131312</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004071773866071833</v>
+        <v>0.004108939577516724</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0004347826086956719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>0.9999999999999997</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.008614235939379156</v>
+        <v>0.01014444681548232</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01101565450621742</v>
+        <v>0.01128013108132146</v>
       </c>
       <c r="E2" s="1">
-        <v>0.03439716312056751</v>
+        <v>-0.01062735687350014</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.009898017583975668</v>
+        <v>0.009991525676537171</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01968743657398009</v>
+        <v>0.01791401273885351</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01074110019937553</v>
+        <v>0.0108241528162486</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01795511221945145</v>
+        <v>0.0004899559039686086</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01140014214323788</v>
+        <v>0.0114877354331683</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01790591805766306</v>
+        <v>0.009540846750149212</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01084288618630228</v>
+        <v>0.01100446697389312</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02519762845849804</v>
+        <v>-0.004578313253011945</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01212715301915987</v>
+        <v>0.01215463264857411</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01243339253996467</v>
+        <v>0.01228070175438578</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01137570011348244</v>
+        <v>0.01117991972042466</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007240547063555924</v>
+        <v>-0.008103727714748765</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01116877991637477</v>
+        <v>0.0112899643901636</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02110480454073071</v>
+        <v>0.0009394817192514004</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01046654589253364</v>
+        <v>0.01064383865860409</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02725527831094054</v>
+        <v>0.002242152466367608</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01097212760391322</v>
+        <v>0.01109396113301815</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02136100091547122</v>
+        <v>0.0002987750224081598</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4506373677786636</v>
+        <v>0.4461118102458658</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-0.01214057507987232</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.011983514241556</v>
+        <v>0.01194956948889996</v>
       </c>
       <c r="E13" s="1">
-        <v>0.007283090563647843</v>
+        <v>-0.0009430996541968106</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01099377944762352</v>
+        <v>0.01098236965065237</v>
       </c>
       <c r="E14" s="1">
-        <v>0.009096077316657292</v>
+        <v>-0.0001408450704226683</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01052368890273813</v>
+        <v>0.01040341978174474</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001399906672888473</v>
+        <v>-0.0004672897196259518</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01017078617174867</v>
+        <v>0.01010311715890296</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003423680456490885</v>
+        <v>-0.011088996303668</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01012223693456321</v>
+        <v>0.009817012066243355</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02031534263189794</v>
+        <v>-0.0003095017022596291</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008137298582049771</v>
+        <v>0.008548570468916246</v>
       </c>
       <c r="E18" s="1">
-        <v>0.06119873817034693</v>
+        <v>0.03151010701545776</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.008693215249683703</v>
+        <v>0.008955934622859457</v>
       </c>
       <c r="E19" s="1">
-        <v>0.04067222143764981</v>
+        <v>0.006649477541050386</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01268976613330214</v>
+        <v>0.01268165380786598</v>
       </c>
       <c r="E20" s="1">
-        <v>0.009498680738786236</v>
+        <v>-0.0003484927687751327</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01178440656537472</v>
+        <v>0.01183510535451288</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0144902829867033</v>
+        <v>0.004873130566291239</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01158195066593928</v>
+        <v>0.01193763693434996</v>
       </c>
       <c r="E22" s="1">
-        <v>0.04116638078902235</v>
+        <v>-0.007413509060955503</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01181755397559101</v>
+        <v>0.01176848192494202</v>
       </c>
       <c r="E23" s="1">
-        <v>0.005949851253718608</v>
+        <v>0.0009857766511758292</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01187391573370286</v>
+        <v>0.01192040102222217</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01409906946141559</v>
+        <v>0.02243025303549895</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01245003334830361</v>
+        <v>0.0124964782391085</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01391279403327594</v>
+        <v>0.01287310793605889</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01110136902152416</v>
+        <v>0.01140685923010716</v>
       </c>
       <c r="E26" s="1">
-        <v>0.03794185064543365</v>
+        <v>0.01481955018306502</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.010303822242381</v>
+        <v>0.0105408651323022</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03338315894369703</v>
+        <v>-0.02941176470588247</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01218719782285131</v>
+        <v>0.0123163850546964</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02085222121486852</v>
+        <v>0.07874481941977507</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0102623042740293</v>
+        <v>0.01061334435253186</v>
       </c>
       <c r="E29" s="1">
-        <v>0.04469820554649284</v>
+        <v>0.004996876951904872</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006856938009655381</v>
+        <v>0.006925964023348031</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02031316123571725</v>
+        <v>-0.004355039402737515</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.00529298292763284</v>
+        <v>0.00513541792115012</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01992619926199268</v>
+        <v>-0.01807228915662651</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009088752023442918</v>
+        <v>0.009213810385079001</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02404371584699438</v>
+        <v>-0.0106723585912486</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01077145742354667</v>
+        <v>0.01104136950370517</v>
       </c>
       <c r="E33" s="1">
-        <v>0.03545673076923084</v>
+        <v>-0.007544979686593067</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01048094325252657</v>
+        <v>0.01066538354876382</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02792064658339455</v>
+        <v>-0.01953776507028837</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009456498544192527</v>
+        <v>0.009525051182924956</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01746724890829698</v>
+        <v>0.0008583690987125081</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01022033987591038</v>
+        <v>0.010021799009377</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.009478672985781977</v>
+        <v>-0.02255639097744366</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009904044385833173</v>
+        <v>0.009855295678757951</v>
       </c>
       <c r="E37" s="1">
-        <v>0.005172413793103292</v>
+        <v>0.03659233847913113</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01141130288741845</v>
+        <v>0.01157927359469311</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0250134480903712</v>
+        <v>0.003411178168459816</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01333575000647323</v>
+        <v>0.01361018333044226</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03093197643277978</v>
+        <v>0.01493700480581905</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0112049407275198</v>
+        <v>0.01148707251347108</v>
       </c>
       <c r="E40" s="1">
-        <v>0.03557910673732034</v>
+        <v>-0.01900584795321647</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01173574572074746</v>
+        <v>0.011962606909612</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02967133292757151</v>
+        <v>0.01418649327619326</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01131308833862948</v>
+        <v>0.01117428490299827</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.002249297094658043</v>
+        <v>0.0003757279729477148</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01118094512753159</v>
+        <v>0.01135106348892427</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0255138199858258</v>
+        <v>0.01520387007601931</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01089935955185594</v>
+        <v>0.01069079547049068</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.009185115402732036</v>
+        <v>-0.001901592583788858</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01180248697094724</v>
+        <v>0.01200160868513193</v>
       </c>
       <c r="E45" s="1">
-        <v>0.0271867612293144</v>
+        <v>-0.004372842347525885</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01080851109422614</v>
+        <v>0.01091872935971901</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02044525215810999</v>
+        <v>0.02760463045414063</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01023283990939261</v>
+        <v>0.01026000815391227</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01282638570774175</v>
+        <v>-0.01605608322026242</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01047324233904198</v>
+        <v>0.01075255748894857</v>
       </c>
       <c r="E48" s="1">
-        <v>0.03708439897698201</v>
+        <v>-0.1307028360049322</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009780160125428905</v>
+        <v>0.009864908014367679</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01889763779527565</v>
+        <v>-0.02318392581143736</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009642882972007959</v>
+        <v>0.009919930349237145</v>
       </c>
       <c r="E50" s="1">
-        <v>0.03916666666666679</v>
+        <v>-0.03929430633520448</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.009403485009334845</v>
+        <v>0.009295459994453571</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.001459854014598694</v>
+        <v>-0.02241715399610134</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.0100290447206555</v>
+        <v>0.009996829034114953</v>
       </c>
       <c r="E52" s="1">
-        <v>0.00689962163365232</v>
+        <v>-0.002873563218390829</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009099577945298067</v>
+        <v>0.009105864961047943</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01084236864053367</v>
+        <v>-0.03217821782178221</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.00414342627703467</v>
+        <v>0.004237714164494684</v>
       </c>
       <c r="E54" s="1">
-        <v>0.03313131313131312</v>
+        <v>-0.009385999217833452</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004108939577516724</v>
+        <v>0.004067675262157119</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>0.0008691873098651826</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01014444681548232</v>
+        <v>-0.006238958243793391</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01128013108132146</v>
+        <v>0.01123031859149725</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01062735687350014</v>
+        <v>0.1999306999307</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.009991525676537171</v>
+        <v>0.01023436577551237</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01791401273885351</v>
+        <v>0.04067266327727803</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0108241528162486</v>
+        <v>0.0108974448773804</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0004899559039686086</v>
+        <v>-0.03256611165524004</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0114877354331683</v>
+        <v>0.01167014772077121</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009540846750149212</v>
+        <v>-0.01269935026580049</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01100446697389312</v>
+        <v>0.01102285621656671</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004578313253011945</v>
+        <v>0.006535947712418277</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01215463264857411</v>
+        <v>0.01238114551695599</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01228070175438578</v>
+        <v>0.02426343154246124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01117991972042466</v>
+        <v>0.01115894086121568</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008103727714748765</v>
+        <v>0.002450980392156854</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0112899643901636</v>
+        <v>0.01137151752834708</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0009394817192514004</v>
+        <v>-0.01337504888541252</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01064383865860409</v>
+        <v>0.01073467696907477</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002242152466367608</v>
+        <v>-0.004349987571464098</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01109396113301815</v>
+        <v>0.01116694584031267</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0002987750224081598</v>
+        <v>0.007616487455197163</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4461118102458658</v>
+        <v>0.4434625003418793</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01214057507987232</v>
+        <v>0.01875808538163004</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01194956948889996</v>
+        <v>0.01201325001928978</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0009430996541968106</v>
+        <v>-0.01667715544367521</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01098236965065237</v>
+        <v>0.01104976184075384</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0001408450704226683</v>
+        <v>-0.01803070855050004</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01040341978174474</v>
+        <v>0.01046384184295966</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0004672897196259518</v>
+        <v>-0.01542776998597484</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01010311715890296</v>
+        <v>0.01005380902476896</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.011088996303668</v>
+        <v>-0.02932719953996543</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.009817012066243355</v>
+        <v>0.009875587059595512</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0003095017022596291</v>
+        <v>-0.01919504643962833</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008548570468916246</v>
+        <v>0.008873296968492182</v>
       </c>
       <c r="E18" s="1">
-        <v>0.03151010701545776</v>
+        <v>0.001729106628241883</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.008955934622859457</v>
+        <v>0.009072087282734306</v>
       </c>
       <c r="E19" s="1">
-        <v>0.006649477541050386</v>
+        <v>0.02156915610676724</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01268165380786598</v>
+        <v>0.01275682363318873</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0003484927687751327</v>
+        <v>-0.002091685549938882</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01183510535451288</v>
+        <v>0.01196744375001251</v>
       </c>
       <c r="E21" s="1">
-        <v>0.004873130566291239</v>
+        <v>0.006521739130435078</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01193763693434996</v>
+        <v>0.01192352754524426</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.007413509060955503</v>
+        <v>-0.009958506224066466</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01176848192494202</v>
+        <v>0.0118540398794717</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0009857766511758292</v>
+        <v>0.003235790658413062</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01192040102222217</v>
+        <v>0.01226429505819286</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02243025303549895</v>
+        <v>-0.001359804188196923</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0124964782391085</v>
+        <v>0.01273681118544624</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01287310793605889</v>
+        <v>0.004608938547486119</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01140685923010716</v>
+        <v>0.01164857874931541</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01481955018306502</v>
+        <v>-0.01437406940785702</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0105408651323022</v>
+        <v>0.01029507020033127</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02941176470588247</v>
+        <v>0.006458022851465683</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0123163850546964</v>
+        <v>0.01336964925517005</v>
       </c>
       <c r="E28" s="1">
-        <v>0.07874481941977507</v>
+        <v>0.06613611416026344</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01061334435253186</v>
+        <v>0.01073334280589193</v>
       </c>
       <c r="E29" s="1">
-        <v>0.004996876951904872</v>
+        <v>0.06712243629583603</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006925964023348031</v>
+        <v>0.006939093894179959</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.004355039402737515</v>
+        <v>0.01041449697979591</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.00513541792115012</v>
+        <v>0.005074267305375055</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01807228915662651</v>
+        <v>-0.01150306748466245</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009213810385079001</v>
+        <v>0.009172705422772966</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0106723585912486</v>
+        <v>-0.02696871628910469</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01104136950370517</v>
+        <v>0.0110268587061152</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.007544979686593067</v>
+        <v>0.02514619883040936</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01066538354876382</v>
+        <v>0.01052265620326955</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01953776507028837</v>
+        <v>-0.01287970838396102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009525051182924956</v>
+        <v>0.009593078005630615</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0008583690987125081</v>
+        <v>-0.01029159519725575</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.010021799009377</v>
+        <v>0.009857242315831559</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.02255639097744366</v>
+        <v>-0.0118881118881119</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009855295678757951</v>
+        <v>0.0102800608645244</v>
       </c>
       <c r="E37" s="1">
-        <v>0.03659233847913113</v>
+        <v>-0.009928295642581464</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01157927359469311</v>
+        <v>0.01169171669222701</v>
       </c>
       <c r="E38" s="1">
-        <v>0.003411178168459816</v>
+        <v>-0.0005230125523014717</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01361018333044226</v>
+        <v>0.01390020148087666</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01493700480581905</v>
+        <v>0.001919631430765456</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01148707251347108</v>
+        <v>0.01133949761195908</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01900584795321647</v>
+        <v>0.007451564828613977</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.011962606909612</v>
+        <v>0.01220848256504435</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01418649327619326</v>
+        <v>0.02171062217689079</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01117428490299827</v>
+        <v>0.0112486633352612</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0003757279729477148</v>
+        <v>0.002629107981220624</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01135106348892427</v>
+        <v>0.01159599048385874</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01520387007601931</v>
+        <v>0.01361470388019059</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01069079547049068</v>
+        <v>0.01073745647570567</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.001901592583788858</v>
+        <v>0.01809954751131215</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01200160868513193</v>
+        <v>0.01202414568528291</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.004372842347525885</v>
+        <v>-0.0002311604253352195</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01091872935971901</v>
+        <v>0.0112905782952552</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02760463045414063</v>
+        <v>0.02166377816291165</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01026000815391227</v>
+        <v>0.01015865201488659</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01605608322026242</v>
+        <v>0.006665134451850241</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01075255748894857</v>
+        <v>0.009405850438973042</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.1307028360049322</v>
+        <v>0.02978723404255312</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009864908014367679</v>
+        <v>0.00969669801283065</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.02318392581143736</v>
+        <v>0.007911392405063333</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009919930349237145</v>
+        <v>0.009589964958204005</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.03929430633520448</v>
+        <v>0.01502504173622699</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.009295459994453571</v>
+        <v>0.00914413209460729</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02241715399610134</v>
+        <v>-0.008474576271186307</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.009996829034114953</v>
+        <v>0.01003068352959986</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.002873563218390829</v>
+        <v>0.006650410108623328</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009105864961047943</v>
+        <v>0.00886818267629132</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.03217821782178221</v>
+        <v>-0.007246376811594124</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004237714164494684</v>
+        <v>0.004224294177645162</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.009385999217833452</v>
+        <v>-0.005527043031977819</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004067675262157119</v>
+        <v>0.004096770413419369</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0008691873098651826</v>
+        <v>0.01085540599218415</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.006238958243793391</v>
+        <v>0.0125441357857925</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01123031859149725</v>
+        <v>0.01330865842947399</v>
       </c>
       <c r="E2" s="1">
-        <v>0.1999306999307</v>
+        <v>-0.001732601790355282</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01023436577551237</v>
+        <v>0.01051867697627895</v>
       </c>
       <c r="E3" s="1">
-        <v>0.04067266327727803</v>
+        <v>0.01972942502818498</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0108974448773804</v>
+        <v>0.01041194857403937</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.03256611165524004</v>
+        <v>0.02126044039483688</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01167014772077121</v>
+        <v>0.01137920217005633</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01269935026580049</v>
+        <v>0.01705055339515416</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01102285621656671</v>
+        <v>0.01095744929659724</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006535947712418277</v>
+        <v>0.01683501683501687</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01238114551695599</v>
+        <v>0.01252444623935557</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02426343154246124</v>
+        <v>0.1252115059221657</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01115894086121568</v>
+        <v>0.01104770726639244</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002450980392156854</v>
+        <v>-0.001629991850040757</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01137151752834708</v>
+        <v>0.01108042852551528</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01337504888541252</v>
+        <v>0.02441731409544956</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01073467696907477</v>
+        <v>0.01055557074495436</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.004349987571464098</v>
+        <v>0.005742104606166532</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01116694584031267</v>
+        <v>0.0111126007702233</v>
       </c>
       <c r="E11" s="1">
-        <v>0.007616487455197163</v>
+        <v>0.007855343115458657</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4434625003418793</v>
+        <v>0.4461840149182588</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01875808538163004</v>
+        <v>0.003174603174603163</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01201325001928978</v>
+        <v>0.01166655631476929</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01667715544367521</v>
+        <v>0.000320000000000098</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01104976184075384</v>
+        <v>0.01071610255984559</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01803070855050004</v>
+        <v>0.002008320183617851</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01046384184295966</v>
+        <v>0.01017477434684029</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01542776998597484</v>
+        <v>0.005223171889838563</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01005380902476896</v>
+        <v>0.009638057854919425</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.02932719953996543</v>
+        <v>0.03258293838862558</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.009875587059595512</v>
+        <v>0.009566027163696002</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01919504643962833</v>
+        <v>0.01073232323232332</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008873296968492182</v>
+        <v>0.008778520887088704</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001729106628241883</v>
+        <v>-0.05293440736478694</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.009072087282734306</v>
+        <v>0.009152948717990947</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02156915610676724</v>
+        <v>0.01253628925837957</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01275682363318873</v>
+        <v>0.0125724300992102</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002091685549938882</v>
+        <v>0.023056768558952</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01196744375001251</v>
+        <v>0.01189626394592691</v>
       </c>
       <c r="E21" s="1">
-        <v>0.006521739130435078</v>
+        <v>-0.003488951653098704</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01192352754524426</v>
+        <v>0.01165854070431302</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.009958506224066466</v>
+        <v>0.007544006705783701</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0118540398794717</v>
+        <v>0.0117450653760875</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003235790658413062</v>
+        <v>-0.01556583929322686</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01226429505819286</v>
+        <v>0.0120958855871528</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.001359804188196923</v>
+        <v>0.01506899055918653</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01273681118544624</v>
+        <v>0.01263699419439217</v>
       </c>
       <c r="E25" s="1">
-        <v>0.004608938547486119</v>
+        <v>-0.002502432920895359</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01164857874931541</v>
+        <v>0.01133890451200908</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01437406940785702</v>
+        <v>0.01847655569112772</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01029507020033127</v>
+        <v>0.01023318948057636</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006458022851465683</v>
+        <v>0.2003948667324777</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01336964925517005</v>
+        <v>0.01407727861021173</v>
       </c>
       <c r="E28" s="1">
-        <v>0.06613611416026344</v>
+        <v>-0.02342342342342341</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01073334280589193</v>
+        <v>0.0113118930028003</v>
       </c>
       <c r="E29" s="1">
-        <v>0.06712243629583603</v>
+        <v>0.02708211997670373</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006939093894179959</v>
+        <v>0.00692449920826631</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01041449697979591</v>
+        <v>0.02453102453102463</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.005074267305375055</v>
+        <v>0.004953757064854743</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01150306748466245</v>
+        <v>0.009309542280837801</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009172705422772966</v>
+        <v>0.00881475583846634</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02696871628910469</v>
+        <v>0.07871396895787153</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0110268587061152</v>
+        <v>0.01116409832233273</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02514619883040936</v>
+        <v>-0.00171135196805472</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01052265620326955</v>
+        <v>0.01025844414365774</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01287970838396102</v>
+        <v>-0.004677498769079302</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009593078005630615</v>
+        <v>0.009376726993468592</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01029159519725575</v>
+        <v>-0.001733102253032803</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009857242315831559</v>
+        <v>0.009619391364815795</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.0118881118881119</v>
+        <v>0.00424628450106157</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0102800608645244</v>
+        <v>0.01005190492080522</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.009928295642581464</v>
+        <v>0.005571030640668662</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01169171669222701</v>
+        <v>0.01154083201377718</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0005230125523014717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01390020148087666</v>
+        <v>0.01375434833141892</v>
       </c>
       <c r="E39" s="1">
-        <v>0.001919631430765456</v>
+        <v>0.02388555371056311</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01133949761195908</v>
+        <v>0.01128246583016634</v>
       </c>
       <c r="E40" s="1">
-        <v>0.007451564828613977</v>
+        <v>0.0199704142011834</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01220848256504435</v>
+        <v>0.01231900504533267</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02171062217689079</v>
+        <v>-0.005704506560182621</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0112486633352612</v>
+        <v>0.01113851425060246</v>
       </c>
       <c r="E42" s="1">
-        <v>0.002629107981220624</v>
+        <v>0.03277767372167073</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01159599048385874</v>
+        <v>0.01160825098391618</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01361470388019059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01073745647570567</v>
+        <v>0.0107963684672912</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01809954751131215</v>
+        <v>0.006315789473684275</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01202414568528291</v>
+        <v>0.01187243672032404</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.0002311604253352195</v>
+        <v>-0.01294797687861271</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.0112905782952552</v>
+        <v>0.01139226871312888</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02166377816291165</v>
+        <v>-0.007209499575911771</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01015865201488659</v>
+        <v>0.01009966917489392</v>
       </c>
       <c r="E47" s="1">
-        <v>0.006665134451850241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009405850438973042</v>
+        <v>0.009566027163696001</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02978723404255312</v>
+        <v>-0.005509641873278182</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.00969669801283065</v>
+        <v>0.009652332229704555</v>
       </c>
       <c r="E49" s="1">
-        <v>0.007911392405063333</v>
+        <v>-0.0007849293563579884</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009589964958204005</v>
+        <v>0.009613462009135817</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01502504173622699</v>
+        <v>-0.003700657894736836</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.00914413209460729</v>
+        <v>0.008954315302711723</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.008474576271186307</v>
+        <v>0.01407742584213167</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01003068352959986</v>
+        <v>0.009972297830657379</v>
       </c>
       <c r="E52" s="1">
-        <v>0.006650410108623328</v>
+        <v>0.03259194010129929</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.00886818267629132</v>
+        <v>0.008694851090271254</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.007246376811594124</v>
+        <v>0.01073422069557739</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004224294177645162</v>
+        <v>0.004148901932739365</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.005527043031977819</v>
+        <v>0.0103215561730845</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004096770413419369</v>
+        <v>0.004089937784588484</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01085540599218415</v>
+        <v>0.01288659793814428</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0125441357857925</v>
+        <v>0.009003946205810465</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01330865842947399</v>
+        <v>0.01316704446400841</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001732601790355282</v>
+        <v>-0.006363899334683287</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01051867697627895</v>
+        <v>0.01063048808224411</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01972942502818498</v>
+        <v>0.004975124378109541</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01041194857403937</v>
+        <v>0.01053842378523554</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02126044039483688</v>
+        <v>-0.005947955390334658</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01137920217005633</v>
+        <v>0.01146994905993212</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01705055339515416</v>
+        <v>0.001176470588235334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01095744929659724</v>
+        <v>0.01104249213481434</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01683501683501687</v>
+        <v>-0.009224219489120111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01252444623935557</v>
+        <v>0.0139668938529126</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1252115059221657</v>
+        <v>-0.02406015037593989</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01104770726639244</v>
+        <v>0.01093127498169052</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001629991850040757</v>
+        <v>0.004897959183673528</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01108042852551528</v>
+        <v>0.01124969121460667</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02441731409544956</v>
+        <v>-0.003250270855904569</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01055557074495436</v>
+        <v>0.01052144739004247</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005742104606166532</v>
+        <v>-0.003971701625915314</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0111126007702233</v>
+        <v>0.01109995070316011</v>
       </c>
       <c r="E11" s="1">
-        <v>0.007855343115458657</v>
+        <v>0.002647058823529447</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4461840149182588</v>
+        <v>0.4436062651604107</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003174603174603163</v>
+        <v>0.003797468354430178</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01166655631476929</v>
+        <v>0.01156614863269284</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000320000000000098</v>
+        <v>0.01151631477927051</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01071610255984559</v>
+        <v>0.01064180567903948</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002008320183617851</v>
+        <v>0.007301360057265782</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01017477434684029</v>
+        <v>0.01013664909899959</v>
       </c>
       <c r="E15" s="1">
-        <v>0.005223171889838563</v>
+        <v>0.0004723665564476676</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009638057854919425</v>
+        <v>0.009863285607172746</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03258293838862558</v>
+        <v>0.01061388410785979</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.009566027163696002</v>
+        <v>0.009582413325164352</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01073232323232332</v>
+        <v>-0.006246096189881478</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008778520887088704</v>
+        <v>0.008239645759220307</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.05293440736478694</v>
+        <v>-0.01944106925880928</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.009152948717990947</v>
+        <v>0.009184991560772777</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01253628925837957</v>
+        <v>-0.01251140362309422</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0125724300992102</v>
+        <v>0.01274753162125663</v>
       </c>
       <c r="E20" s="1">
-        <v>0.023056768558952</v>
+        <v>-0.1364179614136931</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01189626394592691</v>
+        <v>0.01174897135015665</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.003488951653098704</v>
+        <v>0.03551183727909324</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01165854070431302</v>
+        <v>0.01164167182669277</v>
       </c>
       <c r="E22" s="1">
-        <v>0.007544006705783701</v>
+        <v>-0.0008319467554077642</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0117450653760875</v>
+        <v>0.01145906675532118</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01556583929322686</v>
+        <v>0.0092592592592593</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0120958855871528</v>
+        <v>0.01216859301595455</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01506899055918653</v>
+        <v>0.04283670184224664</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01263699419439217</v>
+        <v>0.0124928856933606</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.002502432920895359</v>
+        <v>0.0255052264808362</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01133890451200908</v>
+        <v>0.01144535505151139</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01847655569112772</v>
+        <v>0.04603799418107135</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01023318948057636</v>
+        <v>0.01217425181435224</v>
       </c>
       <c r="E27" s="1">
-        <v>0.2003948667324777</v>
+        <v>0.03988486842105243</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01407727861021173</v>
+        <v>0.01362486301899071</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02342342342342341</v>
+        <v>-0.01317870321560355</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0113118930028003</v>
+        <v>0.01151456650883698</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02708211997670373</v>
+        <v>0.03118797845194199</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.00692449920826631</v>
+        <v>0.007031057009129166</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02453102453102463</v>
+        <v>-0.01106639839034218</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.004953757064854743</v>
+        <v>0.004955257404592115</v>
       </c>
       <c r="E31" s="1">
-        <v>0.009309542280837801</v>
+        <v>0.007302075326671931</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.00881475583846634</v>
+        <v>0.009423749323936827</v>
       </c>
       <c r="E32" s="1">
-        <v>0.07871396895787153</v>
+        <v>0.01336073997944487</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01116409832233273</v>
+        <v>0.01104553918010541</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.00171135196805472</v>
+        <v>0.102857142857143</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01025844414365774</v>
+        <v>0.01011934623466819</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.004677498769079302</v>
+        <v>0.03017561216918119</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009376726993468592</v>
+        <v>0.009276947034735229</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001733102253032803</v>
+        <v>0.01822916666666652</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009619391364815795</v>
+        <v>0.009574033950613925</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00424628450106157</v>
+        <v>0.01620859760394633</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01005190492080522</v>
+        <v>0.010017705509602</v>
       </c>
       <c r="E37" s="1">
-        <v>0.005571030640668662</v>
+        <v>0.03490304709141268</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01154083201377718</v>
+        <v>0.01143784626132984</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>0.003663003663003872</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01375434833141892</v>
+        <v>0.01395720860180886</v>
       </c>
       <c r="E39" s="1">
-        <v>0.02388555371056311</v>
+        <v>0.01896207584830356</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01128246583016634</v>
+        <v>0.01140509052445091</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0199704142011834</v>
+        <v>0.0050761421319796</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01231900504533267</v>
+        <v>0.01213942843959723</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.005704506560182621</v>
+        <v>0.04460699942627655</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01113851425060246</v>
+        <v>0.01140095524869875</v>
       </c>
       <c r="E42" s="1">
-        <v>0.03277767372167073</v>
+        <v>0.01142546245919474</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01160825098391618</v>
+        <v>0.01150466361164102</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>0.006715916722632498</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.0107963684672912</v>
+        <v>0.01076760512034197</v>
       </c>
       <c r="E44" s="1">
-        <v>0.006315789473684275</v>
+        <v>0.005346350534634947</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01187243672032404</v>
+        <v>0.01161413959602709</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01294797687861271</v>
+        <v>-0.01077535722651679</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01139226871312888</v>
+        <v>0.01120920904145396</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.007209499575911771</v>
+        <v>-0.003844510892780928</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01009966917489392</v>
+        <v>0.0100095437811438</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>0.008447488584474971</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009566027163696001</v>
+        <v>0.009428428714919532</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.005509641873278182</v>
+        <v>0.004155124653739684</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009652332229704555</v>
+        <v>0.009558689901112499</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.0007849293563579884</v>
+        <v>0.0369206598586016</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009613462009135817</v>
+        <v>0.009492416666031867</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.003700657894736836</v>
+        <v>-0.01485761452744527</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.008954315302711723</v>
+        <v>0.008999339444110117</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01407742584213167</v>
+        <v>0.0356965790778383</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.009972297830657379</v>
+        <v>0.01020542526414074</v>
       </c>
       <c r="E52" s="1">
-        <v>0.03259194010129929</v>
+        <v>0.009383663894220406</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008694851090271254</v>
+        <v>0.008709761318412969</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01073422069557739</v>
+        <v>0.01274426508071369</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004148901932739365</v>
+        <v>0.004154319785226837</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0103215561730845</v>
+        <v>0.01257367387033392</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004089937784588484</v>
+        <v>0.004105675883615929</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01288659793814428</v>
+        <v>-0.004028837998303558</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.009003946205810465</v>
+        <v>0.006064980417293198</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01316704446400841</v>
+        <v>0.01300437941203115</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006363899334683287</v>
+        <v>-0.01106259097525464</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01063048808224411</v>
+        <v>0.01061897222406256</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004975124378109541</v>
+        <v>-0.0106343967730107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01053842378523554</v>
+        <v>0.01041258955890843</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005947955390334658</v>
+        <v>-0.002493143854400359</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01146994905993212</v>
+        <v>0.0114142161204007</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001176470588235334</v>
+        <v>-0.02467685076380721</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01104249213481434</v>
+        <v>0.01087467904818435</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.009224219489120111</v>
+        <v>-0.006922893291955057</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0139668938529126</v>
+        <v>0.01354867583291982</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02406015037593989</v>
+        <v>0.007704160246533309</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01093127498169052</v>
+        <v>0.010918594856388</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004897959183673528</v>
+        <v>-0.01462225832656372</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01124969121460667</v>
+        <v>0.01114552925444533</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003250270855904569</v>
+        <v>-0.01824534161490687</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01052144739004247</v>
+        <v>0.01041648357145851</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003971701625915314</v>
+        <v>-0.01781931464174469</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01109995070316011</v>
+        <v>0.01106224065267977</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002647058823529447</v>
+        <v>-0.02156057494866548</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4436062651604107</v>
+        <v>0.442606446483693</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003797468354430178</v>
+        <v>-0.003783102143757766</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01156614863269284</v>
+        <v>0.01162881947871611</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01151631477927051</v>
+        <v>-0.005692599620493288</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01064180567903948</v>
+        <v>0.0106548836731355</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007301360057265782</v>
+        <v>-0.0008527572484366974</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01013664909899959</v>
+        <v>0.01008030048796845</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0004723665564476676</v>
+        <v>-0.005193578847969671</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009863285607172746</v>
+        <v>0.009907882265612216</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01061388410785979</v>
+        <v>-0.009083167754754484</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.009582413325164352</v>
+        <v>0.009465154672071411</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.006246096189881478</v>
+        <v>0.01508485229415446</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008239645759220307</v>
+        <v>0.008030751882444087</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01944106925880928</v>
+        <v>-0.02168525402726162</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.009184991560772777</v>
+        <v>0.009015396222537407</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01251140362309422</v>
+        <v>-0.003167480533192379</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01274753162125663</v>
+        <v>0.01094217526571903</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.1364179614136931</v>
+        <v>-0.05634638196915775</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01174897135015665</v>
+        <v>0.01209285597426707</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03551183727909324</v>
+        <v>-0.0001610046691354894</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01164167182669277</v>
+        <v>0.01156186409625782</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0008319467554077642</v>
+        <v>-0.001665278934221193</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01145906675532118</v>
+        <v>0.01149544954887594</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0092592592592593</v>
+        <v>-0.02582921665490479</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01216859301595455</v>
+        <v>0.01261335565179415</v>
       </c>
       <c r="E24" s="1">
-        <v>0.04283670184224664</v>
+        <v>0.01320641454420723</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0124928856933606</v>
+        <v>0.01273428637487713</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0255052264808362</v>
+        <v>-0.008969828757814602</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01144535505151139</v>
+        <v>0.01190010235303821</v>
       </c>
       <c r="E26" s="1">
-        <v>0.04603799418107135</v>
+        <v>-0.01248909249563701</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01217425181435224</v>
+        <v>0.01258350155557689</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03988486842105243</v>
+        <v>-0.02491103202846978</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01362486301899071</v>
+        <v>0.01336425107186751</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01317870321560355</v>
+        <v>0.06837606837606836</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01151456650883698</v>
+        <v>0.01180210303719458</v>
       </c>
       <c r="E29" s="1">
-        <v>0.03118797845194199</v>
+        <v>-0.05966455870222698</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.007031057009129166</v>
+        <v>0.006911331441311956</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01106639839034218</v>
+        <v>0.00142421159715167</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.004955257404592115</v>
+        <v>0.004961350573352784</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007302075326671931</v>
+        <v>-0.03395650515070581</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009423749323936827</v>
+        <v>0.009492088258876116</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01336073997944487</v>
+        <v>-0.01318458417849888</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01104553918010541</v>
+        <v>0.01210821569043682</v>
       </c>
       <c r="E33" s="1">
-        <v>0.102857142857143</v>
+        <v>-0.1476683937823836</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01011934623466819</v>
+        <v>0.01036185922874214</v>
       </c>
       <c r="E34" s="1">
-        <v>0.03017561216918119</v>
+        <v>-0.07635054021608645</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009276947034735229</v>
+        <v>0.00938911326032961</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01822916666666652</v>
+        <v>0.003410059676044463</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009574033950613925</v>
+        <v>0.009670563834088021</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01620859760394633</v>
+        <v>-0.02288488210818296</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.010017705509602</v>
+        <v>0.01030485521168961</v>
       </c>
       <c r="E37" s="1">
-        <v>0.03490304709141268</v>
+        <v>0.02516059957173455</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01143784626132984</v>
+        <v>0.01141053844188119</v>
       </c>
       <c r="E38" s="1">
-        <v>0.003663003663003872</v>
+        <v>0.001042752867570274</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01395720860180886</v>
+        <v>0.01413613089290519</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01896207584830356</v>
+        <v>-0.01334476003917728</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01140509052445091</v>
+        <v>0.01139388072152807</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0050761421319796</v>
+        <v>-0.03751803751803739</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01213942843959723</v>
+        <v>0.0126044859565412</v>
       </c>
       <c r="E41" s="1">
-        <v>0.04460699942627655</v>
+        <v>0.007963751201427893</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01140095524869875</v>
+        <v>0.0114617014401086</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01142546245919474</v>
+        <v>-0.0213376367222522</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01150466361164102</v>
+        <v>0.01151210726922905</v>
       </c>
       <c r="E43" s="1">
-        <v>0.006715916722632498</v>
+        <v>-0.01400933955970651</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01076760512034197</v>
+        <v>0.01075991384497233</v>
       </c>
       <c r="E44" s="1">
-        <v>0.005346350534634947</v>
+        <v>-0.0268208092485549</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01161413959602709</v>
+        <v>0.01141973263817998</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01077535722651679</v>
+        <v>-0.01089273028652615</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01120920904145396</v>
+        <v>0.01109880110384439</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.003844510892780928</v>
+        <v>0.01693825042881647</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0100095437811438</v>
+        <v>0.01003324783632167</v>
       </c>
       <c r="E47" s="1">
-        <v>0.008447488584474971</v>
+        <v>-0.01494226850803726</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009428428714919532</v>
+        <v>0.009410530329355038</v>
       </c>
       <c r="E48" s="1">
-        <v>0.004155124653739684</v>
+        <v>-0.02758620689655178</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009558689901112499</v>
+        <v>0.009851851751697206</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0369206598586016</v>
+        <v>-0.01818181818181808</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009492416666031867</v>
+        <v>0.009295007957036061</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01485761452744527</v>
+        <v>0.04650188521156262</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.008999339444110117</v>
+        <v>0.009264396691711837</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0356965790778383</v>
+        <v>-0.02632838678793692</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01020542526414074</v>
+        <v>0.0102390896663994</v>
       </c>
       <c r="E52" s="1">
-        <v>0.009383663894220406</v>
+        <v>-0.02810057046270853</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008709761318412969</v>
+        <v>0.008767585590531058</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01274426508071369</v>
+        <v>-0.04656040268456363</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004154319785226837</v>
+        <v>0.004181195975646196</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01257367387033392</v>
+        <v>0.0007760962359331103</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004105675883615929</v>
+        <v>0.004064483766159138</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.004028837998303558</v>
+        <v>0.008090270385352483</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.006064980417293198</v>
+        <v>-0.009396955368937365</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01300437941203115</v>
+        <v>0.01298251338052222</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01106259097525464</v>
+        <v>-0.01206947306446859</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01061897222406256</v>
+        <v>0.01060570721748906</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0106343967730107</v>
+        <v>-0.003521126760563376</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01041258955890843</v>
+        <v>0.01048515803735452</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002493143854400359</v>
+        <v>-0.02324418895276181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0114142161204007</v>
+        <v>0.01123815364080362</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02467685076380721</v>
+        <v>-0.01475903614457841</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01087467904818435</v>
+        <v>0.01090183889912392</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006922893291955057</v>
+        <v>-0.01850961538461549</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01354867583291982</v>
+        <v>0.01378257120918689</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007704160246533309</v>
+        <v>0.001529051987767538</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.010918594856388</v>
+        <v>0.01086100068049138</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01462225832656372</v>
+        <v>-0.002473206924979543</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01114552925444533</v>
+        <v>0.01104597378841522</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01824534161490687</v>
+        <v>-0.01051799130090947</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01041648357145851</v>
+        <v>0.01032791997630946</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01781931464174469</v>
+        <v>-0.005836082212636318</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01106224065267977</v>
+        <v>0.01092640734616221</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02156057494866548</v>
+        <v>-0.01948733323339813</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.442606446483693</v>
+        <v>0.4451147444750476</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.003783102143757766</v>
+        <v>-0.02215189873417722</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01162881947871611</v>
+        <v>0.0116723053982447</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005692599620493288</v>
+        <v>-0.02035623409669207</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0106548836731355</v>
+        <v>0.01074678470003782</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0008527572484366974</v>
+        <v>-0.02617354196301569</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01008030048796845</v>
+        <v>0.0101230737245591</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.005193578847969671</v>
+        <v>-0.02373042240151879</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009907882265612216</v>
+        <v>0.009911020728344166</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.009083167754754484</v>
+        <v>-0.01947865940991111</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.009465154672071411</v>
+        <v>0.009699076925227184</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01508485229415446</v>
+        <v>-0.02043343653250762</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008030751882444087</v>
+        <v>0.00793113147635183</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02168525402726162</v>
+        <v>0.0677644078530717</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.009015396222537407</v>
+        <v>0.009072090156810023</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003167480533192379</v>
+        <v>0.02052164702767101</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01094217526571903</v>
+        <v>0.01042357313011187</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.05634638196915775</v>
+        <v>-0.003352189398700967</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01209285597426707</v>
+        <v>0.01220560448862251</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0001610046691354894</v>
+        <v>-0.04202898550724643</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01156186409625782</v>
+        <v>0.01165210467512433</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001665278934221193</v>
+        <v>-0.01501251042535445</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01149544954887594</v>
+        <v>0.01130476143055188</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02582921665490479</v>
+        <v>-0.03738046942915096</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01261335565179415</v>
+        <v>0.01290116452255099</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01320641454420723</v>
+        <v>-0.04274227676682185</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01273428637487713</v>
+        <v>0.01273977712378391</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.008969828757814602</v>
+        <v>-0.05759736697750961</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01190010235303821</v>
+        <v>0.01186295654726183</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01248909249563701</v>
+        <v>-0.05086430662174846</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01258350155557689</v>
+        <v>0.01238642825882433</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02491103202846978</v>
+        <v>-0.03852392538523908</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01336425107186751</v>
+        <v>0.01441348892913018</v>
       </c>
       <c r="E28" s="1">
-        <v>0.06837606837606836</v>
+        <v>-0.001999999999999891</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01180210303719458</v>
+        <v>0.01120321184946028</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.05966455870222698</v>
+        <v>-0.01140350877192975</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006911331441311956</v>
+        <v>0.006986829565297908</v>
       </c>
       <c r="E30" s="1">
-        <v>0.00142421159715167</v>
+        <v>-0.006501422186103389</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.004961350573352784</v>
+        <v>0.004838346170073927</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.03395650515070581</v>
+        <v>0.02172195892575046</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009492088258876116</v>
+        <v>0.00945579470299914</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01318458417849888</v>
+        <v>-0.01849948612538543</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01210821569043682</v>
+        <v>0.01041811347521447</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.1476683937823836</v>
+        <v>0.009726443768997006</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01036185922874214</v>
+        <v>0.009661514499533088</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.07635054021608645</v>
+        <v>0.03197296594749166</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00938911326032961</v>
+        <v>0.009510500445071065</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003410059676044463</v>
+        <v>0.03058623619371281</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009670563834088021</v>
+        <v>0.009538890650537535</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.02288488210818296</v>
+        <v>-0.003548616039744656</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01030485521168961</v>
+        <v>0.01066434391108712</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02516059957173455</v>
+        <v>-0.008877284595300239</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01141053844188119</v>
+        <v>0.01153079114330415</v>
       </c>
       <c r="E38" s="1">
-        <v>0.001042752867570274</v>
+        <v>-0.03489583333333324</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01413613089290519</v>
+        <v>0.01407979482180123</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01334476003917728</v>
+        <v>0.002233527732969254</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01139388072152807</v>
+        <v>0.01107043304235556</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.03751803751803739</v>
+        <v>-0.04572713643178417</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0126044859565412</v>
+        <v>0.01282538451257511</v>
       </c>
       <c r="E41" s="1">
-        <v>0.007963751201427893</v>
+        <v>-0.01988829859692132</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0114617014401086</v>
+        <v>0.01132354264339893</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.0213376367222522</v>
+        <v>-0.009344082081348515</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01151210726922905</v>
+        <v>0.0114585053124626</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.01400933955970651</v>
+        <v>-0.02638700947225969</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01075991384497233</v>
+        <v>0.01057065623304777</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.0268208092485549</v>
+        <v>-0.03231171299596114</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01141973263817998</v>
+        <v>0.0114024892532153</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01089273028652615</v>
+        <v>-0.01412497007421598</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01109880110384439</v>
+        <v>0.01139386299847741</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01693825042881647</v>
+        <v>-0.0497575374235717</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01003324783632167</v>
+        <v>0.009977082552602681</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01494226850803726</v>
+        <v>-0.00206849000229814</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009410530329355038</v>
+        <v>0.009237736086397072</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02758620689655178</v>
+        <v>-0.002836879432624118</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009851851751697206</v>
+        <v>0.00976448359089801</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01818181818181808</v>
+        <v>-0.02700617283950624</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009295007957036061</v>
+        <v>0.00981951691226378</v>
       </c>
       <c r="E50" s="1">
-        <v>0.04650188521156262</v>
+        <v>0.01481184947958369</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.009264396691711837</v>
+        <v>0.009106049210271836</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02632838678793692</v>
+        <v>-0.007866273352998943</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.0102390896663994</v>
+        <v>0.01004576501121194</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.02810057046270853</v>
+        <v>-0.0004347826086957829</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008767585590531058</v>
+        <v>0.00843866099561393</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.04656040268456363</v>
+        <v>-0.007479102507699231</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004181195975646196</v>
+        <v>0.004224134994116674</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0007760962359331103</v>
+        <v>0.002326483132997437</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004064483766159138</v>
+        <v>0.00413623455026857</v>
       </c>
       <c r="E55" s="1">
-        <v>0.008090270385352483</v>
+        <v>-0.01541710665258722</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.009396955368937365</v>
+        <v>-0.01766596914115703</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01298251338052222</v>
+        <v>0.01318122222338805</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01206947306446859</v>
+        <v>-0.01042908224076278</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01060570721748906</v>
+        <v>0.01086121040450226</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003521126760563376</v>
+        <v>-0.04946996466431097</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01048515803735452</v>
+        <v>0.01052522726695055</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02324418895276181</v>
+        <v>-0.017911975435005</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01123815364080362</v>
+        <v>0.0113791002441152</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01475903614457841</v>
+        <v>-0.01650871293182499</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01090183889912392</v>
+        <v>0.01099654629758421</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01850961538461549</v>
+        <v>-0.004408523144746601</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01378257120918689</v>
+        <v>0.0141861417279891</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001529051987767538</v>
+        <v>0.009160305343511643</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01086100068049138</v>
+        <v>0.01113435100463615</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002473206924979543</v>
+        <v>-0.03140495867768578</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01104597378841522</v>
+        <v>0.01123265468816831</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01051799130090947</v>
+        <v>-0.03348785166240409</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01032791997630946</v>
+        <v>0.01055215978298676</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005836082212636318</v>
+        <v>-0.01978050025523215</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01092640734616221</v>
+        <v>0.01101034921205277</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01948733323339813</v>
+        <v>-0.002904754624675099</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4451147444750476</v>
+        <v>0.4377611156525442</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02215189873417722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0116723053982447</v>
+        <v>0.01175155449713261</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02035623409669207</v>
+        <v>-0.02694805194805194</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01074678470003782</v>
+        <v>0.01075550027906014</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02617354196301569</v>
+        <v>-0.01416885772713994</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0101230737245591</v>
+        <v>0.01015670067252176</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02373042240151879</v>
+        <v>-0.0262518230432669</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009911020728344166</v>
+        <v>0.009987250259127271</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01947865940991111</v>
+        <v>-0.0242477359041775</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.009699076925227184</v>
+        <v>0.009764159251294008</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02043343653250762</v>
+        <v>-0.04108723135271808</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.00793113147635183</v>
+        <v>0.008703242557100999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0677644078530717</v>
+        <v>-0.0462633451957295</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.009072090156810023</v>
+        <v>0.009514809040325437</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02052164702767101</v>
+        <v>-0.01738453554748309</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01042357313011187</v>
+        <v>0.01067649823202059</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003352189398700967</v>
+        <v>-0.02102165230187092</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01220560448862251</v>
+        <v>0.01201661534245563</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.04202898550724643</v>
+        <v>-0.06639771390149596</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01165210467512433</v>
+        <v>0.01179520761687463</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01501251042535445</v>
+        <v>0.002540220152412953</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01130476143055188</v>
+        <v>0.01118372728403587</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.03738046942915096</v>
+        <v>-0.01791089704996984</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01290116452255099</v>
+        <v>0.01269194818206358</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.04274227676682185</v>
+        <v>-0.06427939876215738</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01273977712378391</v>
+        <v>0.01233868334672197</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.05759736697750961</v>
+        <v>-0.07275902211874274</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01186295654726183</v>
+        <v>0.01157155551495728</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.05086430662174846</v>
+        <v>-0.04387291981845698</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01238642825882433</v>
+        <v>0.01223925747502163</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.03852392538523908</v>
+        <v>-0.05314213412062418</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01441348892913018</v>
+        <v>0.01478325805227523</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.001999999999999891</v>
+        <v>-0.008767535070140386</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01120321184946028</v>
+        <v>0.01138235458980291</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01140350877192975</v>
+        <v>-0.0002957704821060503</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006986829565297908</v>
+        <v>0.007133750185090908</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.006501422186103389</v>
+        <v>-0.001635991820040816</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.004838346170073927</v>
+        <v>0.005080426384372003</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02172195892575046</v>
+        <v>-0.0320834943950522</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.00945579470299914</v>
+        <v>0.009538038335406668</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01849948612538543</v>
+        <v>-0.02827225130890065</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01041811347521447</v>
+        <v>0.010810936374568</v>
       </c>
       <c r="E33" s="1">
-        <v>0.009726443768997006</v>
+        <v>0.01023479831426855</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009661514499533088</v>
+        <v>0.01024670016360942</v>
       </c>
       <c r="E34" s="1">
-        <v>0.03197296594749166</v>
+        <v>-0.0005037783375315685</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009510500445071065</v>
+        <v>0.01007298543517587</v>
       </c>
       <c r="E35" s="1">
-        <v>0.03058623619371281</v>
+        <v>0.01978565539983501</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009538890650537535</v>
+        <v>0.009768423566333072</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.003548616039744656</v>
+        <v>-0.005698005698005493</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01066434391108712</v>
+        <v>0.01086255703030407</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.008877284595300239</v>
+        <v>0.005268703898840821</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01153079114330415</v>
+        <v>0.01143678071595942</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.03489583333333324</v>
+        <v>-0.0156502968159743</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01407979482180123</v>
+        <v>0.01450226213496411</v>
       </c>
       <c r="E39" s="1">
-        <v>0.002233527732969254</v>
+        <v>-0.03466633651108086</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01107043304235556</v>
+        <v>0.01085694608946319</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.04572713643178417</v>
+        <v>-0.03220738413197166</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01282538451257511</v>
+        <v>0.01291863019203501</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01988829859692132</v>
+        <v>-0.02182070882557341</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01132354264339893</v>
+        <v>0.01152857570811616</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.009344082081348515</v>
+        <v>-0.03754392454225997</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.0114585053124626</v>
+        <v>0.01146528429543107</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.02638700947225969</v>
+        <v>-0.02293259207783194</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01057065623304777</v>
+        <v>0.01051254654065017</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.03231171299596114</v>
+        <v>-0.007856616744414402</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0114024892532153</v>
+        <v>0.01155292719136557</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01412497007421598</v>
+        <v>-0.02646915978630393</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01139386299847741</v>
+        <v>0.01112694456272619</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0497575374235717</v>
+        <v>-0.04082538273796321</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009977082552602681</v>
+        <v>0.01023233615505678</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.00206849000229814</v>
+        <v>-0.02671579917088918</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009237736086397072</v>
+        <v>0.00946677938672753</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.002836879432624118</v>
+        <v>-0.02702702702702708</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.00976448359089801</v>
+        <v>0.009764047032477189</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.02700617283950624</v>
+        <v>-0.05313243457573347</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.00981951691226378</v>
+        <v>0.01024108922276855</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01481184947958369</v>
+        <v>-0.06548323471400397</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.009106049210271836</v>
+        <v>0.009284760465849484</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.007866273352998943</v>
+        <v>-0.01040634291377607</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01004576501121194</v>
+        <v>0.01031964239454082</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.0004347826086957829</v>
+        <v>-0.04262722923009987</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.00843866099561393</v>
+        <v>0.008607632125172456</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.007479102507699231</v>
+        <v>0.002659574468085291</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004224134994116674</v>
+        <v>0.004351284622100047</v>
       </c>
       <c r="E54" s="1">
-        <v>0.002326483132997437</v>
+        <v>-0.03713733075435199</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.00413623455026857</v>
+        <v>0.004185312992026908</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01541710665258722</v>
+        <v>-0.01994851994851998</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01766596914115703</v>
+        <v>-0.01354767276970592</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01318122222338805</v>
+        <v>0.01322289360846265</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01042908224076278</v>
+        <v>0.0653417645287564</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01086121040450226</v>
+        <v>0.01046569248669804</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.04946996466431097</v>
+        <v>0.03228331050675015</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01052522726695055</v>
+        <v>0.01047866112670634</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.017911975435005</v>
+        <v>0.03673788431474723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0113791002441152</v>
+        <v>0.01134494352726076</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01650871293182499</v>
+        <v>0.04600559527510084</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01099654629758421</v>
+        <v>0.01109842560710299</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004408523144746601</v>
+        <v>0.03025830258302609</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0141861417279891</v>
+        <v>0.01451270448928813</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009160305343511643</v>
+        <v>0.01059001512859314</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01113435100463615</v>
+        <v>0.01093279104699699</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.03140495867768578</v>
+        <v>0.02645051194539239</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01123265468816831</v>
+        <v>0.01100559744704358</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.03348785166240409</v>
+        <v>0.04209046555858742</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01055215978298676</v>
+        <v>0.01048548672671071</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01978050025523215</v>
+        <v>0.0699127717745085</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01101034921205277</v>
+        <v>0.01112914080712265</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002904754624675099</v>
+        <v>0.04231830726770935</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4377611156525442</v>
+        <v>0.4437732098840148</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.01190476190476186</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01175155449713261</v>
+        <v>0.01159191648741883</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02694805194805194</v>
+        <v>0.01668335001668342</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01075550027906014</v>
+        <v>0.01074872736687918</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01416885772713994</v>
+        <v>0.01644688101941028</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01015670067252176</v>
+        <v>0.01002589632641657</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0262518230432669</v>
+        <v>0.005491762356465424</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009987250259127271</v>
+        <v>0.009878918406322507</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0242477359041775</v>
+        <v>0.03413173652694601</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.009764159251294008</v>
+        <v>0.009491565606074602</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.04108723135271808</v>
+        <v>0.02241265655899793</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008703242557100999</v>
+        <v>0.008414599685385344</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0462633451957295</v>
+        <v>-0.005597014925373123</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.009514809040325437</v>
+        <v>0.009477800646065793</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01738453554748309</v>
+        <v>0.03102719831000789</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01067649823202059</v>
+        <v>0.01059560640678119</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02102165230187092</v>
+        <v>-0.001503113592441485</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01201661534245563</v>
+        <v>0.0113728147272786</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.06639771390149596</v>
+        <v>0.0437522506301764</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01179520761687463</v>
+        <v>0.01198757376767205</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002540220152412953</v>
+        <v>0.005067567567567766</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01118372728403587</v>
+        <v>0.01113426000712593</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01791089704996984</v>
+        <v>0.02681992337164751</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01269194818206358</v>
+        <v>0.0120392208077051</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.06427939876215738</v>
+        <v>0.0514031938013797</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01233868334672197</v>
+        <v>0.01159805952742276</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.07275902211874274</v>
+        <v>0.05634023854362846</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01157155551495728</v>
+        <v>0.01121582592717813</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.04387291981845698</v>
+        <v>0.05160662122687465</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01223925747502163</v>
+        <v>0.01174799520751872</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.05314213412062418</v>
+        <v>0.0008908685968818109</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01478325805227523</v>
+        <v>0.01485489456950713</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.008767535070140386</v>
+        <v>-0.005559767500631807</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01138235458980291</v>
+        <v>0.01153526400738257</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0002957704821060503</v>
+        <v>-0.01479289940828399</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.007133750185090908</v>
+        <v>0.007219892164620731</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.001635991820040816</v>
+        <v>0.0282671036460469</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.005080426384372003</v>
+        <v>0.004984963203190376</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0320834943950522</v>
+        <v>0.01118210862619806</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009538038335406668</v>
+        <v>0.009395665926013225</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02827225130890065</v>
+        <v>0.005387931034482873</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.010810936374568</v>
+        <v>0.01107157824708581</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01023479831426855</v>
+        <v>-0.0008939213349224984</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01024670016360942</v>
+        <v>0.0103821926466446</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0005037783375315685</v>
+        <v>0.02494959677419373</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01007298543517587</v>
+        <v>0.01041336288666455</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01978565539983501</v>
+        <v>0.03071948261924007</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009768423566333072</v>
+        <v>0.009846155526301541</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.005698005698005493</v>
+        <v>-0.03438395415472795</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01086255703030407</v>
+        <v>0.01106975808708464</v>
       </c>
       <c r="E37" s="1">
-        <v>0.005268703898840821</v>
+        <v>0.02515723270440251</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01143678071595942</v>
+        <v>0.01141240320730394</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0156502968159743</v>
+        <v>0.02330043859649145</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01450226213496411</v>
+        <v>0.01419178752908274</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.03466633651108086</v>
+        <v>0.03244837758112107</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01085694608946319</v>
+        <v>0.01065157632681701</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.03220738413197166</v>
+        <v>0.02272727272727271</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01291863019203501</v>
+        <v>0.01281028608819858</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.02182070882557341</v>
+        <v>0.03225348110258608</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01152857570811616</v>
+        <v>0.0112481337671988</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.03754392454225997</v>
+        <v>0.02344350499615677</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01146528429543107</v>
+        <v>0.01135620576726797</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.02293259207783194</v>
+        <v>0.02987197724039814</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01051254654065017</v>
+        <v>0.01057319568676685</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.007856616744414402</v>
+        <v>0.0393466963622866</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01155292719136557</v>
+        <v>0.01140159600729702</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.02646915978630393</v>
+        <v>0.04065851833374889</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01112694456272619</v>
+        <v>0.01081925856692433</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.04082538273796321</v>
+        <v>0.05181586860976162</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01023233615505678</v>
+        <v>0.01009574496646128</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02671579917088918</v>
+        <v>0.02484619025082835</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00946677938672753</v>
+        <v>0.009337420805975948</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02702702702702708</v>
+        <v>0.007309941520467822</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009764047032477189</v>
+        <v>0.009372231365998228</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.05313243457573347</v>
+        <v>0.04438860971524283</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01024108922276855</v>
+        <v>0.009701907846209222</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.06548323471400397</v>
+        <v>0.02026171380329256</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.009284760465849484</v>
+        <v>0.009314327525961169</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01040634291377607</v>
+        <v>0.0290435653480221</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01031964239454082</v>
+        <v>0.01001543040640988</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.04262722923009987</v>
+        <v>0.04725124943207626</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008607632125172456</v>
+        <v>0.008749054085599395</v>
       </c>
       <c r="E53" s="1">
-        <v>0.002659574468085291</v>
+        <v>0.04244031830238715</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004351284622100047</v>
+        <v>0.004247229602718227</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.03713733075435199</v>
+        <v>0.03334672559260721</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004185312992026908</v>
+        <v>0.004158155522661219</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01994851994851998</v>
+        <v>0.02298095863427463</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01354767276970592</v>
+        <v>0.020037402012824</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01322289360846265</v>
+        <v>0.01381018066711883</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0653417645287564</v>
+        <v>0.01017524024872807</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01046569248669804</v>
+        <v>0.01059133681333232</v>
       </c>
       <c r="E3" s="1">
-        <v>0.03228331050675015</v>
+        <v>0.01004548900682334</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01047866112670634</v>
+        <v>0.01065022218353533</v>
       </c>
       <c r="E4" s="1">
-        <v>0.03673788431474723</v>
+        <v>-0.003015833123900524</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01134494352726076</v>
+        <v>0.01163376400137689</v>
       </c>
       <c r="E5" s="1">
-        <v>0.04600559527510084</v>
+        <v>0.007726597325408591</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01109842560710299</v>
+        <v>0.01120963320046393</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03025830258302609</v>
+        <v>0.00620821394460358</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01451270448928813</v>
+        <v>0.01437829065919105</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01059001512859314</v>
+        <v>0.04041916167664672</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01093279104699699</v>
+        <v>0.01100152694895101</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02645051194539239</v>
+        <v>-0.0008312551953448821</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01100559744704358</v>
+        <v>0.0112435368984596</v>
       </c>
       <c r="E9" s="1">
-        <v>0.04209046555858742</v>
+        <v>0.01912394857959065</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01048548672671071</v>
+        <v>0.01099818118928039</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0699127717745085</v>
+        <v>0.01277683134582608</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01112914080712265</v>
+        <v>0.01137223712045633</v>
       </c>
       <c r="E11" s="1">
-        <v>0.04231830726770935</v>
+        <v>0.01323918799646928</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>116</v>
       </c>
       <c r="D12" s="1">
-        <v>0.4437732098840148</v>
+        <v>0.440235057460913</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01190476190476186</v>
+        <v>0.02287581699346397</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01159191648741883</v>
+        <v>0.01155380034524894</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01668335001668342</v>
+        <v>-0.00426649163111259</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01074872736687918</v>
+        <v>0.010710891958896</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01644688101941028</v>
+        <v>0.01413994169096222</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>117</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01002589632641657</v>
+        <v>0.009882927965738529</v>
       </c>
       <c r="E15" s="1">
-        <v>0.005491762356465424</v>
+        <v>-0.004468718967229446</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009878918406322507</v>
+        <v>0.0100154200486953</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03413173652694601</v>
+        <v>0.01244933410538507</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.009491565606074602</v>
+        <v>0.009513667623423819</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02241265655899793</v>
+        <v>-0.01611863313990969</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>118</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008414599685385344</v>
+        <v>0.008203133560439781</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.005597014925373123</v>
+        <v>0.01751094434021261</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="D19" s="1">
-        <v>0.009477800646065793</v>
+        <v>0.009579913664902205</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03102719831000789</v>
+        <v>0.01344602381867066</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>119</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01059560640678119</v>
+        <v>0.01037185497893928</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.001503113592441485</v>
+        <v>0.003225806451612856</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>119</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0113728147272786</v>
+        <v>0.01163722128636987</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0437522506301764</v>
+        <v>0.0182853199930999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01198757376767205</v>
+        <v>0.01181164689053182</v>
       </c>
       <c r="E22" s="1">
-        <v>0.005067567567567766</v>
+        <v>0.02521008403361336</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01113426000712593</v>
+        <v>0.01120829489659567</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02681992337164751</v>
+        <v>0.02358208955223895</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0120392208077051</v>
+        <v>0.01240942261835025</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0514031938013797</v>
+        <v>0.01267187921272583</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>119</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01159805952742276</v>
+        <v>0.01201083111625639</v>
       </c>
       <c r="E25" s="1">
-        <v>0.05634023854362846</v>
+        <v>0.03595305303818153</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>119</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01121582592717813</v>
+        <v>0.01156294542168199</v>
       </c>
       <c r="E26" s="1">
-        <v>0.05160662122687465</v>
+        <v>0.01753472222222197</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>119</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01174799520751872</v>
+        <v>0.01152748036917335</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0008908685968818109</v>
+        <v>0.02180685358255463</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>120</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01485489456950713</v>
+        <v>0.0144821207343028</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.005559767500631807</v>
+        <v>0.03888182973316412</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>120</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01153526400738257</v>
+        <v>0.01114137970318316</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01479289940828399</v>
+        <v>0.03063063063063076</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="1">
-        <v>0.007219892164620731</v>
+        <v>0.007278142536834165</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0282671036460469</v>
+        <v>0.01513944223107577</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.004984963203190376</v>
+        <v>0.004941687033513973</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01118210862619806</v>
+        <v>0.03317535545023698</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009395665926013225</v>
+        <v>0.009260728192324525</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005387931034482873</v>
+        <v>0.01929260450160775</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01107157824708581</v>
+        <v>0.01084438776975396</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0008939213349224984</v>
+        <v>0.04563077840739638</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0103821926466446</v>
+        <v>0.01043219017833289</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02494959677419373</v>
+        <v>0.02901401524465208</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01041336288666455</v>
+        <v>0.01052241416411743</v>
       </c>
       <c r="E35" s="1">
-        <v>0.03071948261924007</v>
+        <v>0.009411764705882453</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009846155526301541</v>
+        <v>0.009320840341073432</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.03438395415472795</v>
+        <v>0.02893175074183962</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01106975808708464</v>
+        <v>0.01112532005676416</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02515723270440251</v>
+        <v>0.02096114519427394</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01141240320730394</v>
+        <v>0.01144891077957483</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02330043859649145</v>
+        <v>0.003482453790517148</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01419178752908274</v>
+        <v>0.01436446151921913</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03244837758112107</v>
+        <v>0.0101863354037266</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01065157632681701</v>
+        <v>0.01067966486863683</v>
       </c>
       <c r="E40" s="1">
-        <v>0.02272727272727271</v>
+        <v>-0.01309523809523805</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01281028608819858</v>
+        <v>0.01296370347045056</v>
       </c>
       <c r="E41" s="1">
-        <v>0.03225348110258608</v>
+        <v>0.02161046111493459</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0112481337671988</v>
+        <v>0.01128569347030948</v>
       </c>
       <c r="E42" s="1">
-        <v>0.02344350499615677</v>
+        <v>0.01952684941794969</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01135620576726797</v>
+        <v>0.01146569534058913</v>
       </c>
       <c r="E43" s="1">
-        <v>0.02987197724039814</v>
+        <v>0.008977900552486151</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01057319568676685</v>
+        <v>0.01077334613941435</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0393466963622866</v>
+        <v>0.003571428571428559</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01140159600729702</v>
+        <v>0.01163209112154158</v>
       </c>
       <c r="E45" s="1">
-        <v>0.04065851833374889</v>
+        <v>0.01558005752636626</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01081925856692433</v>
+        <v>0.01115632409637862</v>
       </c>
       <c r="E46" s="1">
-        <v>0.05181586860976162</v>
+        <v>0.01077633604574446</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01009574496646128</v>
+        <v>0.01014333959343555</v>
       </c>
       <c r="E47" s="1">
-        <v>0.02484619025082835</v>
+        <v>0.02216578157469407</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009337420805975948</v>
+        <v>0.009220913652244081</v>
       </c>
       <c r="E48" s="1">
-        <v>0.007309941520467822</v>
+        <v>0.01306240928882452</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009372231365998228</v>
+        <v>0.009595973311321209</v>
       </c>
       <c r="E49" s="1">
-        <v>0.04438860971524283</v>
+        <v>0.03528468323977529</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009701907846209222</v>
+        <v>0.009704041348682416</v>
       </c>
       <c r="E50" s="1">
-        <v>0.02026171380329256</v>
+        <v>0.05295821266032252</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.009314327525961169</v>
+        <v>0.009396566034951925</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0290435653480221</v>
+        <v>0.01897810218978102</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01001543040640988</v>
+        <v>0.01028263472105593</v>
       </c>
       <c r="E52" s="1">
-        <v>0.04725124943207626</v>
+        <v>0.01366594360086748</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008749054085599395</v>
+        <v>0.008941208143779782</v>
       </c>
       <c r="E53" s="1">
-        <v>0.04244031830238715</v>
+        <v>0.02205258693808343</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004247229602718227</v>
+        <v>0.004302646936424488</v>
       </c>
       <c r="E54" s="1">
-        <v>0.03334672559260721</v>
+        <v>0.001166407465007957</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004158155522661219</v>
+        <v>0.004170154853467715</v>
       </c>
       <c r="E55" s="1">
-        <v>0.02298095863427463</v>
+        <v>0.001925545571245024</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.020037402012824</v>
+        <v>0.01914962276280896</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -226,7 +226,7 @@
     <t>Preferred Bank</t>
   </si>
   <si>
-    <t>Trustpilot Group PLC</t>
+    <t>TrustCo Bank Corp N Y</t>
   </si>
   <si>
     <t>Getty Realty Corp</t>
@@ -364,19 +364,19 @@
     <t>Financials</t>
   </si>
   <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>Consumer Discretionary</t>
-  </si>
-  <si>
-    <t>Energy</t>
   </si>
   <si>
     <t>Health Care</t>
@@ -849,7 +849,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01381018066711883</v>
+        <v>0.02419322775228737</v>
       </c>
       <c r="E2" s="1">
         <v>0.01017524024872807</v>
@@ -866,7 +866,7 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01059133681333232</v>
+        <v>0.01855432813679421</v>
       </c>
       <c r="E3" s="1">
         <v>0.01004548900682334</v>
@@ -883,7 +883,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01065022218353533</v>
+        <v>0.01865748588736521</v>
       </c>
       <c r="E4" s="1">
         <v>-0.003015833123900524</v>
@@ -900,7 +900,7 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01163376400137689</v>
+        <v>0.02038049384623965</v>
       </c>
       <c r="E5" s="1">
         <v>0.007726597325408591</v>
@@ -917,7 +917,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01120963320046393</v>
+        <v>0.01963748451778978</v>
       </c>
       <c r="E6" s="1">
         <v>0.00620821394460358</v>
@@ -934,7 +934,7 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01437829065919105</v>
+        <v>0.02518846559586446</v>
       </c>
       <c r="E7" s="1">
         <v>0.04041916167664672</v>
@@ -951,7 +951,7 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01100152694895101</v>
+        <v>0.01927291564929451</v>
       </c>
       <c r="E8" s="1">
         <v>-0.0008312551953448821</v>
@@ -968,7 +968,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0112435368984596</v>
+        <v>0.01969687837417914</v>
       </c>
       <c r="E9" s="1">
         <v>0.01912394857959065</v>
@@ -985,7 +985,7 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01099818118928039</v>
+        <v>0.01926705441346662</v>
       </c>
       <c r="E10" s="1">
         <v>0.01277683134582608</v>
@@ -1002,7 +1002,7 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01137223712045633</v>
+        <v>0.01992234057902562</v>
       </c>
       <c r="E11" s="1">
         <v>0.01323918799646928</v>
@@ -1016,13 +1016,13 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.440235057460913</v>
+        <v>0.01938134851211063</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02287581699346397</v>
+        <v>0.01040312093628071</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1033,10 +1033,10 @@
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01155380034524894</v>
+        <v>0.02024041030995289</v>
       </c>
       <c r="E13" s="1">
         <v>-0.00426649163111259</v>
@@ -1050,10 +1050,10 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.010710891958896</v>
+        <v>0.01876376963037776</v>
       </c>
       <c r="E14" s="1">
         <v>0.01413994169096222</v>
@@ -1067,10 +1067,10 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009882927965738529</v>
+        <v>0.01731330913750059</v>
       </c>
       <c r="E15" s="1">
         <v>-0.004468718967229446</v>
@@ -1084,10 +1084,10 @@
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0100154200486953</v>
+        <v>0.01754541407628535</v>
       </c>
       <c r="E16" s="1">
         <v>0.01244933410538507</v>
@@ -1101,10 +1101,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.009513667623423819</v>
+        <v>0.01666642407662823</v>
       </c>
       <c r="E17" s="1">
         <v>-0.01611863313990969</v>
@@ -1118,10 +1118,10 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008203133560439781</v>
+        <v>0.01437057800284055</v>
       </c>
       <c r="E18" s="1">
         <v>0.01751094434021261</v>
@@ -1135,10 +1135,10 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.009579913664902205</v>
+        <v>0.01678247654602062</v>
       </c>
       <c r="E19" s="1">
         <v>0.01344602381867066</v>
@@ -1152,10 +1152,10 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01037185497893928</v>
+        <v>0.01816983106648409</v>
       </c>
       <c r="E20" s="1">
         <v>0.003225806451612856</v>
@@ -1169,10 +1169,10 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01163722128636987</v>
+        <v>0.02038655045659515</v>
       </c>
       <c r="E21" s="1">
         <v>0.0182853199930999</v>
@@ -1186,10 +1186,10 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01181164689053182</v>
+        <v>0.02069211621775624</v>
       </c>
       <c r="E22" s="1">
         <v>0.02521008403361336</v>
@@ -1203,10 +1203,10 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01120829489659567</v>
+        <v>0.01963514002345862</v>
       </c>
       <c r="E23" s="1">
         <v>0.02358208955223895</v>
@@ -1220,10 +1220,10 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01240942261835025</v>
+        <v>0.02173932368567403</v>
       </c>
       <c r="E24" s="1">
         <v>0.01267187921272583</v>
@@ -1237,10 +1237,10 @@
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01201083111625639</v>
+        <v>0.02104105512404377</v>
       </c>
       <c r="E25" s="1">
         <v>0.03595305303818153</v>
@@ -1254,10 +1254,10 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01156294542168199</v>
+        <v>0.02025643102121582</v>
       </c>
       <c r="E26" s="1">
         <v>0.01753472222222197</v>
@@ -1271,10 +1271,10 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01152748036917335</v>
+        <v>0.02019430192144009</v>
       </c>
       <c r="E27" s="1">
         <v>0.02180685358255463</v>
@@ -1288,10 +1288,10 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0144821207343028</v>
+        <v>0.0253703592810569</v>
       </c>
       <c r="E28" s="1">
         <v>0.03888182973316412</v>
@@ -1305,10 +1305,10 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01114137970318316</v>
+        <v>0.01951791530690065</v>
       </c>
       <c r="E29" s="1">
         <v>0.03063063063063076</v>
@@ -1322,10 +1322,10 @@
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.007278142536834165</v>
+        <v>0.01275014167095432</v>
       </c>
       <c r="E30" s="1">
         <v>0.01513944223107577</v>
@@ -1339,10 +1339,10 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.004941687033513973</v>
+        <v>0.008657045317805485</v>
       </c>
       <c r="E31" s="1">
         <v>0.03317535545023698</v>
@@ -1359,7 +1359,7 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009260728192324525</v>
+        <v>0.01622331464803914</v>
       </c>
       <c r="E32" s="1">
         <v>0.01929260450160775</v>
@@ -1376,7 +1376,7 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01084438776975396</v>
+        <v>0.0189976329399109</v>
       </c>
       <c r="E33" s="1">
         <v>0.04563077840739638</v>
@@ -1393,7 +1393,7 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01043219017833289</v>
+        <v>0.01827552868591386</v>
       </c>
       <c r="E34" s="1">
         <v>0.02901401524465208</v>
@@ -1410,7 +1410,7 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01052241416411743</v>
+        <v>0.01843358667873951</v>
       </c>
       <c r="E35" s="1">
         <v>0.009411764705882453</v>
@@ -1427,7 +1427,7 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009320840341073432</v>
+        <v>0.0163286215184137</v>
       </c>
       <c r="E36" s="1">
         <v>0.02893175074183962</v>
@@ -1444,7 +1444,7 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01112532005676416</v>
+        <v>0.01948978137492674</v>
       </c>
       <c r="E37" s="1">
         <v>0.02096114519427394</v>
@@ -1461,7 +1461,7 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01144891077957483</v>
+        <v>0.02005666056674829</v>
       </c>
       <c r="E38" s="1">
         <v>0.003482453790517148</v>
@@ -1478,7 +1478,7 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01436446151921913</v>
+        <v>0.02516423915444248</v>
       </c>
       <c r="E39" s="1">
         <v>0.0101863354037266</v>
@@ -1495,7 +1495,7 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01067966486863683</v>
+        <v>0.01870906476265072</v>
       </c>
       <c r="E40" s="1">
         <v>-0.01309523809523805</v>
@@ -1512,7 +1512,7 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01296370347045056</v>
+        <v>0.02271033508782915</v>
       </c>
       <c r="E41" s="1">
         <v>0.02161046111493459</v>
@@ -1529,7 +1529,7 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01128569347030948</v>
+        <v>0.01977072994561066</v>
       </c>
       <c r="E42" s="1">
         <v>0.01952684941794969</v>
@@ -1546,7 +1546,7 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01146569534058913</v>
+        <v>0.02008606443315157</v>
       </c>
       <c r="E43" s="1">
         <v>0.008977900552486151</v>
@@ -1563,7 +1563,7 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01077334613941435</v>
+        <v>0.01887317936583187</v>
       </c>
       <c r="E44" s="1">
         <v>0.003571428571428559</v>
@@ -1580,7 +1580,7 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01163209112154158</v>
+        <v>0.02037756322832571</v>
       </c>
       <c r="E45" s="1">
         <v>0.01558005752636626</v>
@@ -1597,7 +1597,7 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01115632409637862</v>
+        <v>0.0195440954935986</v>
       </c>
       <c r="E46" s="1">
         <v>0.01077633604574446</v>
@@ -1614,7 +1614,7 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01014333959343555</v>
+        <v>0.01776950865943865</v>
       </c>
       <c r="E47" s="1">
         <v>0.02216578157469407</v>
@@ -1631,7 +1631,7 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009220913652244081</v>
+        <v>0.01615356594168715</v>
       </c>
       <c r="E48" s="1">
         <v>0.01306240928882452</v>
@@ -1648,7 +1648,7 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009595973311321209</v>
+        <v>0.01681061047799453</v>
       </c>
       <c r="E49" s="1">
         <v>0.03528468323977529</v>
@@ -1665,7 +1665,7 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009704041348682416</v>
+        <v>0.01699992839523563</v>
       </c>
       <c r="E50" s="1">
         <v>0.05295821266032252</v>
@@ -1682,7 +1682,7 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.009396566034951925</v>
+        <v>0.0164612808226518</v>
       </c>
       <c r="E51" s="1">
         <v>0.01897810218978102</v>
@@ -1699,7 +1699,7 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01028263472105593</v>
+        <v>0.01801353144440681</v>
       </c>
       <c r="E52" s="1">
         <v>0.01366594360086748</v>
@@ -1716,7 +1716,7 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008941208143779782</v>
+        <v>0.01566356662647487</v>
       </c>
       <c r="E53" s="1">
         <v>0.02205258693808343</v>
@@ -1733,7 +1733,7 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.004302646936424488</v>
+        <v>0.007537549274676948</v>
       </c>
       <c r="E54" s="1">
         <v>0.001166407465007957</v>
@@ -1750,7 +1750,7 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.004170154853467715</v>
+        <v>0.007305444335892185</v>
       </c>
       <c r="E55" s="1">
         <v>0.001925545571245024</v>
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01914962276280896</v>
+        <v>0.01610638299327238</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02419322775228737</v>
+        <v>0.02405200879170238</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01017524024872807</v>
+        <v>0.01902630106323433</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01855432813679421</v>
+        <v>0.01844365486703714</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01004548900682334</v>
+        <v>-0.01538750234565589</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01865748588736521</v>
+        <v>0.01830636863890319</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003015833123900524</v>
+        <v>-0.00806654902949322</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02038049384623965</v>
+        <v>0.02021241678945196</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007726597325408591</v>
+        <v>0.006487761722205887</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01963748451778978</v>
+        <v>0.01944619043214975</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00620821394460358</v>
+        <v>0.007356430944470915</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02518846559586446</v>
+        <v>0.02579115995902949</v>
       </c>
       <c r="E7" s="1">
-        <v>0.04041916167664672</v>
+        <v>0.0417266187050358</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01927291564929451</v>
+        <v>0.01895165236665883</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008312551953448821</v>
+        <v>-0.003327787021630613</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01969687837417914</v>
+        <v>0.01975537286189679</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01912394857959065</v>
+        <v>0.00389317137740397</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01926705441346662</v>
+        <v>0.01920392061779572</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01277683134582608</v>
+        <v>0.009491769794545357</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01992234057902562</v>
+        <v>0.01986612477703005</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01323918799646928</v>
+        <v>-0.005516840882694329</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01938134851211063</v>
+        <v>0.01927256373186269</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01040312093628071</v>
+        <v>0.003861003861003853</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02024041030995289</v>
+        <v>0.01983459124563794</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00426649163111259</v>
+        <v>-0.01318391562293997</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01876376963037776</v>
+        <v>0.01872745664956613</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01413994169096222</v>
+        <v>-0.002587322121603952</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01731330913750059</v>
+        <v>0.01696273255739055</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004468718967229446</v>
+        <v>0.003990024937655656</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01754541407628535</v>
+        <v>0.01748226671483862</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01244933410538507</v>
+        <v>0.01258221332570764</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01666642407662823</v>
+        <v>0.01613786152280422</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01611863313990969</v>
+        <v>-0.01376146788990817</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01437057800284055</v>
+        <v>0.01439044241736821</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01751094434021261</v>
+        <v>0.07437000614628153</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01678247654602062</v>
+        <v>0.01673853684029785</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01344602381867066</v>
+        <v>-0.006823351023502733</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01816983106648409</v>
+        <v>0.01793950292002424</v>
       </c>
       <c r="E20" s="1">
-        <v>0.003225806451612856</v>
+        <v>0.03236870310825291</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02038655045659515</v>
+        <v>0.02043026734474014</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0182853199930999</v>
+        <v>-0.01744875487040487</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02069211621775624</v>
+        <v>0.02087750511314289</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02521008403361336</v>
+        <v>-0.003278688524590123</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01963514002345862</v>
+        <v>0.01977959984333219</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02358208955223895</v>
+        <v>0.005832604257801188</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02173932368567403</v>
+        <v>0.02166584339794567</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01267187921272583</v>
+        <v>-0.007277245296414825</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02104105512404377</v>
+        <v>0.02145203067289672</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03595305303818153</v>
+        <v>-0.008030976624121666</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02025643102121582</v>
+        <v>0.02028490545612772</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01753472222222197</v>
+        <v>-0.02724222260137632</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02019430192144009</v>
+        <v>0.02030759421651961</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02180685358255463</v>
+        <v>0.01524390243902429</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0253703592810569</v>
+        <v>0.02593902145683762</v>
       </c>
       <c r="E28" s="1">
-        <v>0.03888182973316412</v>
+        <v>0.03498043052837563</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01951791530690065</v>
+        <v>0.01979690483007176</v>
       </c>
       <c r="E29" s="1">
-        <v>0.03063063063063076</v>
+        <v>0.009906759906759932</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01275014167095432</v>
+        <v>0.01273800846136941</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01513944223107577</v>
+        <v>-0.01981946624803765</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008657045317805485</v>
+        <v>0.008802469921529577</v>
       </c>
       <c r="E31" s="1">
-        <v>0.03317535545023698</v>
+        <v>0.02828746177370034</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01622331464803914</v>
+        <v>0.01627418636278597</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01929260450160775</v>
+        <v>-0.007360672975814997</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0189976329399109</v>
+        <v>0.0195496357973263</v>
       </c>
       <c r="E33" s="1">
-        <v>0.04563077840739638</v>
+        <v>0.04905875641756996</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01827552868591386</v>
+        <v>0.01850768331797356</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02901401524465208</v>
+        <v>-0.00191158900836319</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01843358667873951</v>
+        <v>0.01831213696781638</v>
       </c>
       <c r="E35" s="1">
-        <v>0.009411764705882453</v>
+        <v>-0.007770007770007692</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0163286215184137</v>
+        <v>0.01653472255203177</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02893175074183962</v>
+        <v>-0.003604902667627918</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01948978137492674</v>
+        <v>0.01958289982739237</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02096114519427394</v>
+        <v>-0.0005007511266899023</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.02005666056674829</v>
+        <v>0.01980748009974595</v>
       </c>
       <c r="E38" s="1">
-        <v>0.003482453790517148</v>
+        <v>-0.001067805659370147</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02516423915444248</v>
+        <v>0.02501762705177056</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0101863354037266</v>
+        <v>0.01475651746187912</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01870906476265072</v>
+        <v>0.01817138974233452</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01309523809523805</v>
+        <v>-0.02774427020506642</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02271033508782915</v>
+        <v>0.02283335316997554</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02161046111493459</v>
+        <v>0.002964160603610821</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01977072994561066</v>
+        <v>0.0198372831324641</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01952684941794969</v>
+        <v>-0.009392265193370219</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.02008606443315157</v>
+        <v>0.01994515088314077</v>
       </c>
       <c r="E43" s="1">
-        <v>0.008977900552486151</v>
+        <v>-0.00205338809034894</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01887317936583187</v>
+        <v>0.01864035488297695</v>
       </c>
       <c r="E44" s="1">
-        <v>0.003571428571428559</v>
+        <v>0.0009489916963225653</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02037756322832571</v>
+        <v>0.02036700800432548</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01558005752636626</v>
+        <v>0.005900401227283414</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.0195440954935986</v>
+        <v>0.01944157576901919</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01077633604574446</v>
+        <v>0.009573542210617791</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01776950865943865</v>
+        <v>0.01787547446908782</v>
       </c>
       <c r="E47" s="1">
-        <v>0.02216578157469407</v>
+        <v>0.001129433024621651</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01615356594168715</v>
+        <v>0.01610517432562947</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01306240928882452</v>
+        <v>-0.005730659025787954</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01681061047799453</v>
+        <v>0.01712789904193825</v>
       </c>
       <c r="E49" s="1">
-        <v>0.03528468323977529</v>
+        <v>-0.002323780015491828</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01699992839523563</v>
+        <v>0.01761647650088553</v>
       </c>
       <c r="E50" s="1">
-        <v>0.05295821266032252</v>
+        <v>-0.003536345776031347</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0164612808226518</v>
+        <v>0.01650780368377021</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01897810218978102</v>
+        <v>-0.003342884431709603</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01801353144440681</v>
+        <v>0.01797026734089458</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01366594360086748</v>
+        <v>0.007703830515728871</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01566356662647487</v>
+        <v>0.01575522903822922</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02205258693808343</v>
+        <v>-0.009543568464730368</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007537549274676948</v>
+        <v>0.007426723475733506</v>
       </c>
       <c r="E54" s="1">
-        <v>0.001166407465007957</v>
+        <v>-0.003495145631068008</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007305444335892185</v>
+        <v>0.007203489146793011</v>
       </c>
       <c r="E55" s="1">
-        <v>0.001925545571245024</v>
+        <v>-0.0040572282724749</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01610638299327238</v>
+        <v>0.003351206820933816</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02405200879170238</v>
+        <v>0.02442776705258207</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01902630106323433</v>
+        <v>-0.02937946183415707</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01844365486703714</v>
+        <v>0.01809919892561518</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01538750234565589</v>
+        <v>-0.02096436058700213</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01830636863890319</v>
+        <v>0.01809804911309211</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00806654902949322</v>
+        <v>-0.02465057179161367</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02021241678945196</v>
+        <v>0.0202756023963626</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006487761722205887</v>
+        <v>-0.01640785232932895</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01944619043214975</v>
+        <v>0.01952381664169657</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007356430944470915</v>
+        <v>-0.01813898704358086</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02579115995902949</v>
+        <v>0.02677760057889227</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0417266187050358</v>
+        <v>-0.005524861878452914</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01895165236665883</v>
+        <v>0.0188254971693532</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003327787021630613</v>
+        <v>0.005008347245408995</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01975537286189679</v>
+        <v>0.01976604381322292</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00389317137740397</v>
+        <v>-0.02039866594275974</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01920392061779572</v>
+        <v>0.01932144963763658</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009491769794545357</v>
+        <v>-0.02915972387526788</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01986612477703005</v>
+        <v>0.01969053945754145</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005516840882694329</v>
+        <v>-0.02189781021897808</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01927256373186269</v>
+        <v>0.01928235601185226</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003861003861003853</v>
+        <v>-0.01282051282051266</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01983459124563794</v>
+        <v>0.01950771926637362</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01318391562293997</v>
+        <v>-0.005344021376085584</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01872745664956613</v>
+        <v>0.01861661456099583</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.002587322121603952</v>
+        <v>-0.01052024787433348</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01696273255739055</v>
+        <v>0.01697353246553149</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003990024937655656</v>
+        <v>0.003974167908594284</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01748226671483862</v>
+        <v>0.01764310662479816</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01258221332570764</v>
+        <v>-0.006212934199378628</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01613786152280422</v>
+        <v>0.01586262193282718</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01376146788990817</v>
+        <v>0.001328903654485014</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01439044241736821</v>
+        <v>0.01540902089247681</v>
       </c>
       <c r="E18" s="1">
-        <v>0.07437000614628153</v>
+        <v>-0.04290617848970246</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01673853684029785</v>
+        <v>0.01656879845741151</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.006823351023502733</v>
+        <v>-0.01895674300254435</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01793950292002424</v>
+        <v>0.01845832370365345</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03236870310825291</v>
+        <v>-0.01349667774086383</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02043026734474014</v>
+        <v>0.02000673790138518</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01744875487040487</v>
+        <v>-0.03465517241379301</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02087750511314289</v>
+        <v>0.02073955174942059</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.003278688524590123</v>
+        <v>-0.001644736842105199</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01977959984333219</v>
+        <v>0.01982851696030962</v>
       </c>
       <c r="E23" s="1">
-        <v>0.005832604257801188</v>
+        <v>-0.03754711510582776</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02166584339794567</v>
+        <v>0.02143633813839986</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.007277245296414825</v>
+        <v>-0.03316645807259067</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02145203067289672</v>
+        <v>0.02120867525883238</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.008030976624121666</v>
+        <v>-0.02746855573225393</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02028490545612772</v>
+        <v>0.01966639339455702</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.02724222260137632</v>
+        <v>-0.026368101028999</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02030759421651961</v>
+        <v>0.02054829959975026</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01524390243902429</v>
+        <v>-0.03517803517803519</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02593902145683762</v>
+        <v>0.02675671231805654</v>
       </c>
       <c r="E28" s="1">
-        <v>0.03498043052837563</v>
+        <v>0.003545261167572811</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01979690483007176</v>
+        <v>0.01992625102477041</v>
       </c>
       <c r="E29" s="1">
-        <v>0.009906759906759932</v>
+        <v>-0.03808424697057122</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01273800846136941</v>
+        <v>0.01244384603090466</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01981946624803765</v>
+        <v>0.004404404404404483</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008802469921529577</v>
+        <v>0.009021237420571909</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02828746177370034</v>
+        <v>-0.01486988847583648</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01627418636278597</v>
+        <v>0.01610044148968177</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.007360672975814997</v>
+        <v>0.0222457627118644</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0195496357973263</v>
+        <v>0.02044021722258186</v>
       </c>
       <c r="E33" s="1">
-        <v>0.04905875641756996</v>
+        <v>-0.02786840674279512</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01850768331797356</v>
+        <v>0.01841060648394613</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.00191158900836319</v>
+        <v>-0.03543212832176212</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01831213696781638</v>
+        <v>0.01810916396748177</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.007770007770007692</v>
+        <v>-0.009397024275646038</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01653472255203177</v>
+        <v>0.01642008937109471</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.003604902667627918</v>
+        <v>0.04269175108538348</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01958289982739237</v>
+        <v>0.01950771926637362</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0005007511266899023</v>
+        <v>-0.0145290581162324</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01980748009974595</v>
+        <v>0.0197202429477207</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.001067805659370147</v>
+        <v>-0.01175841795831112</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02501762705177056</v>
+        <v>0.02530200784095486</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01475651746187912</v>
+        <v>-0.01345128453708189</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01817138974233452</v>
+        <v>0.01760822897826509</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.02774427020506642</v>
+        <v>-0.003308519437551616</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02283335316997554</v>
+        <v>0.0228245451245841</v>
       </c>
       <c r="E41" s="1">
-        <v>0.002964160603610821</v>
+        <v>-0.0212923159591617</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0198372831324641</v>
+        <v>0.01958533161168071</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.009392265193370219</v>
+        <v>-0.02361033649377198</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01994515088314077</v>
+        <v>0.01983771546049417</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.00205338809034894</v>
+        <v>-0.006172839506172978</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01864035488297695</v>
+        <v>0.01859572630016009</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0009489916963225653</v>
+        <v>-0.0213320692107134</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02036700800432548</v>
+        <v>0.02041875405548458</v>
       </c>
       <c r="E45" s="1">
-        <v>0.005900401227283414</v>
+        <v>-0.02158610980760212</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01944157576901919</v>
+        <v>0.01956214372579884</v>
       </c>
       <c r="E46" s="1">
-        <v>0.009573542210617791</v>
+        <v>-0.008620689655172376</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01787547446908782</v>
+        <v>0.01783589185783258</v>
       </c>
       <c r="E47" s="1">
-        <v>0.001129433024621651</v>
+        <v>-0.01489169675090263</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01610517432562947</v>
+        <v>0.01595939782018542</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.005730659025787954</v>
+        <v>0.004322766570605152</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01712789904193825</v>
+        <v>0.0170310230916849</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.002323780015491828</v>
+        <v>-0.0007763975155280489</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01761647650088553</v>
+        <v>0.01749554735100442</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.003536345776031347</v>
+        <v>-0.01498422712933756</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01650780368377021</v>
+        <v>0.01639766802689488</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.003342884431709603</v>
+        <v>-0.02827024436990899</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01797026734089458</v>
+        <v>0.01804822390375916</v>
       </c>
       <c r="E52" s="1">
-        <v>0.007703830515728871</v>
+        <v>-0.01571458908473145</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01575522903822922</v>
+        <v>0.01555274745786033</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.009543568464730368</v>
+        <v>-0.008378718056137324</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007426723475733506</v>
+        <v>0.007376047335481949</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.003495145631068008</v>
+        <v>0.003507404520654678</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007203489146793011</v>
+        <v>0.007150300810119576</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.0040572282724749</v>
+        <v>0.003001715265866123</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.003351206820933816</v>
+        <v>-0.01485049945939654</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02442776705258207</v>
+        <v>0.02406750690098922</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02937946183415707</v>
+        <v>0.0008486562942009446</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01809919892561518</v>
+        <v>0.0179868748685138</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02096436058700213</v>
+        <v>-0.004282655246252709</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01809804911309211</v>
+        <v>0.01791801330098137</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02465057179161367</v>
+        <v>-0.002866076081292412</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0202756023963626</v>
+        <v>0.02024355013671647</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01640785232932895</v>
+        <v>0.0002978850163837254</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01952381664169657</v>
+        <v>0.01945864498136798</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01813898704358086</v>
+        <v>-0.001679462571976931</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02677760057889227</v>
+        <v>0.02703108311951071</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005524861878452914</v>
+        <v>-0.006944444444444531</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0188254971693532</v>
+        <v>0.01920498542186998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005008347245408995</v>
+        <v>-0.001661129568106268</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01976604381322292</v>
+        <v>0.01965472537705356</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02039866594275974</v>
+        <v>-0.0011876484560569</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01932144963763658</v>
+        <v>0.01904080699532373</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02915972387526788</v>
+        <v>-0.0061297045482408</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01969053945754145</v>
+        <v>0.01954968230793629</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02189781021897808</v>
+        <v>0.0002985074626864481</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01928235601185226</v>
+        <v>0.01932208899151554</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01282051282051266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01950771926637362</v>
+        <v>0.01969596450789219</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005344021376085584</v>
+        <v>0.007723304231027628</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01861661456099583</v>
+        <v>0.01869844439968226</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01052024787433348</v>
+        <v>-0.003786775415088761</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01697353246553149</v>
+        <v>0.01729787014478534</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003974167908594284</v>
+        <v>-0.0009896091044037103</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01764310662479816</v>
+        <v>0.01779779734410271</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.006212934199378628</v>
+        <v>-0.004546746234725729</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01586262193282718</v>
+        <v>0.01612313848849054</v>
       </c>
       <c r="E17" s="1">
-        <v>0.001328903654485014</v>
+        <v>-0.0006635700066356387</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01540902089247681</v>
+        <v>0.01497019354282747</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.04290617848970246</v>
+        <v>-0.02630005977286332</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01656879845741151</v>
+        <v>0.01649973734369616</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01895674300254435</v>
+        <v>-0.0112825833225263</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01845832370365345</v>
+        <v>0.01848368968059807</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01349667774086383</v>
+        <v>0.01810145232582627</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02000673790138518</v>
+        <v>0.01960453813291975</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.03465517241379301</v>
+        <v>-0.005715306304697299</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02073955174942059</v>
+        <v>0.0210175619367491</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001644736842105199</v>
+        <v>-0.002471169686985242</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01982851696030962</v>
+        <v>0.01937169266304313</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.03754711510582776</v>
+        <v>-0.006175628859767968</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02143633813839986</v>
+        <v>0.02103779245376427</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.03316645807259067</v>
+        <v>-0.01266759130836803</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02120867525883238</v>
+        <v>0.02093702891709252</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02746855573225393</v>
+        <v>-0.01382488479262667</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01966639339455702</v>
+        <v>0.01943646922233212</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.026368101028999</v>
+        <v>-0.004984086951300148</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02054829959975026</v>
+        <v>0.02012430680084816</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.03517803517803519</v>
+        <v>-0.02934637616718538</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02675671231805654</v>
+        <v>0.02725634214550663</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003545261167572811</v>
+        <v>0.01554404145077704</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01992625102477041</v>
+        <v>0.01945631069094316</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.03808424697057122</v>
+        <v>-0.0350929814037193</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01244384603090466</v>
+        <v>0.01268706298314341</v>
       </c>
       <c r="E30" s="1">
-        <v>0.004404404404404483</v>
+        <v>-0.0139525612916086</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009021237420571909</v>
+        <v>0.009021059870950698</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01486988847583648</v>
+        <v>0.01584905660377367</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01610044148968177</v>
+        <v>0.01670671109469759</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0222457627118644</v>
+        <v>-0.003108808290155474</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02044021722258186</v>
+        <v>0.02017011725043542</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.02786840674279512</v>
+        <v>-0.03873584114109918</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01841060648394613</v>
+        <v>0.01802597423312967</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.03543212832176212</v>
+        <v>0.02730206006453217</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01810916396748177</v>
+        <v>0.01820941055568075</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.009397024275646038</v>
+        <v>-0.02845849802371547</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01642008937109471</v>
+        <v>0.01737918126125019</v>
       </c>
       <c r="E36" s="1">
-        <v>0.04269175108538348</v>
+        <v>-0.01110340041637747</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01950771926637362</v>
+        <v>0.01951408437895766</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0145290581162324</v>
+        <v>0.007625826131164137</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0197202429477207</v>
+        <v>0.01978213872940876</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01175841795831112</v>
+        <v>-0.001622498647917636</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02530200784095486</v>
+        <v>0.02533794446470198</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01345128453708189</v>
+        <v>-0.01240633828767956</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01760822897826509</v>
+        <v>0.01781452642548065</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.003308519437551616</v>
+        <v>-0.02738589211618259</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0228245451245841</v>
+        <v>0.02267529718678126</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.0212923159591617</v>
+        <v>-0.03795209663029309</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01958533161168071</v>
+        <v>0.01941118107606315</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02361033649377198</v>
+        <v>-0.01370906321401388</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01983771546049417</v>
+        <v>0.02001245538465848</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.006172839506172978</v>
+        <v>-0.01311249137336079</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01859572630016009</v>
+        <v>0.01847337989788841</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.0213320692107134</v>
+        <v>-0.02688302252361341</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02041875405548458</v>
+        <v>0.0202791480656951</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.02158610980760212</v>
+        <v>-0.005515587529976052</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01956214372579884</v>
+        <v>0.0196858492493846</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.008620689655172376</v>
+        <v>-0.02239130434782621</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01783589185783258</v>
+        <v>0.01783514599089996</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01489169675090263</v>
+        <v>0.001603298213467719</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01595939782018542</v>
+        <v>0.01627000426105265</v>
       </c>
       <c r="E48" s="1">
-        <v>0.004322766570605152</v>
+        <v>-0.02008608321377325</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.0170310230916849</v>
+        <v>0.01727433271633498</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.0007763975155280489</v>
+        <v>0.01787101787101797</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01749554735100442</v>
+        <v>0.01749317244366263</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01498422712933756</v>
+        <v>-0.03883106485188148</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01639766802689488</v>
+        <v>0.01617429835363469</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02827024436990899</v>
+        <v>0.02416173570019708</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01804822390375916</v>
+        <v>0.01803239353179795</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01571458908473145</v>
+        <v>0.001725997842502824</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01555274745786033</v>
+        <v>0.01565491873411042</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.008378718056137324</v>
+        <v>-0.009716941275876745</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007376047335481949</v>
+        <v>0.007513497304915811</v>
       </c>
       <c r="E54" s="1">
-        <v>0.003507404520654678</v>
+        <v>-0.0003883495145632354</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007150300810119576</v>
+        <v>0.007279873738230921</v>
       </c>
       <c r="E55" s="1">
-        <v>0.003001715265866123</v>
+        <v>-0.01239846088071817</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01485049945939654</v>
+        <v>-0.00724962522480932</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02406750690098922</v>
+        <v>0.02426383565723781</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008486562942009446</v>
+        <v>-0.02289429055963832</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0179868748685138</v>
+        <v>0.01804063109877966</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004282655246252709</v>
+        <v>0.00371456500488776</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01791801330098137</v>
+        <v>0.01799713136918338</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002866076081292412</v>
+        <v>0.006793833289783224</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02024355013671647</v>
+        <v>0.02039745428609498</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0002978850163837254</v>
+        <v>0.00238237045860612</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01945864498136798</v>
+        <v>0.01956782430811917</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001679462571976931</v>
+        <v>0.0103340543138668</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02703108311951071</v>
+        <v>0.02703939272809926</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006944444444444531</v>
+        <v>0.006993006993007089</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01920498542186998</v>
+        <v>0.01931309616183467</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001661129568106268</v>
+        <v>-0.002495840266222848</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01965472537705356</v>
+        <v>0.01977474194079334</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0011876484560569</v>
+        <v>-0.00190249702734846</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01904080699532373</v>
+        <v>0.0190622869101084</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0061297045482408</v>
+        <v>-0.002467003823855785</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01954968230793629</v>
+        <v>0.01969832349690799</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0002985074626864481</v>
+        <v>-0.008654133094598726</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,7 +1019,7 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01932208899151554</v>
+        <v>0.01946318982341461</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01969596450789219</v>
+        <v>0.01999302436768637</v>
       </c>
       <c r="E13" s="1">
-        <v>0.007723304231027628</v>
+        <v>0.003665444851715938</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01869844439968226</v>
+        <v>0.01876366714477181</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003786775415088761</v>
+        <v>0.01096491228070184</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01729787014478534</v>
+        <v>0.017406945848715</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0009896091044037103</v>
+        <v>0.01981178801386818</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01779779734410271</v>
+        <v>0.0178462539286918</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.004546746234725729</v>
+        <v>-0.005138452754781531</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01612313848849054</v>
+        <v>0.01623010181288062</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0006635700066356387</v>
+        <v>-0.01261620185922996</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01497019354282747</v>
+        <v>0.01468292224129417</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02630005977286332</v>
+        <v>0.02701043585021501</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01649973734369616</v>
+        <v>0.01643270866154075</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0112825833225263</v>
+        <v>0.01639559286463799</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01848368968059807</v>
+        <v>0.01895569297812473</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01810145232582627</v>
+        <v>-0.00351457514988629</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01960453813291975</v>
+        <v>0.01963483740506478</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.005715306304697299</v>
+        <v>0.01311298724627252</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0210175619367491</v>
+        <v>0.02111872682953593</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.002471169686985242</v>
+        <v>0.0115606936416186</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01937169266304313</v>
+        <v>0.0193926497213666</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.006175628859767968</v>
+        <v>-0.05850257653834501</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02103779245376427</v>
+        <v>0.02092297804635269</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01266759130836803</v>
+        <v>0.007211088218767703</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02093702891709252</v>
+        <v>0.0207983571994012</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01382488479262667</v>
+        <v>0.02306300874283984</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01943646922233212</v>
+        <v>0.01948082484892661</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004984086951300148</v>
+        <v>0.01231140615570325</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02012430680084816</v>
+        <v>0.01967637768738194</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02934637616718538</v>
+        <v>-0.02153000458085208</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02725634214550663</v>
+        <v>0.02788215100284512</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01554404145077704</v>
+        <v>-0.006493506493506329</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01945631069094316</v>
+        <v>0.01891062569070517</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0350929814037193</v>
+        <v>-0.004662729250854758</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01268706298314341</v>
+        <v>0.01260140139669402</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0139525612916086</v>
+        <v>0.01617141702041636</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009021059870950698</v>
+        <v>0.009230956131894317</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01584905660377367</v>
+        <v>0.0326894502228825</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01670671109469759</v>
+        <v>0.01677639571429691</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.003108808290155474</v>
+        <v>0.01247401247401259</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02017011725043542</v>
+        <v>0.01953039886508814</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.03873584114109918</v>
+        <v>0.01338376491125981</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01802597423312967</v>
+        <v>0.01865335026295783</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02730206006453217</v>
+        <v>-0.007731336071514883</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01820941055568075</v>
+        <v>0.01782038922460752</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.02845849802371547</v>
+        <v>0.08380797396257145</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01737918126125019</v>
+        <v>0.01731171671095018</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01110340041637747</v>
+        <v>0.03298245614035089</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01951408437895766</v>
+        <v>0.01980648498671495</v>
       </c>
       <c r="E37" s="1">
-        <v>0.007625826131164137</v>
+        <v>-0.006559031281533789</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01978213872940876</v>
+        <v>0.01989426822481915</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.001622498647917636</v>
+        <v>-0.01137594799566632</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02533794446470198</v>
+        <v>0.02520632979849045</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01240633828767956</v>
+        <v>0.0007462686567163423</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01781452642548065</v>
+        <v>0.01745318880450203</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.02738589211618259</v>
+        <v>-0.02986348122866911</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02267529718678126</v>
+        <v>0.0219740255668681</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.03795209663029309</v>
+        <v>-0.005136253388500545</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01941118107606315</v>
+        <v>0.01928488012101547</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01370906321401388</v>
+        <v>-0.00617760617760621</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.02001245538465848</v>
+        <v>0.01989426822481915</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.01311249137336079</v>
+        <v>0.006293706293706292</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01847337989788841</v>
+        <v>0.01810803608518109</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.02688302252361341</v>
+        <v>-0.0002488800398207092</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0202791480656951</v>
+        <v>0.02031456966618856</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.005515587529976052</v>
+        <v>-0.01085121774776943</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.0196858492493846</v>
+        <v>0.01938559571116179</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.02239130434782621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01783514599089996</v>
+        <v>0.01799419219826471</v>
       </c>
       <c r="E47" s="1">
-        <v>0.001603298213467719</v>
+        <v>0.01074777040933017</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01627000426105265</v>
+        <v>0.01605962989959792</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02008608321377325</v>
+        <v>0.01024890190336736</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01727433271633498</v>
+        <v>0.01771144395588892</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01787101787101797</v>
+        <v>0.01908396946564883</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01749317244366263</v>
+        <v>0.01693667850172824</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.03883106485188148</v>
+        <v>-0.006663890045814247</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01617429835363469</v>
+        <v>0.01668606519472987</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02416173570019708</v>
+        <v>0.006259027443427989</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01803239353179795</v>
+        <v>0.01819542743382947</v>
       </c>
       <c r="E52" s="1">
-        <v>0.001725997842502824</v>
+        <v>-0.004738315744130972</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01565491873411042</v>
+        <v>0.01561601103560708</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.009716941275876745</v>
+        <v>0.00213310580204773</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007513497304915811</v>
+        <v>0.007565425944649533</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0003883495145632354</v>
+        <v>0.008935508935508985</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007279873738230921</v>
+        <v>0.007242117143596135</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01239846088071817</v>
+        <v>-0.01255411255411265</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.00724962522480932</v>
+        <v>0.002559234091247697</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02426383565723781</v>
+        <v>0.02364781206678496</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02289429055963832</v>
+        <v>0.005785363031530322</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01804063109877966</v>
+        <v>0.01806142079189828</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00371456500488776</v>
+        <v>-0.01733541098558644</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01799713136918338</v>
+        <v>0.01807314746427323</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006793833289783224</v>
+        <v>0.01505320529457554</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02039745428609498</v>
+        <v>0.02039385592727586</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00238237045860612</v>
+        <v>0.02346999405822969</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01956782430811917</v>
+        <v>0.01971957226571623</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0103340543138668</v>
+        <v>0.005946717411988489</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02703939272809926</v>
+        <v>0.02715897322038463</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006993006993007089</v>
+        <v>0.01249999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01931309616183467</v>
+        <v>0.01921571624267254</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002495840266222848</v>
+        <v>-0.006672226855713115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01977474194079334</v>
+        <v>0.01968673758306637</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00190249702734846</v>
+        <v>0.0123898022396951</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0190622869101084</v>
+        <v>0.01896671989924443</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002467003823855785</v>
+        <v>0.01459131940150837</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01969832349690799</v>
+        <v>0.01947800281479226</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.008654133094598726</v>
+        <v>0.02016857314870579</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01946318982341461</v>
+        <v>0.01941350611673003</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.007792207792207684</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01999302436768637</v>
+        <v>0.02001508440956497</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003665444851715938</v>
+        <v>-0.009628154050464799</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01876366714477181</v>
+        <v>0.01892098587698213</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01096491228070184</v>
+        <v>-0.001879971077368259</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.017406945848715</v>
+        <v>0.01770649350801645</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01981178801386818</v>
+        <v>0.00194269062651764</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0178462539286918</v>
+        <v>0.01770922973157061</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005138452754781531</v>
+        <v>0.003443328550932545</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01623010181288062</v>
+        <v>0.01598443166975501</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01261620185922996</v>
+        <v>-0.01344989912575645</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01468292224129417</v>
+        <v>0.01504102087719027</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02701043585021501</v>
+        <v>0.04423191870890597</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01643270866154075</v>
+        <v>0.01665949710947298</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01639559286463799</v>
+        <v>-0.004645760743321792</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01895569297812473</v>
+        <v>0.0188408536157533</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.00351457514988629</v>
+        <v>0.04626556016597516</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01963483740506478</v>
+        <v>0.01984152965841571</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01311298724627252</v>
+        <v>-0.02251773049645378</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02111872682953593</v>
+        <v>0.0213083409279824</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0115606936416186</v>
+        <v>-0.007346938775510181</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0193926497213666</v>
+        <v>0.01821152219829764</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.05850257653834501</v>
+        <v>0.02817128139085634</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02092297804635269</v>
+        <v>0.02102006023209821</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007211088218767703</v>
+        <v>-0.01664342166434207</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0207983571994012</v>
+        <v>0.02122371344234318</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02306300874283984</v>
+        <v>-0.01827022248416099</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01948082484892661</v>
+        <v>0.01967032024174144</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01231140615570325</v>
+        <v>-0.01931560748777872</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01967637768738194</v>
+        <v>0.01920359868121842</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02153000458085208</v>
+        <v>0.026685393258427</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02788215100284512</v>
+        <v>0.02763038544985763</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.006493506493506329</v>
+        <v>-0.00630252100840345</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01891062569070517</v>
+        <v>0.01877440247229525</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.004662729250854758</v>
+        <v>0.006558400999375102</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01260140139669402</v>
+        <v>0.01277249610625616</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01617141702041636</v>
+        <v>0.006564551422319598</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009230956131894317</v>
+        <v>0.009508376850688775</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0326894502228825</v>
+        <v>-0.004316546762589968</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01677639571429691</v>
+        <v>0.01694230535824886</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01247401247401259</v>
+        <v>-0.01026694045174537</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01953039886508814</v>
+        <v>0.01974126660960989</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01338376491125981</v>
+        <v>0.01579098478323293</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01865335026295783</v>
+        <v>0.01846188665350283</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.007731336071514883</v>
+        <v>0.01436571706841971</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01782038922460752</v>
+        <v>0.01926457737756817</v>
       </c>
       <c r="E35" s="1">
-        <v>0.08380797396257145</v>
+        <v>-0.01126126126126126</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01731171671095018</v>
+        <v>0.01783705046045756</v>
       </c>
       <c r="E36" s="1">
-        <v>0.03298245614035089</v>
+        <v>0.004076086956521729</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01980648498671495</v>
+        <v>0.01962634522033538</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.006559031281533789</v>
+        <v>0.001523616048755505</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01989426822481915</v>
+        <v>0.01961774566059375</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01137594799566632</v>
+        <v>-0.003287671232876654</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02520632979849045</v>
+        <v>0.02516074824769312</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0007462686567163423</v>
+        <v>0.001864280387770423</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01745318880450203</v>
+        <v>0.01688875355440326</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.02986348122866911</v>
+        <v>-0.01671064204045725</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0219740255668681</v>
+        <v>0.02180535639214071</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.005136253388500545</v>
+        <v>-0.002007744156030444</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01928488012101547</v>
+        <v>0.01911682130564379</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.00617760617760621</v>
+        <v>0.003302253302253533</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01989426822481915</v>
+        <v>0.01996837316460476</v>
       </c>
       <c r="E43" s="1">
-        <v>0.006293706293706292</v>
+        <v>0.01111883252258505</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01810803608518109</v>
+        <v>0.01805731645656704</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.0002488800398207092</v>
+        <v>0.01120238984316635</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02031456966618856</v>
+        <v>0.02004283753418569</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01085121774776943</v>
+        <v>0.004875670404680621</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01938559571116179</v>
+        <v>0.01933611007905536</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>-0.001334222815210118</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01799419219826471</v>
+        <v>0.01814116216404794</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01074777040933017</v>
+        <v>-0.010633484162896</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01605962989959792</v>
+        <v>0.01618280787743126</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01024890190336736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01771144395588892</v>
+        <v>0.01800337376364227</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01908396946564883</v>
+        <v>0.005243445692884041</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01693667850172824</v>
+        <v>0.01678086816855372</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.006663890045814247</v>
+        <v>-0.002935010482180256</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01668606519472987</v>
+        <v>0.01674764259682469</v>
       </c>
       <c r="E51" s="1">
-        <v>0.006259027443427989</v>
+        <v>-0.0004784688995215225</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01819542743382947</v>
+        <v>0.01806298434821494</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.004738315744130972</v>
+        <v>0.01255139580177445</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01561601103560708</v>
+        <v>0.01560937359829619</v>
       </c>
       <c r="E53" s="1">
-        <v>0.00213310580204773</v>
+        <v>-0.006811409110259792</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007565425944649533</v>
+        <v>0.007613542039436407</v>
       </c>
       <c r="E54" s="1">
-        <v>0.008935508935508985</v>
+        <v>0.005005775895263964</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007242117143596135</v>
+        <v>0.007132943916603032</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01255411255411265</v>
+        <v>0.007672073651907141</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.002559234091247697</v>
+        <v>0.002937726874464586</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02364781206678496</v>
+        <v>0.02371495518332394</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005785363031530322</v>
+        <v>-0.0002876042565430614</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01806142079189828</v>
+        <v>0.01769633165041824</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01733541098558644</v>
+        <v>0.001585728444003953</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01807314746427323</v>
+        <v>0.0182914709176837</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01505320529457554</v>
+        <v>-0.003323958066990595</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02039385592727586</v>
+        <v>0.02081136150871507</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02346999405822969</v>
+        <v>-0.008708272859216382</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01971957226571623</v>
+        <v>0.01977873446967128</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005946717411988489</v>
+        <v>-0.005675100496571384</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02715897322038463</v>
+        <v>0.0274179140427144</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01249999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01921571624267254</v>
+        <v>0.01903159499662092</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006672226855713115</v>
+        <v>0.005877413937867448</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01968673758306637</v>
+        <v>0.0198722730578466</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0123898022396951</v>
+        <v>-0.01788656154389268</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01896671989924443</v>
+        <v>0.01918710289946238</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01459131940150837</v>
+        <v>-0.006459475929311287</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01947800281479226</v>
+        <v>0.01981264220788484</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02016857314870579</v>
+        <v>-0.01047506639126594</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01941350611673003</v>
+        <v>0.01950747256396285</v>
       </c>
       <c r="E12" s="1">
-        <v>0.007792207792207684</v>
+        <v>-0.01159793814432986</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02001508440956497</v>
+        <v>0.01976431393732759</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.009628154050464799</v>
+        <v>0.02212537713711016</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01892098587698213</v>
+        <v>0.01883009728792658</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001879971077368259</v>
+        <v>0.01434366850188362</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01770649350801645</v>
+        <v>0.01768892651218769</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00194269062651764</v>
+        <v>0.002423654871546388</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01770922973157061</v>
+        <v>0.01771815732099248</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003443328550932545</v>
+        <v>0.02201887331998864</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01598443166975501</v>
+        <v>0.01572325205609509</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01344989912575645</v>
+        <v>-0.008179959100204526</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01504102087719027</v>
+        <v>0.01566030838113545</v>
       </c>
       <c r="E18" s="1">
-        <v>0.04423191870890597</v>
+        <v>0.02346880366342297</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01665949710947298</v>
+        <v>0.0165335300761638</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.004645760743321792</v>
+        <v>0.00907558667185282</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0188408536157533</v>
+        <v>0.01965479584033899</v>
       </c>
       <c r="E20" s="1">
-        <v>0.04626556016597516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01984152965841571</v>
+        <v>0.01933793387289509</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02251773049645378</v>
+        <v>0.01795755487030659</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0213083409279824</v>
+        <v>0.02108983368059534</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.007346938775510181</v>
+        <v>-0.01480263157894735</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01821152219829764</v>
+        <v>0.01866971758361765</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02817128139085634</v>
+        <v>-0.01221230624706426</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02102006023209821</v>
+        <v>0.02060966892796204</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01664342166434207</v>
+        <v>0.001701966717095216</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02122371344234318</v>
+        <v>0.02077492043373843</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01827022248416099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01967032024174144</v>
+        <v>0.01923387219355005</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01931560748777872</v>
+        <v>0.01756838905775071</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01920359868121842</v>
+        <v>0.01965830353739556</v>
       </c>
       <c r="E27" s="1">
-        <v>0.026685393258427</v>
+        <v>-0.0246238030095759</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02763038544985763</v>
+        <v>0.0273758216780355</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.00630252100840345</v>
+        <v>0.009866102889358741</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01877440247229525</v>
+        <v>0.01884217935556589</v>
       </c>
       <c r="E29" s="1">
-        <v>0.006558400999375102</v>
+        <v>0.002171889543903127</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01277249610625616</v>
+        <v>0.01281868402119273</v>
       </c>
       <c r="E30" s="1">
-        <v>0.006564551422319598</v>
+        <v>0.003952569169960229</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009508376850688775</v>
+        <v>0.009439602523359313</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.004316546762589968</v>
+        <v>-0.009393063583814976</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01694230535824886</v>
+        <v>0.01671924314810355</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01026694045174537</v>
+        <v>-0.005186721991701337</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01974126660960989</v>
+        <v>0.01999426296659191</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01579098478323293</v>
+        <v>-0.01356698699830416</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01846188665350283</v>
+        <v>0.01867225092038073</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01436571706841971</v>
+        <v>-0.000480076812289898</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01926457737756817</v>
+        <v>0.01899184109664641</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01126126126126126</v>
+        <v>0.02809415337889121</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01783705046045756</v>
+        <v>0.01785729597090326</v>
       </c>
       <c r="E36" s="1">
-        <v>0.004076086956521729</v>
+        <v>-0.006089309878213878</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01962634522033538</v>
+        <v>0.01959867268743379</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001523616048755505</v>
+        <v>0.002028397565923212</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01961774566059375</v>
+        <v>0.01949597511249964</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.003287671232876654</v>
+        <v>0.002748763056624304</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02516074824769312</v>
+        <v>0.02513381864270832</v>
       </c>
       <c r="E39" s="1">
-        <v>0.001864280387770423</v>
+        <v>0.005954596203944895</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01688875355440326</v>
+        <v>0.01655788908350112</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01671064204045725</v>
+        <v>0.004472271914132353</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02180535639214071</v>
+        <v>0.02169783450373492</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.002007744156030444</v>
+        <v>0.007472337979594679</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01911682130564379</v>
+        <v>0.01912376948038535</v>
       </c>
       <c r="E42" s="1">
-        <v>0.003302253302253533</v>
+        <v>0.006776379477250627</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01996837316460476</v>
+        <v>0.02013125802385702</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01111883252258505</v>
+        <v>0.008247422680412342</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01805731645656704</v>
+        <v>0.01820611695597373</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01120238984316635</v>
+        <v>-0.009354997538158383</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02004283753418569</v>
+        <v>0.02008156564888888</v>
       </c>
       <c r="E45" s="1">
-        <v>0.004875670404680621</v>
+        <v>0.01431344007763213</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01933611007905536</v>
+        <v>0.0192537491435373</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.001334222815210118</v>
+        <v>0.008684034736138768</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01814116216404794</v>
+        <v>0.01789568576646688</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.010633484162896</v>
+        <v>0.01715069746169684</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01618280787743126</v>
+        <v>0.01613540646024259</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>0.007246376811594235</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01800337376364227</v>
+        <v>0.0180447628913713</v>
       </c>
       <c r="E49" s="1">
-        <v>0.005243445692884041</v>
+        <v>0.01117734724292108</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01678086816855372</v>
+        <v>0.01668260720106821</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.002935010482180256</v>
+        <v>0.04709840201850279</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01674764259682469</v>
+        <v>0.01669059695547485</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.0004784688995215225</v>
+        <v>-0.01340354236476782</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01806298434821494</v>
+        <v>0.01823612725301331</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01255139580177445</v>
+        <v>0.01282325283180175</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01560937359829619</v>
+        <v>0.01545764144008892</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.006811409110259792</v>
+        <v>0.01157308186883865</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007613542039436407</v>
+        <v>0.007629241098049486</v>
       </c>
       <c r="E54" s="1">
-        <v>0.005005775895263964</v>
+        <v>0.01417624521072791</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007132943916603032</v>
+        <v>0.007166614830699053</v>
       </c>
       <c r="E55" s="1">
-        <v>0.007672073651907141</v>
+        <v>0.003480530780944235</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.002937726874464586</v>
+        <v>0.003214414608233351</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02371495518332394</v>
+        <v>0.02363217106537268</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0002876042565430614</v>
+        <v>-0.01812428078250838</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01769633165041824</v>
+        <v>0.01766760222817612</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001585728444003953</v>
+        <v>-0.003958044725905441</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0182914709176837</v>
+        <v>0.01817225766486722</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003323958066990595</v>
+        <v>-0.007696254489481857</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02081136150871507</v>
+        <v>0.02056402917833042</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.008708272859216382</v>
+        <v>-0.03426061493411414</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01977873446967128</v>
+        <v>0.01960347446915512</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005675100496571384</v>
+        <v>-0.03162901307966703</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0274179140427144</v>
+        <v>0.02733006388611492</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.03017832647462282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01903159499662092</v>
+        <v>0.01908211373317402</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005877413937867448</v>
+        <v>-0.006677796327211993</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0198722730578466</v>
+        <v>0.01945429226154205</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01788656154389268</v>
+        <v>-0.03179167665148974</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01918710289946238</v>
+        <v>0.01900208369471492</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006459475929311287</v>
+        <v>-0.03704612365063786</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01981264220788484</v>
+        <v>0.01954228645431382</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01047506639126594</v>
+        <v>-0.02981959147159685</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01950747256396285</v>
+        <v>0.01921944683315116</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01159793814432986</v>
+        <v>-0.02737940026075614</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01976431393732759</v>
+        <v>0.02013687856043831</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02212537713711016</v>
+        <v>0.002951787471302314</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01883009728792658</v>
+        <v>0.01903899075128587</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01434366850188362</v>
+        <v>0.005284959291529612</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01768892651218769</v>
+        <v>0.01767498363949031</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002423654871546388</v>
+        <v>-0.0009671179883945502</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01771815732099248</v>
+        <v>0.01805027013051694</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02201887331998864</v>
+        <v>-0.01678791270285396</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01572325205609509</v>
+        <v>0.01554466948468231</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.008179959100204526</v>
+        <v>-0.02130584192439855</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01566030838113545</v>
+        <v>0.01597648204656232</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02346880366342297</v>
+        <v>-0.04418344519015649</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0165335300761638</v>
+        <v>0.01663012544320033</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00907558667185282</v>
+        <v>-0.01477579339586277</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01965479584033899</v>
+        <v>0.01959181960918534</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>-0.01269085861590324</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01933793387289509</v>
+        <v>0.01962212224510675</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01795755487030659</v>
+        <v>0.0130078403421241</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02108983368059534</v>
+        <v>0.02071107466161571</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01480263157894735</v>
+        <v>-0.0158597662771286</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01866971758361765</v>
+        <v>0.01838262788732159</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01221230624706426</v>
+        <v>-0.007925186241876658</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02060966892796204</v>
+        <v>0.02057859775329264</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001701966717095216</v>
+        <v>0.002926184632811024</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02077492043373843</v>
+        <v>0.02070835519428942</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>0.01095602581419786</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01923387219355005</v>
+        <v>0.01950907010339997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01756838905775071</v>
+        <v>0.02921321464842608</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01965830353739556</v>
+        <v>0.01911280486442775</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0246238030095759</v>
+        <v>-0.010752688172043</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0273758216780355</v>
+        <v>0.02755733365552546</v>
       </c>
       <c r="E28" s="1">
-        <v>0.009866102889358741</v>
+        <v>-0.02046987671551537</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01884217935556589</v>
+        <v>0.01882259885118044</v>
       </c>
       <c r="E29" s="1">
-        <v>0.002171889543903127</v>
+        <v>-0.009287925696594312</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01281868402119273</v>
+        <v>0.01282811587339481</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003952569169960229</v>
+        <v>-0.02342519685039379</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009439602523359313</v>
+        <v>0.009320974260824498</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.009393063583814976</v>
+        <v>-0.01167031363967908</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01671924314810355</v>
+        <v>0.01657923255466566</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.005186721991701337</v>
+        <v>-0.02606882168925961</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01999426296659191</v>
+        <v>0.01965980629234234</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01356698699830416</v>
+        <v>-0.03581661891117482</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01867225092038073</v>
+        <v>0.01860348748374875</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.000480076812289898</v>
+        <v>-0.03073967339097028</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01899184109664641</v>
+        <v>0.01946283915885321</v>
       </c>
       <c r="E35" s="1">
-        <v>0.02809415337889121</v>
+        <v>-0.04431314623338256</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01785729597090326</v>
+        <v>0.01769168893878032</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.006089309878213878</v>
+        <v>-0.03812117086453359</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01959867268743379</v>
+        <v>0.01957550280522767</v>
       </c>
       <c r="E37" s="1">
-        <v>0.002028397565923212</v>
+        <v>-0.01923076923076938</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01949597511249964</v>
+        <v>0.0194869258694574</v>
       </c>
       <c r="E38" s="1">
-        <v>0.002748763056624304</v>
+        <v>-0.01315789473684204</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02513381864270832</v>
+        <v>0.02520246919863319</v>
       </c>
       <c r="E39" s="1">
-        <v>0.005954596203944895</v>
+        <v>-0.003082994203970846</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01655788908350112</v>
+        <v>0.01657864981166717</v>
       </c>
       <c r="E40" s="1">
-        <v>0.004472271914132353</v>
+        <v>-0.04719501335707932</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02169783450373492</v>
+        <v>0.02178992619948419</v>
       </c>
       <c r="E41" s="1">
-        <v>0.007472337979594679</v>
+        <v>-0.02324917986021957</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01912376948038535</v>
+        <v>0.01919166941688987</v>
       </c>
       <c r="E42" s="1">
-        <v>0.006776379477250627</v>
+        <v>-0.007307692307692348</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.02013125802385702</v>
+        <v>0.02023225416452427</v>
       </c>
       <c r="E43" s="1">
-        <v>0.008247422680412342</v>
+        <v>-0.02522154055896375</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01820611695597373</v>
+        <v>0.01797800999870437</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.009354997538158383</v>
+        <v>-0.03156063618290272</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02008156564888888</v>
+        <v>0.0203037373056722</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01431344007763213</v>
+        <v>0.006936139679502462</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.0192537491435373</v>
+        <v>0.01935872240978992</v>
       </c>
       <c r="E46" s="1">
-        <v>0.008684034736138768</v>
+        <v>-0.006401766004414999</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01789568576646688</v>
+        <v>0.01814428600093976</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01715069746169684</v>
+        <v>-0.006294964028776828</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01613540646024259</v>
+        <v>0.01620025535798193</v>
       </c>
       <c r="E48" s="1">
-        <v>0.007246376811594235</v>
+        <v>-0.03165467625899276</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.0180447628913713</v>
+        <v>0.01818799172582641</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01117734724292108</v>
+        <v>-0.03021370670596912</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01668260720106821</v>
+        <v>0.01741236079483813</v>
       </c>
       <c r="E50" s="1">
-        <v>0.04709840201850279</v>
+        <v>-0.0281124497991968</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01669059695547485</v>
+        <v>0.01641412203842723</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01340354236476782</v>
+        <v>-0.01746724890829698</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01823612725301331</v>
+        <v>0.0184107937989152</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01282325283180175</v>
+        <v>-0.01329394387001481</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01545764144008892</v>
+        <v>0.01558643273290732</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01157308186883865</v>
+        <v>-0.01949152542372889</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007629241098049486</v>
+        <v>0.007712603584996074</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01417624521072791</v>
+        <v>-0.0196448809973554</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007166614830699053</v>
+        <v>0.007168515872073925</v>
       </c>
       <c r="E55" s="1">
-        <v>0.003480530780944235</v>
+        <v>-0.01560806416648619</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E56" s="1">
-        <v>0.003214414608233351</v>
+        <v>-0.01696384293366848</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02363217106537268</v>
+        <v>0.02360427416091257</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01812428078250838</v>
+        <v>-0.008496923527688272</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01766760222817612</v>
+        <v>0.01790134873662645</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003958044725905441</v>
+        <v>0.003973773097556199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01817225766486722</v>
+        <v>0.01834357690264815</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007696254489481857</v>
+        <v>0.01421923474663922</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02056402917833042</v>
+        <v>0.02020219983812631</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.03426061493411414</v>
+        <v>0.01788963007883582</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01960347446915512</v>
+        <v>0.0193110251157144</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.03162901307966703</v>
+        <v>0.0147347740667978</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02733006388611492</v>
+        <v>0.02696267894630347</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.03017832647462282</v>
+        <v>0.002828854314002704</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01908211373317402</v>
+        <v>0.01928178035763968</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006677796327211993</v>
+        <v>0.004201680672268893</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01945429226154205</v>
+        <v>0.0191608493310064</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.03179167665148974</v>
+        <v>0.01848032340565964</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01900208369471492</v>
+        <v>0.01861389331512255</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.03704612365063786</v>
+        <v>0.01936305732484067</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01954228645431382</v>
+        <v>0.01928672035055771</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02981959147159685</v>
+        <v>0.02243737513447064</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01921944683315116</v>
+        <v>0.01901581113893315</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02737940026075614</v>
+        <v>0.01608579088471851</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02013687856043831</v>
+        <v>0.02054483774692061</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002951787471302314</v>
+        <v>0.01275343361674297</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01903899075128587</v>
+        <v>0.01946989528795812</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005284959291529612</v>
+        <v>0.003836317135549994</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01767498363949031</v>
+        <v>0.01796260464880998</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0009671179883945502</v>
+        <v>0.008228460793804571</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01805027013051694</v>
+        <v>0.01805350051850166</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01678791270285396</v>
+        <v>0.01451337507114392</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01554466948468231</v>
+        <v>0.01547600981359233</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02130584192439855</v>
+        <v>0.01825842696629199</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01597648204656232</v>
+        <v>0.01553410413030832</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.04418344519015649</v>
+        <v>0.0275014628437682</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01663012544320033</v>
+        <v>0.0166671409059868</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01477579339586277</v>
+        <v>0.01356285863328099</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01959181960918534</v>
+        <v>0.01967697979108177</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01269085861590324</v>
+        <v>0.01164892548704555</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01962212224510675</v>
+        <v>0.02022037901206465</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0130078403421241</v>
+        <v>0.02269129287598926</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02071107466161571</v>
+        <v>0.02073433587525609</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0158597662771286</v>
+        <v>0.02714164546225617</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01838262788732159</v>
+        <v>0.01855164940435542</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.007925186241876658</v>
+        <v>-0.004313788145071218</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02057859775329264</v>
+        <v>0.02099496990161115</v>
       </c>
       <c r="E24" s="1">
-        <v>0.002926184632811024</v>
+        <v>0.02268235294117638</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02070835519428942</v>
+        <v>0.02129650706932747</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01095602581419786</v>
+        <v>0.02805819477434679</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01950907010339997</v>
+        <v>0.0204254875180211</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02921321464842608</v>
+        <v>0.03325980961225894</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01911280486442775</v>
+        <v>0.01923356602675975</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.010752688172043</v>
+        <v>0.02173913043478271</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02755733365552546</v>
+        <v>0.02745904943470673</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02046987671551537</v>
+        <v>0.0353835193540728</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01882259885118044</v>
+        <v>0.01896957280522043</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.009287925696594312</v>
+        <v>0.03374999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01282811587339481</v>
+        <v>0.01274379853049043</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02342519685039379</v>
+        <v>0.01108647450110856</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009320974260824498</v>
+        <v>0.009371166565495612</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01167031363967908</v>
+        <v>0.01918819188191878</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01657923255466566</v>
+        <v>0.01642567405215368</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02606882168925961</v>
+        <v>0.02676659528907921</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01965980629234234</v>
+        <v>0.01928276835622329</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.03581661891117482</v>
+        <v>0.001188707280832091</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01860348748374875</v>
+        <v>0.01834278650378127</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.03073967339097028</v>
+        <v>0.01189296333002976</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01946283915885321</v>
+        <v>0.01892135847434049</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.04431314623338256</v>
+        <v>0.07882534775888717</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01769168893878032</v>
+        <v>0.01731092078306397</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.03812117086453359</v>
+        <v>0.02972399150743099</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01957550280522767</v>
+        <v>0.01953036080127476</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01923076923076938</v>
+        <v>-0.002063983488132082</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0194869258694574</v>
+        <v>0.01956237195538357</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01315789473684204</v>
+        <v>0.002222222222222126</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02520246919863319</v>
+        <v>0.02555833775956699</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.003082994203970846</v>
+        <v>0.006556160316674831</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01657864981166717</v>
+        <v>0.01606880896375547</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.04719501335707932</v>
+        <v>-0.01214953271028019</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02178992619948419</v>
+        <v>0.02165060576169158</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.02324917986021957</v>
+        <v>0.01139018691588789</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01919166941688987</v>
+        <v>0.01938018501656676</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.007307692307692348</v>
+        <v>0.01569159240604412</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.02023225416452427</v>
+        <v>0.02006229923868781</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.02522154055896375</v>
+        <v>0.008391608391608463</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01797800999870437</v>
+        <v>0.01771106020942409</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.03156063618290272</v>
+        <v>0.003079291762894565</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0203037373056722</v>
+        <v>0.02079737018489011</v>
       </c>
       <c r="E45" s="1">
-        <v>0.006936139679502462</v>
+        <v>0.026603325415677</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01935872240978992</v>
+        <v>0.01956671914915143</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.006401766004414999</v>
+        <v>0.00977560542101763</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01814428600093976</v>
+        <v>0.0183412057060475</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.006294964028776828</v>
+        <v>0.009276018099547478</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01620025535798193</v>
+        <v>0.01595815312239169</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.03165467625899276</v>
+        <v>0.0222882615156017</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01818799172582641</v>
+        <v>0.01794284467713787</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.03021370670596912</v>
+        <v>-0.0121580547112462</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01741236079483813</v>
+        <v>0.01721488732073754</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.0281124497991968</v>
+        <v>0.0103305785123966</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01641412203842723</v>
+        <v>0.01640571648076486</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01746724890829698</v>
+        <v>0.03456790123456788</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.0184107937989152</v>
+        <v>0.01847952550775223</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01329394387001481</v>
+        <v>0.01497005988023958</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01558643273290732</v>
+        <v>0.01554635531274503</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01949152542372889</v>
+        <v>0.01771823681936047</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007712603584996074</v>
+        <v>0.007691568973366721</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0196448809973554</v>
+        <v>0.01579961464354529</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007168515872073925</v>
+        <v>0.007178402509042164</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01560806416648619</v>
+        <v>-0.003523452983924202</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01696384293366848</v>
+        <v>0.01522644137137341</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02360427416091257</v>
+        <v>0.023052699865487</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008496923527688272</v>
+        <v>-0.01802600472813254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01790134873662645</v>
+        <v>0.01770293197876988</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003973773097556199</v>
+        <v>0.0005937067088859216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01834357690264815</v>
+        <v>0.01832537823147021</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01421923474663922</v>
+        <v>0.002039255671679951</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02020219983812631</v>
+        <v>0.02025519517816308</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01788963007883582</v>
+        <v>0.0145963658028001</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0193110251157144</v>
+        <v>0.01930167291675629</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0147347740667978</v>
+        <v>0.01016456921587605</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02696267894630347</v>
+        <v>0.02663342022537693</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002828854314002704</v>
+        <v>0.04090267983074747</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01928178035763968</v>
+        <v>0.01907239158915122</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004201680672268893</v>
+        <v>0.002510460251045954</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0191608493310064</v>
+        <v>0.0192222613873311</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01848032340565964</v>
+        <v>0.02559740785743214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01861389331512255</v>
+        <v>0.0186897370135387</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01936305732484067</v>
+        <v>0.02111972006998242</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01928672035055771</v>
+        <v>0.01942370975241705</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02243737513447064</v>
+        <v>0.02329776040883802</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01901581113893315</v>
+        <v>0.0190319072800325</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01608579088471851</v>
+        <v>0.0158311345646438</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02054483774692061</v>
+        <v>0.02049479221914936</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01275343361674297</v>
+        <v>-0.0006457862447530882</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01946989528795812</v>
+        <v>0.01925145680256095</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003836317135549994</v>
+        <v>-0.01245576786978075</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01796260464880998</v>
+        <v>0.01783878797763943</v>
       </c>
       <c r="E15" s="1">
-        <v>0.008228460793804571</v>
+        <v>-0.009601536245799402</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01805350051850166</v>
+        <v>0.01804082025102997</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01451337507114392</v>
+        <v>0.009817671809256634</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01547600981359233</v>
+        <v>0.01552222909720186</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01825842696629199</v>
+        <v>0.01241379310344826</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01553410413030832</v>
+        <v>0.01572192573737401</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0275014628437682</v>
+        <v>0.08940774487471526</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0166671409059868</v>
+        <v>0.01663982959220039</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01356285863328099</v>
+        <v>0.01865671641791056</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01967697979108177</v>
+        <v>0.01960764086836508</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01164892548704555</v>
+        <v>0.001389716100853589</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02022037901206465</v>
+        <v>0.02036905729755948</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02269129287598926</v>
+        <v>0.003955968352252981</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02073433587525609</v>
+        <v>0.02097768438705102</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02714164546225617</v>
+        <v>0.01403798513625087</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01855164940435542</v>
+        <v>0.0181945827712405</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.004313788145071218</v>
+        <v>0.01171373555840827</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02099496990161115</v>
+        <v>0.02114915879250099</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02268235294117638</v>
+        <v>-0.002576845205227274</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02129650706932747</v>
+        <v>0.02156568004978014</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02805819477434679</v>
+        <v>0.01444043321299637</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0204254875180211</v>
+        <v>0.02078830346026008</v>
       </c>
       <c r="E26" s="1">
-        <v>0.03325980961225894</v>
+        <v>0.002078534913768859</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01923356602675975</v>
+        <v>0.01935694956959146</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02173913043478271</v>
+        <v>0.005087881591119281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02745904943470673</v>
+        <v>0.028004242288469</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0353835193540728</v>
+        <v>-0.006880733944954143</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01896957280522043</v>
+        <v>0.01931568671606661</v>
       </c>
       <c r="E29" s="1">
-        <v>0.03374999999999995</v>
+        <v>0.01420798065296247</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01274379853049043</v>
+        <v>0.01269183090871898</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01108647450110856</v>
+        <v>0.005183413078150068</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009371166565495612</v>
+        <v>0.009407735967564286</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01918819188191878</v>
+        <v>-0.0007241129616221142</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01642567405215368</v>
+        <v>0.01661238590188433</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02676659528907921</v>
+        <v>0.01459854014598538</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01928276835622329</v>
+        <v>0.01901614175580838</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001188707280832091</v>
+        <v>0.005639655684179345</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01834278650378127</v>
+        <v>0.0182825582891331</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01189296333002976</v>
+        <v>-0.007835455435847183</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01892135847434049</v>
+        <v>0.02010668783269393</v>
       </c>
       <c r="E35" s="1">
-        <v>0.07882534775888717</v>
+        <v>-0.02722063037249289</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01731092078306397</v>
+        <v>0.01755812271922984</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02972399150743099</v>
+        <v>0.0419243986254294</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01953036080127476</v>
+        <v>0.01919773723853803</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.002063983488132082</v>
+        <v>-0.01706308169596682</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01956237195538357</v>
+        <v>0.01931179399403597</v>
       </c>
       <c r="E38" s="1">
-        <v>0.002222222222222126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02555833775956699</v>
+        <v>0.02534006333069472</v>
       </c>
       <c r="E39" s="1">
-        <v>0.006556160316674831</v>
+        <v>0.0131498095121052</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01606880896375547</v>
+        <v>0.01563550730829366</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01214953271028019</v>
+        <v>0.02270577105014193</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02165060576169158</v>
+        <v>0.02156879422740465</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01139018691588789</v>
+        <v>0.006064106266243208</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01938018501656676</v>
+        <v>0.01938906452634429</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01569159240604412</v>
+        <v>0.01621209231356113</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.02006229923868781</v>
+        <v>0.01992723334708114</v>
       </c>
       <c r="E43" s="1">
-        <v>0.008391608391608463</v>
+        <v>0.0131761442441054</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01771106020942409</v>
+        <v>0.01749914798046555</v>
       </c>
       <c r="E44" s="1">
-        <v>0.003079291762894565</v>
+        <v>0.008953696597595151</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02079737018489011</v>
+        <v>0.02103043077056628</v>
       </c>
       <c r="E45" s="1">
-        <v>0.026603325415677</v>
+        <v>0.01457658491439151</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01956671914915143</v>
+        <v>0.01946166379221585</v>
       </c>
       <c r="E46" s="1">
-        <v>0.00977560542101763</v>
+        <v>0.002640264026402495</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0183412057060475</v>
+        <v>0.01823370462764849</v>
       </c>
       <c r="E47" s="1">
-        <v>0.009276018099547478</v>
+        <v>0.01972651871777642</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01595815312239169</v>
+        <v>0.01606915654250765</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0222882615156017</v>
+        <v>0.0159883720930234</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01794284467713787</v>
+        <v>0.01745885830744836</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.0121580547112462</v>
+        <v>0.04384615384615387</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01721488732073754</v>
+        <v>0.01713186965687407</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0103305785123966</v>
+        <v>0.03435582822085892</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01640571648076486</v>
+        <v>0.01671826794111791</v>
       </c>
       <c r="E51" s="1">
-        <v>0.03456790123456788</v>
+        <v>0.02291169451073993</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01847952550775223</v>
+        <v>0.01847485875744703</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01497005988023958</v>
+        <v>0.02739148756847865</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01554635531274503</v>
+        <v>0.0155845126496922</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01771823681936047</v>
+        <v>0.03057324840764308</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007691568973366721</v>
+        <v>0.007695911454587603</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01579961464354529</v>
+        <v>-0.002655538694992465</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007178402509042164</v>
+        <v>0.007045826875469684</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.003523452983924202</v>
+        <v>-0.007955801104972404</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01522644137137341</v>
+        <v>0.01095645542745705</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.023052699865487</v>
+        <v>0.02239181684550792</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01802600472813254</v>
+        <v>0.007222389407162355</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>114</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01770293197876988</v>
+        <v>0.01752146913267688</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0005937067088859216</v>
+        <v>-0.002175632911392444</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01832537823147021</v>
+        <v>0.01816373817525127</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002039255671679951</v>
+        <v>0.01424573899771042</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02025519517816308</v>
+        <v>0.02032812324018572</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0145963658028001</v>
+        <v>-0.003816793893129944</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01930167291675629</v>
+        <v>0.01928655383960794</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01016456921587605</v>
+        <v>0.01102060373742231</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02663342022537693</v>
+        <v>0.02742234676559972</v>
       </c>
       <c r="E7" s="1">
-        <v>0.04090267983074747</v>
+        <v>-0.004065040650406471</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01907239158915122</v>
+        <v>0.01891305205825473</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002510460251045954</v>
+        <v>0.0008347245409014992</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0192222613873311</v>
+        <v>0.01950064352046607</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02559740785743214</v>
+        <v>-0.0007108443250928298</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0186897370135387</v>
+        <v>0.0188776271470336</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02111972006998242</v>
+        <v>-0.006853506302778034</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01942370975241705</v>
+        <v>0.01966082572772683</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02329776040883802</v>
+        <v>0.003084606345476137</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0190319072800325</v>
+        <v>0.01912367625866732</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0158311345646438</v>
+        <v>4.081818181818182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>116</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02049479221914936</v>
+        <v>0.02025958373804048</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0006457862447530882</v>
+        <v>0.005815831987076026</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>116</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01925145680256095</v>
+        <v>0.01880562216444282</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01245576786978075</v>
+        <v>0.007309731976494316</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01783878797763943</v>
+        <v>0.01747603283350196</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.009601536245799402</v>
+        <v>0.004847309743092776</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01804082025102997</v>
+        <v>0.0180204983168354</v>
       </c>
       <c r="E16" s="1">
-        <v>0.009817671809256634</v>
+        <v>0.01527777777777772</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>117</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01552222909720186</v>
+        <v>0.01554460506518473</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01241379310344826</v>
+        <v>0.01089918256130806</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>117</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01572192573737401</v>
+        <v>0.01694196379150515</v>
       </c>
       <c r="E18" s="1">
-        <v>0.08940774487471526</v>
+        <v>-0.04338734971249325</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>117</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01663982959220039</v>
+        <v>0.01676657197562227</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01865671641791056</v>
+        <v>-0.004041935076417924</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>118</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01960764086836508</v>
+        <v>0.01942209263036705</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001389716100853589</v>
+        <v>-0.007533703409991932</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02036905729755948</v>
+        <v>0.02022800936064774</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003955968352252981</v>
+        <v>-0.007195477128661754</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02097768438705102</v>
+        <v>0.0210416271585852</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01403798513625087</v>
+        <v>-0.007328990228013033</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0181945827712405</v>
+        <v>0.01820821184096911</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01171373555840827</v>
+        <v>-0.01126090404440916</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02114915879250099</v>
+        <v>0.02086604281601091</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002576845205227274</v>
+        <v>-0.006551024174201836</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02156568004978014</v>
+        <v>0.02164000011551602</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01444043321299637</v>
+        <v>0.003843416370106656</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>118</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02078830346026008</v>
+        <v>0.02060574672921217</v>
       </c>
       <c r="E26" s="1">
-        <v>0.002078534913768859</v>
+        <v>0.01362260343087796</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>118</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01935694956959146</v>
+        <v>0.01924458302087856</v>
       </c>
       <c r="E27" s="1">
-        <v>0.005087881591119281</v>
+        <v>0.003681546249424628</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>119</v>
       </c>
       <c r="D28" s="1">
-        <v>0.028004242288469</v>
+        <v>0.02751013893688686</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.006880733944954143</v>
+        <v>-0.007852193995380952</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>119</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01931568671606661</v>
+        <v>0.01937781149134063</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01420798065296247</v>
+        <v>-0.0005961251862889316</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01269183090871898</v>
+        <v>0.01261935451576168</v>
       </c>
       <c r="E30" s="1">
-        <v>0.005183413078150068</v>
+        <v>-0.01051170170567228</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009407735967564286</v>
+        <v>0.009299039195546473</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0007241129616221142</v>
+        <v>-0.00144927536231898</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01661238590188433</v>
+        <v>0.01667223389682687</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01459854014598538</v>
+        <v>-0.01233299075025696</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>121</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01901614175580838</v>
+        <v>0.01891613248531744</v>
       </c>
       <c r="E33" s="1">
-        <v>0.005639655684179345</v>
+        <v>0.01387249114521838</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>121</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0182825582891331</v>
+        <v>0.01794271753350206</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.007835455435847183</v>
+        <v>-0.02221125370187571</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>121</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02010668783269393</v>
+        <v>0.0193473922740964</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.02722063037249289</v>
+        <v>-0.009572901325478611</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>121</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01755812271922984</v>
+        <v>0.01809596877987172</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0419243986254294</v>
+        <v>0.003957783641161061</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01919773723853803</v>
+        <v>0.01866565525978108</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01706308169596682</v>
+        <v>-0.004734350341925375</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>122</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01931179399403597</v>
+        <v>0.0191024983226112</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>0.006097560975609762</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02534006333069472</v>
+        <v>0.02539504070495574</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0131498095121052</v>
+        <v>-0.002911208151382794</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01563550730829366</v>
+        <v>0.01581722286023429</v>
       </c>
       <c r="E40" s="1">
-        <v>0.02270577105014193</v>
+        <v>0.00832562442183149</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02156879422740465</v>
+        <v>0.02146441577294173</v>
       </c>
       <c r="E41" s="1">
-        <v>0.006064106266243208</v>
+        <v>0.001865671641791078</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>122</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01938906452634429</v>
+        <v>0.0194898620257466</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01621209231356113</v>
+        <v>0.01013513513513509</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01992723334708114</v>
+        <v>0.01997098622760313</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0131761442441054</v>
+        <v>-0.00205338809034894</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01749914798046555</v>
+        <v>0.01746448123201681</v>
       </c>
       <c r="E44" s="1">
-        <v>0.008953696597595151</v>
+        <v>0.004817444219067157</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02103043077056628</v>
+        <v>0.02110573854682779</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01457658491439151</v>
+        <v>-0.01847206385404787</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01946166379221585</v>
+        <v>0.01930157092153864</v>
       </c>
       <c r="E46" s="1">
-        <v>0.002640264026402495</v>
+        <v>-0.0002194426157559048</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>123</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01823370462764849</v>
+        <v>0.01839188230458301</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01972651871777642</v>
+        <v>-0.02022422510441857</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01606915654250765</v>
+        <v>0.01614913887624096</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0159883720930234</v>
+        <v>-0.00286123032904162</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01745885830744836</v>
+        <v>0.01802685169765224</v>
       </c>
       <c r="E49" s="1">
-        <v>0.04384615384615387</v>
+        <v>-0.002210759027266085</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>123</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01713186965687407</v>
+        <v>0.01752840009356797</v>
       </c>
       <c r="E50" s="1">
-        <v>0.03435582822085892</v>
+        <v>0.01660735468564667</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>123</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01671826794111791</v>
+        <v>0.01691597268816356</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02291169451073993</v>
+        <v>-0.0004666355576294912</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>123</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01847485875744703</v>
+        <v>0.0187752029471986</v>
       </c>
       <c r="E52" s="1">
-        <v>0.02739148756847865</v>
+        <v>-0.007793273174733328</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>123</v>
       </c>
       <c r="D53" s="1">
-        <v>0.0155845126496922</v>
+        <v>0.01588691752252803</v>
       </c>
       <c r="E53" s="1">
-        <v>0.03057324840764308</v>
+        <v>0.04202719406674915</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007695911454587603</v>
+        <v>0.007592290076115428</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.002655538694992465</v>
+        <v>0.01407379231647021</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>124</v>
       </c>
       <c r="D55" s="1">
-        <v>0.007045826875469684</v>
+        <v>0.006914018542245652</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.007955801104972404</v>
+        <v>0.009801737580752867</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01095645542745705</v>
+        <v>0.07769183600191387</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -31,368 +31,368 @@
     <t>Percent Change</t>
   </si>
   <si>
-    <t>FDP</t>
-  </si>
-  <si>
-    <t>CENTA</t>
-  </si>
-  <si>
-    <t>HMN</t>
-  </si>
-  <si>
-    <t>STBA</t>
-  </si>
-  <si>
-    <t>EIG</t>
-  </si>
-  <si>
-    <t>EZPW</t>
-  </si>
-  <si>
-    <t>ARR</t>
-  </si>
-  <si>
-    <t>PRK</t>
-  </si>
-  <si>
-    <t>TMP</t>
-  </si>
-  <si>
-    <t>PFBC</t>
-  </si>
-  <si>
-    <t>TRST</t>
-  </si>
-  <si>
-    <t>GTY</t>
-  </si>
-  <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>DEA</t>
-  </si>
-  <si>
-    <t>AAT</t>
-  </si>
-  <si>
-    <t>MERC</t>
-  </si>
-  <si>
-    <t>HCC</t>
-  </si>
-  <si>
-    <t>MTRN</t>
-  </si>
-  <si>
-    <t>UEIC</t>
-  </si>
-  <si>
-    <t>MDC</t>
-  </si>
-  <si>
-    <t>PRDO</t>
-  </si>
-  <si>
-    <t>MNRO</t>
-  </si>
-  <si>
-    <t>MTH</t>
-  </si>
-  <si>
-    <t>MHO</t>
-  </si>
-  <si>
-    <t>LGIH</t>
-  </si>
-  <si>
-    <t>SBH</t>
-  </si>
-  <si>
-    <t>BCEI</t>
-  </si>
-  <si>
-    <t>DRQ</t>
-  </si>
-  <si>
-    <t>SHEN</t>
+    <t>AAWW</t>
+  </si>
+  <si>
+    <t>ABCB</t>
+  </si>
+  <si>
+    <t>ABG</t>
+  </si>
+  <si>
+    <t>AIT</t>
+  </si>
+  <si>
+    <t>ARCB</t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>BDN</t>
+  </si>
+  <si>
+    <t>BSIG</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>CCOI</t>
+  </si>
+  <si>
+    <t>CORT</t>
+  </si>
+  <si>
+    <t>CPK</t>
+  </si>
+  <si>
+    <t>CPSI</t>
+  </si>
+  <si>
+    <t>CROX</t>
+  </si>
+  <si>
+    <t>CTRE</t>
+  </si>
+  <si>
+    <t>DFIN</t>
+  </si>
+  <si>
+    <t>ECHO</t>
+  </si>
+  <si>
+    <t>EGBN</t>
+  </si>
+  <si>
+    <t>ENSG</t>
+  </si>
+  <si>
+    <t>EXLS</t>
+  </si>
+  <si>
+    <t>FBNC</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>FIZZ</t>
+  </si>
+  <si>
+    <t>FUL</t>
+  </si>
+  <si>
+    <t>GMS</t>
+  </si>
+  <si>
+    <t>GVA</t>
+  </si>
+  <si>
+    <t>ISBC</t>
+  </si>
+  <si>
+    <t>KFY</t>
+  </si>
+  <si>
+    <t>KTB</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>LZB</t>
+  </si>
+  <si>
+    <t>MATW</t>
+  </si>
+  <si>
+    <t>MGLN</t>
+  </si>
+  <si>
+    <t>MYE</t>
+  </si>
+  <si>
+    <t>NSIT</t>
+  </si>
+  <si>
+    <t>NTGR</t>
+  </si>
+  <si>
+    <t>NX</t>
+  </si>
+  <si>
+    <t>NXGN</t>
+  </si>
+  <si>
+    <t>PLXS</t>
+  </si>
+  <si>
+    <t>PUMP</t>
+  </si>
+  <si>
+    <t>RCII</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>SCSC</t>
+  </si>
+  <si>
+    <t>SGH</t>
+  </si>
+  <si>
+    <t>SITC</t>
+  </si>
+  <si>
+    <t>SNBR</t>
+  </si>
+  <si>
+    <t>TSE</t>
+  </si>
+  <si>
+    <t>TTMI</t>
+  </si>
+  <si>
+    <t>USPH</t>
   </si>
   <si>
     <t>VG</t>
   </si>
   <si>
-    <t>OSUR</t>
-  </si>
-  <si>
-    <t>ANIP</t>
-  </si>
-  <si>
-    <t>EGRX</t>
-  </si>
-  <si>
-    <t>INVA</t>
-  </si>
-  <si>
-    <t>ZYXI</t>
-  </si>
-  <si>
-    <t>AMPH</t>
-  </si>
-  <si>
-    <t>HTLD</t>
-  </si>
-  <si>
-    <t>WIRE</t>
-  </si>
-  <si>
-    <t>MTRX</t>
-  </si>
-  <si>
-    <t>HUBG</t>
-  </si>
-  <si>
-    <t>KAMN</t>
-  </si>
-  <si>
-    <t>RGP</t>
-  </si>
-  <si>
-    <t>ECOL</t>
-  </si>
-  <si>
-    <t>HSII</t>
-  </si>
-  <si>
-    <t>DLX</t>
-  </si>
-  <si>
-    <t>PRGS</t>
-  </si>
-  <si>
-    <t>HLIT</t>
-  </si>
-  <si>
-    <t>PLAB</t>
-  </si>
-  <si>
-    <t>UIS</t>
-  </si>
-  <si>
-    <t>XPER</t>
-  </si>
-  <si>
-    <t>MEI</t>
-  </si>
-  <si>
-    <t>CMTL</t>
-  </si>
-  <si>
-    <t>SJI</t>
-  </si>
-  <si>
-    <t>AVA</t>
+    <t>VGR</t>
+  </si>
+  <si>
+    <t>WWW</t>
+  </si>
+  <si>
+    <t>ZUMZ</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Fresh Del Monte Produce Inc</t>
-  </si>
-  <si>
-    <t>Central Garden &amp; Pet Co</t>
-  </si>
-  <si>
-    <t>Horace Mann Educators Corp</t>
-  </si>
-  <si>
-    <t>S&amp;T Bancorp Inc</t>
-  </si>
-  <si>
-    <t>Employers Holdings Inc</t>
-  </si>
-  <si>
-    <t>EZCORP Inc</t>
-  </si>
-  <si>
-    <t>ARMOUR Residential REIT Inc</t>
-  </si>
-  <si>
-    <t>Park National Corp</t>
-  </si>
-  <si>
-    <t>Tompkins Financial Corp</t>
-  </si>
-  <si>
-    <t>Preferred Bank</t>
-  </si>
-  <si>
-    <t>TrustCo Bank Corp N Y</t>
-  </si>
-  <si>
-    <t>Getty Realty Corp</t>
-  </si>
-  <si>
-    <t>Agree Realty Corp</t>
-  </si>
-  <si>
-    <t>Easterly Government Properties Inc</t>
-  </si>
-  <si>
-    <t>American Assets Trust Inc</t>
-  </si>
-  <si>
-    <t>Mercer International Inc</t>
-  </si>
-  <si>
-    <t>Warrior Met Coal Inc</t>
-  </si>
-  <si>
-    <t>Materion Corp</t>
-  </si>
-  <si>
-    <t>Universal Electronics Inc</t>
-  </si>
-  <si>
-    <t>MDC Holdings Inc</t>
-  </si>
-  <si>
-    <t>Perdoceo Education Corp</t>
-  </si>
-  <si>
-    <t>Monro Inc</t>
-  </si>
-  <si>
-    <t>Meritage Homes Corp</t>
-  </si>
-  <si>
-    <t>M/I Homes Inc</t>
-  </si>
-  <si>
-    <t>LGI Homes Inc</t>
-  </si>
-  <si>
-    <t>Sally Beauty Holdings Inc</t>
-  </si>
-  <si>
-    <t>Bonanza Creek Energy Inc</t>
-  </si>
-  <si>
-    <t>Dril-Quip Inc</t>
-  </si>
-  <si>
-    <t>Shenandoah Telecommunications Co</t>
+    <t>Atlas Air Worldwide Holdings Inc</t>
+  </si>
+  <si>
+    <t>Ameris Bancorp</t>
+  </si>
+  <si>
+    <t>Asbury Automotive Group Inc</t>
+  </si>
+  <si>
+    <t>Applied Industrial Technologies Inc</t>
+  </si>
+  <si>
+    <t>ArcBest Corp</t>
+  </si>
+  <si>
+    <t>Avista Corp</t>
+  </si>
+  <si>
+    <t>Axos Financial Inc</t>
+  </si>
+  <si>
+    <t>Brandywine Realty Trust</t>
+  </si>
+  <si>
+    <t>Brightsphere Investment Group Inc</t>
+  </si>
+  <si>
+    <t>Meta Financial Group Inc</t>
+  </si>
+  <si>
+    <t>Cogent Communications Holdings Inc</t>
+  </si>
+  <si>
+    <t>Corcept Therapeutics Inc</t>
+  </si>
+  <si>
+    <t>Chesapeake Utilities Corp</t>
+  </si>
+  <si>
+    <t>Computer Programs and Systems Inc</t>
+  </si>
+  <si>
+    <t>Crocs Inc</t>
+  </si>
+  <si>
+    <t>CareTrust REIT Inc</t>
+  </si>
+  <si>
+    <t>Donnelley Financial Solutions Inc</t>
+  </si>
+  <si>
+    <t>Echo Global Logistics Inc</t>
+  </si>
+  <si>
+    <t>Eagle Bancorp Inc</t>
+  </si>
+  <si>
+    <t>Ensign Group Inc</t>
+  </si>
+  <si>
+    <t>Exlservice Holdings Inc</t>
+  </si>
+  <si>
+    <t>First Bancorp (North Carolina)</t>
+  </si>
+  <si>
+    <t>First Commonwealth Financial Corp</t>
+  </si>
+  <si>
+    <t>National Beverage Corp</t>
+  </si>
+  <si>
+    <t>HB Fuller Co</t>
+  </si>
+  <si>
+    <t>GMS Inc</t>
+  </si>
+  <si>
+    <t>Granite Construction Inc</t>
+  </si>
+  <si>
+    <t>Investors Bancorp Inc</t>
+  </si>
+  <si>
+    <t>Korn Ferry</t>
+  </si>
+  <si>
+    <t>Kontoor Brands Inc</t>
+  </si>
+  <si>
+    <t>Dorian LPG Ltd</t>
+  </si>
+  <si>
+    <t>La-Z-Boy Inc</t>
+  </si>
+  <si>
+    <t>Matthews International Corp</t>
+  </si>
+  <si>
+    <t>Magellan Health Inc</t>
+  </si>
+  <si>
+    <t>Myers Industries Inc</t>
+  </si>
+  <si>
+    <t>Insight Enterprises Inc</t>
+  </si>
+  <si>
+    <t>NETGEAR Inc</t>
+  </si>
+  <si>
+    <t>Quanex Building Products Corp</t>
+  </si>
+  <si>
+    <t>NextGen Healthcare Inc</t>
+  </si>
+  <si>
+    <t>Plexus Corp</t>
+  </si>
+  <si>
+    <t>ProPetro Holding Corp</t>
+  </si>
+  <si>
+    <t>Rent-A-Center Inc</t>
+  </si>
+  <si>
+    <t>Retail Opportunity Investments Corp</t>
+  </si>
+  <si>
+    <t>Scansource Inc</t>
+  </si>
+  <si>
+    <t>Smart Global Holdings Inc</t>
+  </si>
+  <si>
+    <t>Site Centers Corp</t>
+  </si>
+  <si>
+    <t>Sleep Number Corp</t>
+  </si>
+  <si>
+    <t>Trinseo SA</t>
+  </si>
+  <si>
+    <t>TTM Technologies Inc</t>
+  </si>
+  <si>
+    <t>US Physical Therapy Inc</t>
   </si>
   <si>
     <t>Vonage Holdings Corp</t>
   </si>
   <si>
-    <t>OraSure Technologies Inc</t>
-  </si>
-  <si>
-    <t>ANI Pharmaceuticals Inc</t>
-  </si>
-  <si>
-    <t>Eagle Pharmaceuticals Inc</t>
-  </si>
-  <si>
-    <t>Innoviva Inc</t>
-  </si>
-  <si>
-    <t>Zynex Inc</t>
-  </si>
-  <si>
-    <t>Amphastar Pharmaceuticals Inc</t>
-  </si>
-  <si>
-    <t>Heartland Express Inc</t>
-  </si>
-  <si>
-    <t>Encore Wire Corp</t>
-  </si>
-  <si>
-    <t>Matrix Service Co</t>
-  </si>
-  <si>
-    <t>Hub Group Inc</t>
-  </si>
-  <si>
-    <t>Kaman Corp</t>
-  </si>
-  <si>
-    <t>Resources Connection Inc</t>
-  </si>
-  <si>
-    <t>US Ecology Inc</t>
-  </si>
-  <si>
-    <t>Heidrick &amp; Struggles International Inc</t>
-  </si>
-  <si>
-    <t>Deluxe Corp</t>
-  </si>
-  <si>
-    <t>Progress Software Corp</t>
-  </si>
-  <si>
-    <t>Harmonic Inc</t>
-  </si>
-  <si>
-    <t>Photronics Inc</t>
-  </si>
-  <si>
-    <t>Unisys Corp</t>
-  </si>
-  <si>
-    <t>Xperi Holding Corp</t>
-  </si>
-  <si>
-    <t>Methode Electronics Inc</t>
-  </si>
-  <si>
-    <t>Comtech Telecommunications Corp</t>
-  </si>
-  <si>
-    <t>South Jersey Industries Inc</t>
-  </si>
-  <si>
-    <t>Avista Corp</t>
+    <t>Vector Group Ltd</t>
+  </si>
+  <si>
+    <t>Wolverine World Wide Inc</t>
+  </si>
+  <si>
+    <t>Zumiez Inc</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Health Care</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
   </si>
   <si>
     <t>Consumer Staples</t>
   </si>
   <si>
-    <t>Financials</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
     <t>Materials</t>
   </si>
   <si>
-    <t>Consumer Discretionary</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Health Care</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02239181684550792</v>
+        <v>0.01966353217437841</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007222389407162355</v>
+        <v>-0.004039316009155747</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -863,13 +863,13 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01752146913267688</v>
+        <v>0.02016392366232206</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002175632911392444</v>
+        <v>-0.02731092436974769</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -880,13 +880,13 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01816373817525127</v>
+        <v>0.01938765496250682</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01424573899771042</v>
+        <v>-0.01797126782105207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -897,13 +897,13 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02032812324018572</v>
+        <v>0.02061295221446621</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003816793893129944</v>
+        <v>-0.01726263871763245</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -914,13 +914,13 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01928655383960794</v>
+        <v>0.02033336839898023</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01102060373742231</v>
+        <v>-0.04656249999999984</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -931,13 +931,13 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02742234676559972</v>
+        <v>0.007907421044047866</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004065040650406471</v>
+        <v>0.001116071428571397</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01891305205825473</v>
+        <v>0.01994894065268701</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008347245409014992</v>
+        <v>-0.01424501424501434</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,13 +965,13 @@
         <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01950064352046607</v>
+        <v>0.02382816609255495</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0007108443250928298</v>
+        <v>-0.0006666666666667043</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0188776271470336</v>
+        <v>0.02003789913943255</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006853506302778034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01966082572772683</v>
+        <v>0.01997488687798779</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003084606345476137</v>
+        <v>-0.003154574132492205</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1016,13 +1016,13 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01912367625866732</v>
+        <v>0.01334553806117096</v>
       </c>
       <c r="E12" s="1">
-        <v>4.081818181818182</v>
+        <v>0.004629017325750384</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1033,13 +1033,13 @@
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02025958373804048</v>
+        <v>0.0136741902483142</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005815831987076026</v>
+        <v>0.01719330855018586</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1050,13 +1050,13 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01880562216444282</v>
+        <v>0.008338799102790121</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007309731976494316</v>
+        <v>0.003386673440013643</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1067,13 +1067,13 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01747603283350196</v>
+        <v>0.01416557998462289</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004847309743092776</v>
+        <v>0.003588516746411585</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0180204983168354</v>
+        <v>0.02022128776587821</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01527777777777772</v>
+        <v>0.009889582333173275</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1101,13 +1101,13 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01554460506518473</v>
+        <v>0.02313909083014507</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01089918256130806</v>
+        <v>0.01281503630926961</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1118,13 +1118,13 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01694196379150515</v>
+        <v>0.0214093424767596</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.04338734971249325</v>
+        <v>-0.02036340852130325</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1135,13 +1135,13 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01676657197562227</v>
+        <v>0.02010673606369993</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.004041935076417924</v>
+        <v>-0.0315758980301275</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1152,13 +1152,13 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01942209263036705</v>
+        <v>0.01963864497868174</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.007533703409991932</v>
+        <v>-0.01229508196721318</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1169,13 +1169,13 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02022800936064774</v>
+        <v>0.02514789348421446</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.007195477128661754</v>
+        <v>-0.008352225271447411</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1186,13 +1186,13 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0210416271585852</v>
+        <v>0.01657328378957506</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.007328990228013033</v>
+        <v>-0.003163040352726965</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1203,13 +1203,13 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01820821184096911</v>
+        <v>0.02056917899082951</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01126090404440916</v>
+        <v>-0.01946179721287833</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1220,13 +1220,13 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02086604281601091</v>
+        <v>0.01967518150002365</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.006551024174201836</v>
+        <v>-0.01440733464309096</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1237,13 +1237,13 @@
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02164000011551602</v>
+        <v>0.02050510769978064</v>
       </c>
       <c r="E25" s="1">
-        <v>0.003843416370106656</v>
+        <v>-0.01128489408038025</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1254,13 +1254,13 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02060574672921217</v>
+        <v>0.01839534422345242</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01362260343087796</v>
+        <v>-0.002014968336211731</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1271,13 +1271,13 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01924458302087856</v>
+        <v>0.02082546415502499</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003681546249424628</v>
+        <v>-0.03966505068312043</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1288,13 +1288,13 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02751013893688686</v>
+        <v>0.0213553319669498</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.007852193995380952</v>
+        <v>-0.01438135383089501</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1305,13 +1305,13 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01937781149134063</v>
+        <v>0.02044068339886373</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0005961251862889316</v>
+        <v>-0.01063829787234039</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1322,13 +1322,13 @@
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01261935451576168</v>
+        <v>0.02027494526581996</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01051170170567228</v>
+        <v>-0.01524345123575532</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1339,13 +1339,13 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009299039195546473</v>
+        <v>0.0215334254453749</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.00144927536231898</v>
+        <v>-0.02554119296059787</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1356,13 +1356,13 @@
         <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01667223389682687</v>
+        <v>0.02199498584783439</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01233299075025696</v>
+        <v>-0.01242236024844723</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1373,13 +1373,13 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01891613248531744</v>
+        <v>0.01963229080105705</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01387249114521838</v>
+        <v>-0.01449275362318847</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1390,13 +1390,13 @@
         <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01794271753350206</v>
+        <v>0.01994223346519429</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.02221125370187571</v>
+        <v>-0.003850102669404443</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1407,13 +1407,13 @@
         <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0193473922740964</v>
+        <v>0.01993093714941708</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.009572901325478611</v>
+        <v>0.001062699256110688</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1424,13 +1424,13 @@
         <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01809596877987172</v>
+        <v>0.01714039414257786</v>
       </c>
       <c r="E36" s="1">
-        <v>0.003957783641161061</v>
+        <v>-0.01760889712696934</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01866565525978108</v>
+        <v>0.02039796920483116</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.004734350341925375</v>
+        <v>-0.0005711022272987254</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1458,13 +1458,13 @@
         <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0191024983226112</v>
+        <v>0.01941042409899526</v>
       </c>
       <c r="E38" s="1">
-        <v>0.006097560975609762</v>
+        <v>-0.01718634912840644</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1475,13 +1475,13 @@
         <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02539504070495574</v>
+        <v>0.02051975760930421</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.002911208151382794</v>
+        <v>-0.02565028901734101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1492,13 +1492,13 @@
         <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01581722286023429</v>
+        <v>0.01633659067305568</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00832562442183149</v>
+        <v>0.00991831971995305</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1509,13 +1509,13 @@
         <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02146441577294173</v>
+        <v>0.01379844972186353</v>
       </c>
       <c r="E41" s="1">
-        <v>0.001865671641791078</v>
+        <v>-0.04482194023741293</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1526,13 +1526,13 @@
         <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0194898620257466</v>
+        <v>0.01697695057367634</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01013513513513509</v>
+        <v>-0.01463860933211336</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1543,13 +1543,13 @@
         <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01997098622760313</v>
+        <v>0.01965382440300736</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.00205338809034894</v>
+        <v>-0.03282442748091596</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1560,13 +1560,13 @@
         <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01746448123201681</v>
+        <v>0.01282431899101307</v>
       </c>
       <c r="E44" s="1">
-        <v>0.004817444219067157</v>
+        <v>0.005904455179817525</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1577,13 +1577,13 @@
         <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02110573854682779</v>
+        <v>0.01646967539330595</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01847206385404787</v>
+        <v>0.009966777408637828</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1594,13 +1594,13 @@
         <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01930157092153864</v>
+        <v>0.01645378994924425</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0002194426157559048</v>
+        <v>-0.01180004290924697</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1611,13 +1611,13 @@
         <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01839188230458301</v>
+        <v>0.01347473967287282</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02022422510441857</v>
+        <v>0.01155327342747126</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1628,13 +1628,13 @@
         <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01614913887624096</v>
+        <v>0.02097055121078855</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.00286123032904162</v>
+        <v>0.01338271189293838</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01802685169765224</v>
+        <v>0.01977384775814024</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.002210759027266085</v>
+        <v>-0.01562974203338408</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1662,13 +1662,13 @@
         <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01752840009356797</v>
+        <v>0.01793978498874958</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01660735468564667</v>
+        <v>-0.001977587343441001</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1679,13 +1679,13 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01691597268816356</v>
+        <v>0.01905617869641928</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.0004666355576294912</v>
+        <v>-0.00175058352784252</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1696,13 +1696,13 @@
         <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D52" s="1">
-        <v>0.0187752029471986</v>
+        <v>0.006125427230192794</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.007793273174733328</v>
+        <v>-0.01106500691562928</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1713,13 +1713,13 @@
         <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01588691752252803</v>
+        <v>0.0214914172710784</v>
       </c>
       <c r="E53" s="1">
-        <v>0.04202719406674915</v>
+        <v>-0.0006816632583502846</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1730,13 +1730,13 @@
         <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007592290076115428</v>
+        <v>0.01853460661639336</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01407379231647021</v>
+        <v>-0.003590168461750864</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1747,13 +1747,13 @@
         <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006914018542245652</v>
+        <v>0.01995705987965187</v>
       </c>
       <c r="E55" s="1">
-        <v>0.009801737580752867</v>
+        <v>-0.0254271765663141</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.07769183600191387</v>
+        <v>-0.01018874731624253</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01966353217437841</v>
+        <v>0.01978569641532148</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004039316009155747</v>
+        <v>-0.003650128430444766</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02016392366232206</v>
+        <v>0.01981511951395181</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02731092436974769</v>
+        <v>-0.02717782577393812</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01938765496250682</v>
+        <v>0.01923521698821953</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01797126782105207</v>
+        <v>-0.02514184002669939</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>114</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02061295221446621</v>
+        <v>0.02046563747639688</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01726263871763245</v>
+        <v>-0.0171476369719783</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>114</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02033336839898023</v>
+        <v>0.0195861543100649</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.04656249999999984</v>
+        <v>-0.04064241232382837</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>0.007907421044047866</v>
+        <v>0.007997733173152796</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001116071428571397</v>
+        <v>0.008026755852842848</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01994894065268701</v>
+        <v>0.019867189482437</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01424501424501434</v>
+        <v>-0.008464079273327707</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>118</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02382816609255495</v>
+        <v>0.02405739537101547</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0006666666666667043</v>
+        <v>0.0006671114076051143</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02003789913943255</v>
+        <v>0.02024416178852496</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.00179694519317164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01997488687798779</v>
+        <v>0.02011684001627008</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003154574132492205</v>
+        <v>-0.02122114668652253</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01334553806117096</v>
+        <v>0.01354532467854373</v>
       </c>
       <c r="E12" s="1">
-        <v>0.004629017325750384</v>
+        <v>0.01079515534491837</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>120</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0136741902483142</v>
+        <v>0.01405247190584466</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01719330855018586</v>
+        <v>-0.01690269529465505</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008338799102790121</v>
+        <v>0.008453167075588299</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003386673440013643</v>
+        <v>0.00286895620622718</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01416557998462289</v>
+        <v>0.01436275185503721</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003588516746411585</v>
+        <v>0.001191895113230146</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02022128776587821</v>
+        <v>0.020631476759586</v>
       </c>
       <c r="E16" s="1">
-        <v>0.009889582333173275</v>
+        <v>-0.006084806997528003</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02313909083014507</v>
+        <v>0.02367685662872989</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01281503630926961</v>
+        <v>0.008857022353437438</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>115</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0214093424767596</v>
+        <v>0.02118926738089307</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02036340852130325</v>
+        <v>0.002558362647905321</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02010673606369993</v>
+        <v>0.01967228374423731</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0315758980301275</v>
+        <v>-0.02064014358360755</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>115</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01963864497868174</v>
+        <v>0.01959685361865774</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01229508196721318</v>
+        <v>-0.00847164591977867</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02514789348421446</v>
+        <v>0.02519455355262518</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008352225271447411</v>
+        <v>0.003729996390326118</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>121</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01657328378957506</v>
+        <v>0.01669092140484062</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.003163040352726965</v>
+        <v>-0.005384615384615321</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02056917899082951</v>
+        <v>0.02037647657145649</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01946179721287833</v>
+        <v>0.02058319039451106</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>115</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01967518150002365</v>
+        <v>0.01959132564255144</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01440733464309096</v>
+        <v>-0.02325581395348852</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>122</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02050510769978064</v>
+        <v>0.02048239972652567</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01128489408038025</v>
+        <v>-0.02322787344813759</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>123</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01839534422345242</v>
+        <v>0.0185472514456995</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.002014968336211731</v>
+        <v>-0.006489760599942551</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>114</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02082546415502499</v>
+        <v>0.02020528763397095</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.03966505068312043</v>
+        <v>-0.02937127122533267</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>114</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0213553319669498</v>
+        <v>0.02126487582828252</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01438135383089501</v>
+        <v>-0.01962264150943405</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>115</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02044068339886373</v>
+        <v>0.02043139968889977</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01063829787234039</v>
+        <v>-0.01881720430107525</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>114</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02027494526581996</v>
+        <v>0.0201714064900936</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01524345123575532</v>
+        <v>-0.01187255785993391</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0215334254453749</v>
+        <v>0.02119943172405627</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02554119296059787</v>
+        <v>-0.01470353204411057</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>124</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02199498584783439</v>
+        <v>0.02194535185478756</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01242236024844723</v>
+        <v>0.005590496156533842</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>116</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01963229080105705</v>
+        <v>0.01954692351189112</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01449275362318847</v>
+        <v>0.00759013282732468</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01994223346519429</v>
+        <v>0.02006994138027144</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.003850102669404443</v>
+        <v>-0.008502963153826482</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>120</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01993093714941708</v>
+        <v>0.0201574973889229</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001062699256110688</v>
+        <v>0.001167728237791765</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>123</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01714039414257786</v>
+        <v>0.01701190066262602</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01760889712696934</v>
+        <v>0.001415094339622724</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02039796920483116</v>
+        <v>0.02059616904122961</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0005711022272987254</v>
+        <v>0.004571428571428449</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>121</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01941042409899526</v>
+        <v>0.01927319953372413</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01718634912840644</v>
+        <v>-0.002498126405196199</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>114</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02051975760930421</v>
+        <v>0.020199224692435</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.02565028901734101</v>
+        <v>-0.02447163515016693</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>120</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01633659067305568</v>
+        <v>0.01666845285679564</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00991831971995305</v>
+        <v>-0.006354708261120723</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>121</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01379844972186353</v>
+        <v>0.01331564618741729</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.04482194023741293</v>
+        <v>-0.0228197985858154</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>124</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01697695057367634</v>
+        <v>0.01690062785326041</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01463860933211336</v>
+        <v>-0.01671309192200565</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>116</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01965382440300736</v>
+        <v>0.01920436731511016</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.03282442748091596</v>
+        <v>-0.02683504340962917</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>118</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01282431899101307</v>
+        <v>0.01303282779694638</v>
       </c>
       <c r="E44" s="1">
-        <v>0.005904455179817525</v>
+        <v>-0.006937033084311595</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>121</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01646967539330595</v>
+        <v>0.01680504736316431</v>
       </c>
       <c r="E45" s="1">
-        <v>0.009966777408637828</v>
+        <v>0.01315789473684226</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>121</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01645378994924425</v>
+        <v>0.01642700512621707</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01180004290924697</v>
+        <v>-0.001085540599218504</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>118</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01347473967287282</v>
+        <v>0.01377072344623303</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01155327342747126</v>
+        <v>-0.003172588832487166</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>116</v>
       </c>
       <c r="D48" s="1">
-        <v>0.02097055121078855</v>
+        <v>0.02146994590964541</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01338271189293838</v>
+        <v>-0.04709302325581399</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01977384775814024</v>
+        <v>0.01966515087184208</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01562974203338408</v>
+        <v>-0.01510713735162617</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>121</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01793978498874958</v>
+        <v>0.01808860775068614</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.001977587343441001</v>
+        <v>-0.003302509907529783</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>120</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01905617869641928</v>
+        <v>0.01921863305990062</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.00175058352784252</v>
+        <v>-0.01519832985386216</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>121</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006125427230192794</v>
+        <v>0.006120004515108228</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01106500691562928</v>
+        <v>0.02027972027972003</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>122</v>
       </c>
       <c r="D53" s="1">
-        <v>0.0214914172710784</v>
+        <v>0.02169784118267304</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.0006816632583502846</v>
+        <v>-0.01023192360163716</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>116</v>
       </c>
       <c r="D54" s="1">
-        <v>0.01853460661639336</v>
+        <v>0.01865816761144534</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.003590168461750864</v>
+        <v>0.006097560975609539</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>116</v>
       </c>
       <c r="D55" s="1">
-        <v>0.01995705987965187</v>
+        <v>0.01964981519619233</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.0254271765663141</v>
+        <v>-0.03068252974326857</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01018874731624253</v>
+        <v>-0.009463716772182384</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01978569641532148</v>
+        <v>0.01981813486156674</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003650128430444766</v>
+        <v>-0.01603125420988816</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01981511951395181</v>
+        <v>0.01931887698481705</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02717782577393812</v>
+        <v>-0.009765984890363177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01923521698821953</v>
+        <v>0.01891733482084296</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02514184002669939</v>
+        <v>-0.03183922321327759</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>114</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02046563747639688</v>
+        <v>0.02014545580108285</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0171476369719783</v>
+        <v>-0.007103477523324631</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>114</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0195861543100649</v>
+        <v>0.01925480110758714</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.04064241232382837</v>
+        <v>-0.01830282861896837</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>0.007997733173152796</v>
+        <v>0.008000585226345367</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008026755852842848</v>
+        <v>-0.0002224694104561165</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.019867189482437</v>
+        <v>0.01984643504067661</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008464079273327707</v>
+        <v>-0.02000825082508251</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>118</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02405739537101547</v>
+        <v>0.02396437808398532</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0006671114076051143</v>
+        <v>-0.002005347593582951</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02024416178852496</v>
+        <v>0.02063296643367373</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00179694519317164</v>
+        <v>-0.01891772987241536</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02011684001627008</v>
+        <v>0.01935038095778842</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02122114668652253</v>
+        <v>0.01757774773034559</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01354532467854373</v>
+        <v>0.01365528139188469</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01079515534491837</v>
+        <v>0.02150677789363931</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>120</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01405247190584466</v>
+        <v>0.01379553636759904</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01690269529465505</v>
+        <v>0.002322340919646892</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008453167075588299</v>
+        <v>0.008582607777850358</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00286895620622718</v>
+        <v>-0.00240564081294059</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01436275185503721</v>
+        <v>0.01444697445276976</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001191895113230146</v>
+        <v>0.001478415138970846</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.020631476759586</v>
+        <v>0.02127034342356344</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.006084806997528003</v>
+        <v>0.0362665684830632</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02367685662872989</v>
+        <v>0.02367247686549353</v>
       </c>
       <c r="E17" s="1">
-        <v>0.008857022353437438</v>
+        <v>0.009263157894736862</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>115</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02118926738089307</v>
+        <v>0.02162988029024237</v>
       </c>
       <c r="E18" s="1">
-        <v>0.002558362647905321</v>
+        <v>-0.006879299562226326</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01967228374423731</v>
+        <v>0.0193477111295705</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.02064014358360755</v>
+        <v>-0.01032179720704318</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>115</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01959685361865774</v>
+        <v>0.0195805201501725</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.00847164591977867</v>
+        <v>-0.01381692573402404</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02519455355262518</v>
+        <v>0.02551661620987982</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003729996390326118</v>
+        <v>-0.002253053480374523</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>121</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01669092140484062</v>
+        <v>0.01684554812374262</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.005384615384615321</v>
+        <v>0.01388360593381521</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02037647657145649</v>
+        <v>0.02111086568468012</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02058319039451106</v>
+        <v>-0.01392823418319145</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>115</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01959132564255144</v>
+        <v>0.0190999510709482</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02325581395348852</v>
+        <v>-0.008163265306122436</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>122</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02048239972652567</v>
+        <v>0.02020259012494618</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02322787344813759</v>
+        <v>-0.008308004052684947</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>123</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0185472514456995</v>
+        <v>0.01843783367290582</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.006489760599942551</v>
+        <v>-0.01766579785693612</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>114</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02020528763397095</v>
+        <v>0.01991763045982096</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02937127122533267</v>
+        <v>-0.01835501858736055</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>114</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02126487582828252</v>
+        <v>0.02131590849181583</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01962264150943405</v>
+        <v>-0.01102204408817653</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>115</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02043139968889977</v>
+        <v>0.02011911349599944</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01881720430107525</v>
+        <v>-0.01021798365122617</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>114</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0201714064900936</v>
+        <v>0.01997031506998777</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01187255785993391</v>
+        <v>0.008333333333333304</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02119943172405627</v>
+        <v>0.02164678920228915</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01470353204411057</v>
+        <v>-0.02905795969379799</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>124</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02194535185478756</v>
+        <v>0.02251661923568514</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005590496156533842</v>
+        <v>-0.005438477226376692</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>116</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01954692351189112</v>
+        <v>0.01995465207777601</v>
       </c>
       <c r="E33" s="1">
-        <v>0.00759013282732468</v>
+        <v>-0.01461038961038952</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02006994138027144</v>
+        <v>0.02007888808418289</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.008502963153826482</v>
+        <v>-0.02210796915167079</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>120</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0201574973889229</v>
+        <v>0.02013050476306254</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001167728237791765</v>
+        <v>0.000212201591512029</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>123</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01701190066262602</v>
+        <v>0.01710825922038524</v>
       </c>
       <c r="E36" s="1">
-        <v>0.001415094339622724</v>
+        <v>-0.01685393258426959</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02059616904122961</v>
+        <v>0.02090030523256073</v>
       </c>
       <c r="E37" s="1">
-        <v>0.004571428571428449</v>
+        <v>-0.01039812646370031</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>121</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01927319953372413</v>
+        <v>0.01969852655740425</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.002498126405196199</v>
+        <v>0.01268602098072691</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>114</v>
       </c>
       <c r="D39" s="1">
-        <v>0.020199224692435</v>
+        <v>0.01981760089592316</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.02447163515016693</v>
+        <v>-0.01923802338740099</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>120</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01666845285679564</v>
+        <v>0.01688719744394206</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.006354708261120723</v>
+        <v>0.00512236767216856</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>121</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01331564618741729</v>
+        <v>0.01307859849681552</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.0228197985858154</v>
+        <v>-0.009363091997822481</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>124</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01690062785326041</v>
+        <v>0.0168533796198485</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01671309192200565</v>
+        <v>0.01394052044609673</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>116</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01920436731511016</v>
+        <v>0.01924109598940185</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.02683504340962917</v>
+        <v>-0.02170152539707504</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>118</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01303282779694638</v>
+        <v>0.01291823081519289</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.006937033084311595</v>
+        <v>-0.0005373455131647553</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>121</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01680504736316431</v>
+        <v>0.01692813480995006</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01315789473684226</v>
+        <v>-0.04889178617992174</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>121</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01642700512621707</v>
+        <v>0.01689467296295222</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.001085540599218504</v>
+        <v>0.01327433628318597</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>118</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01377072344623303</v>
+        <v>0.01369265898693546</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.003172588832487166</v>
+        <v>-0.002547770700636831</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>116</v>
       </c>
       <c r="D48" s="1">
-        <v>0.02146994590964541</v>
+        <v>0.0209777302508802</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.04709302325581399</v>
+        <v>-0.01637536059731859</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01966515087184208</v>
+        <v>0.01928345726379273</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01510713735162617</v>
+        <v>-0.02086929232700441</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>121</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01808860775068614</v>
+        <v>0.01800710138708255</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.003302509907529783</v>
+        <v>-0.008609271523178696</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>120</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01921863305990062</v>
+        <v>0.01929004284006359</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01519832985386216</v>
+        <v>-0.01013120744062446</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>121</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006120004515108228</v>
+        <v>0.006287979418828235</v>
       </c>
       <c r="E52" s="1">
-        <v>0.02027972027972003</v>
+        <v>-0.007472826086956652</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>122</v>
       </c>
       <c r="D53" s="1">
-        <v>0.02169784118267304</v>
+        <v>0.02150956003188843</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01023192360163716</v>
+        <v>-0.008928571428571397</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>116</v>
       </c>
       <c r="D54" s="1">
-        <v>0.01865816761144534</v>
+        <v>0.01931496123676411</v>
       </c>
       <c r="E54" s="1">
-        <v>0.006097560975609539</v>
+        <v>-0.0323356493853556</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>116</v>
       </c>
       <c r="D55" s="1">
-        <v>0.01964981519619233</v>
+        <v>0.01921599960415347</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.03068252974326857</v>
+        <v>-0.01981252662973998</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.009463716772182384</v>
+        <v>-0.008134254625788651</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01981813486156674</v>
+        <v>0.01875144474426175</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01603125420988816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01931887698481705</v>
+        <v>0.01832774683262376</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.009765984890363177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01891733482084296</v>
+        <v>0.01961196395418138</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.03183922321327759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>114</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02014545580108285</v>
+        <v>0.01986955728630111</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007103477523324631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>114</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01925480110758714</v>
+        <v>0.01955234628342878</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01830282861896837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>0.008000585226345367</v>
+        <v>0.007984643387903501</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0002224694104561165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01984643504067661</v>
+        <v>0.01954615954401106</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02000825082508251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>118</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02396437808398532</v>
+        <v>0.02313278111372183</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002005347593582951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02063296643367373</v>
+        <v>0.02293761760663549</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01891772987241536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01935038095778842</v>
+        <v>0.01965358383753697</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01757774773034559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01365528139188469</v>
+        <v>0.01423137543028304</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02150677789363931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>120</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01379553636759904</v>
+        <v>0.01489541879445196</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002322340919646892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008582607777850358</v>
+        <v>0.008997393882889523</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00240564081294059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01444697445276976</v>
+        <v>0.01482117792143928</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001478415138970846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02127034342356344</v>
+        <v>0.02343330666786152</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0362665684830632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02367247686549353</v>
+        <v>0.02516540622787186</v>
       </c>
       <c r="E17" s="1">
-        <v>0.009263157894736862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>115</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02162988029024237</v>
+        <v>0.02298954872235395</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.006879299562226326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0193477111295705</v>
+        <v>0.01781162278362404</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01032179720704318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>115</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0195805201501725</v>
+        <v>0.01986205820821903</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01381692573402404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02551661620987982</v>
+        <v>0.02805930045974973</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.002253053480374523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>121</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01684554812374262</v>
+        <v>0.01793423271026618</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01388360593381521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02111086568468012</v>
+        <v>0.02076119767026141</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01392823418319145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>115</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0190999510709482</v>
+        <v>0.01855796852974387</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008163265306122436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>122</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02020259012494618</v>
+        <v>0.01981350167763751</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.008308004052684947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>123</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01843783367290582</v>
+        <v>0.01781499736876098</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01766579785693612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>114</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01991763045982096</v>
+        <v>0.02288043713625956</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01835501858736055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>114</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02131590849181583</v>
+        <v>0.02233412929797943</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01102204408817653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>115</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02011911349599944</v>
+        <v>0.01979137939729535</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01021798365122617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>114</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01997031506998777</v>
+        <v>0.02146517362521745</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008333333333333304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02164678920228915</v>
+        <v>0.02025744710009713</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02905795969379799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>124</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02251661923568514</v>
+        <v>0.02133075265059602</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.005438477226376692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>116</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01995465207777601</v>
+        <v>0.01784030675728803</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01461038961038952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02007888808418289</v>
+        <v>0.01851241163039519</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.02210796915167079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>120</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02013050476306254</v>
+        <v>0.02123063995820014</v>
       </c>
       <c r="E35" s="1">
-        <v>0.000212201591512029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>123</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01710825922038524</v>
+        <v>0.01749722393503248</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01685393258426959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02090030523256073</v>
+        <v>0.02035024819136298</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01039812646370031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>121</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01969852655740425</v>
+        <v>0.01883524694182909</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01268602098072691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>114</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01981760089592316</v>
+        <v>0.01866145580727669</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01923802338740099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>120</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01688719744394206</v>
+        <v>0.01711927039969524</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00512236767216856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>121</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01307859849681552</v>
+        <v>0.01326136968036492</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.009363091997822481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>124</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0168533796198485</v>
+        <v>0.01468319488472886</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01394052044609673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>116</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01924109598940185</v>
+        <v>0.01667813713151639</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.02170152539707504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>118</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01291823081519289</v>
+        <v>0.0128903527922536</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.0005373455131647553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>121</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01692813480995006</v>
+        <v>0.01547097303725223</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.04889178617992174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>121</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01689467296295222</v>
+        <v>0.0178290581401649</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01327433628318597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>118</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01369265898693546</v>
+        <v>0.0137611832345361</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.002547770700636831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>116</v>
       </c>
       <c r="D48" s="1">
-        <v>0.0209777302508802</v>
+        <v>0.02032812591102082</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01637536059731859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01928345726379273</v>
+        <v>0.01800716124461449</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.02086929232700441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>121</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01800710138708255</v>
+        <v>0.01784911817403448</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.008609271523178696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>120</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01929004284006359</v>
+        <v>0.019456170607026</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01013120744062446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>121</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006287979418828235</v>
+        <v>0.006546695165663073</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.007472826086956652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>122</v>
       </c>
       <c r="D53" s="1">
-        <v>0.02150956003188843</v>
+        <v>0.02148917067508013</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.008928571428571397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>116</v>
       </c>
       <c r="D54" s="1">
-        <v>0.01931496123676411</v>
+        <v>0.01788173916369156</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0323356493853556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>116</v>
       </c>
       <c r="D55" s="1">
-        <v>0.01921599960415347</v>
+        <v>0.02124507568350816</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01981252662973998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.008134254625788651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -852,7 +852,7 @@
         <v>0.01875144474426175</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.007198560287942413</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -869,7 +869,7 @@
         <v>0.01832774683262376</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.009819967266775809</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -886,7 +886,7 @@
         <v>0.01961196395418138</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.01244622885001445</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -903,7 +903,7 @@
         <v>0.01986955728630111</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.007472826086956541</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -920,7 +920,7 @@
         <v>0.01955234628342878</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.02916810493614097</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -937,7 +937,7 @@
         <v>0.007984643387903501</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.002347969006808892</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -954,7 +954,7 @@
         <v>0.01954615954401106</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.002867857930730189</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -971,7 +971,7 @@
         <v>0.02313278111372183</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>-0.01167031363967919</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -988,7 +988,7 @@
         <v>0.02293761760663549</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.007919966652772059</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1005,7 +1005,7 @@
         <v>0.01965358383753697</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>-0.004807692307692291</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1022,7 +1022,7 @@
         <v>0.01423137543028304</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-0.00474245817415353</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1039,7 +1039,7 @@
         <v>0.01489541879445196</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.01268690530131411</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1056,7 +1056,7 @@
         <v>0.008997393882889523</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>-0.003250541756959491</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1073,7 +1073,7 @@
         <v>0.01482117792143928</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>-0.01153612629022449</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1090,7 +1090,7 @@
         <v>0.02343330666786152</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>-0.007216404118630448</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1107,7 +1107,7 @@
         <v>0.02516540622787186</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>-0.01293283270755108</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1124,7 +1124,7 @@
         <v>0.02298954872235395</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>0.007437248218159054</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1141,7 +1141,7 @@
         <v>0.01781162278362404</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.009725599166377386</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1158,7 +1158,7 @@
         <v>0.01986205820821903</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>-0.009146341463414642</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1175,7 +1175,7 @@
         <v>0.02805930045974973</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.006928668786915226</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1192,7 +1192,7 @@
         <v>0.01793423271026618</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.01110170288832446</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1209,7 +1209,7 @@
         <v>0.02076119767026141</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>-0.01365360303413388</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1226,7 +1226,7 @@
         <v>0.01855796852974387</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>0.006637168141592875</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1243,7 +1243,7 @@
         <v>0.01981350167763751</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>-0.02350380848748657</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1260,7 +1260,7 @@
         <v>0.01781499736876098</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.01815311760063132</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1277,7 +1277,7 @@
         <v>0.02288043713625956</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>-0.004899872177247522</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1294,7 +1294,7 @@
         <v>0.02233412929797943</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>-0.00352556031226392</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1311,7 +1311,7 @@
         <v>0.01979137939729535</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>-0.002188183807440014</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1328,7 +1328,7 @@
         <v>0.02146517362521745</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>0.006236080178173786</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1345,7 +1345,7 @@
         <v>0.02025744710009713</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>-0.01617724635132756</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1362,7 +1362,7 @@
         <v>0.02133075265059602</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>-0.01814058956916087</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1379,7 +1379,7 @@
         <v>0.01784030675728803</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>-0.01092896174863389</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1396,7 +1396,7 @@
         <v>0.01851241163039519</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>0.004111600587371589</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1430,7 +1430,7 @@
         <v>0.01749722393503248</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>0.012536162005786</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1447,7 +1447,7 @@
         <v>0.02035024819136298</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>0.002026753141467275</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1464,7 +1464,7 @@
         <v>0.01883524694182909</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>0.002687449610319748</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1481,7 +1481,7 @@
         <v>0.01866145580727669</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>-0.002109704641350185</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1498,7 +1498,7 @@
         <v>0.01711927039969524</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>-0.01478415138971023</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1515,7 +1515,7 @@
         <v>0.01326136968036492</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>-0.0002261931689662156</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1532,7 +1532,7 @@
         <v>0.01468319488472886</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>-0.0561797752808989</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1549,7 +1549,7 @@
         <v>0.01667813713151639</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>-0.004204089432447988</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1566,7 +1566,7 @@
         <v>0.0128903527922536</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>-0.009642654566080378</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1583,7 +1583,7 @@
         <v>0.01547097303725223</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>-0.01878287002253942</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1600,7 +1600,7 @@
         <v>0.0178290581401649</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>0.1781282860147215</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1617,7 +1617,7 @@
         <v>0.0137611832345361</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>-0.013351134846462</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1634,7 +1634,7 @@
         <v>0.02032812591102082</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>-0.006271327123489989</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1651,7 +1651,7 @@
         <v>0.01800716124461449</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>0.006725663716814267</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1668,7 +1668,7 @@
         <v>0.01784911817403448</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>-0.008444757213230236</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1685,7 +1685,7 @@
         <v>0.019456170607026</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>-0.02575665597086108</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1702,7 +1702,7 @@
         <v>0.006546695165663073</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>-0.01030927835051554</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1719,7 +1719,7 @@
         <v>0.02148917067508013</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>-0.01303403330919628</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1736,7 +1736,7 @@
         <v>0.01788173916369156</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>-0.01885071450288844</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1753,7 +1753,7 @@
         <v>0.02124507568350816</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>-0.03389486502942973</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>-0.001078742382108255</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01875144474426175</v>
+        <v>0.01863656539172915</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007198560287942413</v>
+        <v>-0.007854984894259731</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01832774683262376</v>
+        <v>0.01816736686726467</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.009819967266775809</v>
+        <v>-0.01570247933884306</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01961196395418138</v>
+        <v>0.01987750164923281</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01244622885001445</v>
+        <v>0.005268524813051956</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>114</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01986955728630111</v>
+        <v>0.02003965665928773</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007472826086956541</v>
+        <v>-0.02000449539222293</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>114</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01955234628342878</v>
+        <v>0.02014438176994821</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02916810493614097</v>
+        <v>-0.02163340600368946</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>0.007984643387903501</v>
+        <v>0.008012034003755464</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002347969006808892</v>
+        <v>-0.01171234481143124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01954615954401106</v>
+        <v>0.01962338372838285</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002867857930730189</v>
+        <v>-0.01451825780906302</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>118</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02313278111372183</v>
+        <v>0.02288750402337734</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01167031363967919</v>
+        <v>0.002952029520295163</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02293761760663549</v>
+        <v>0.02314424945596431</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007919966652772059</v>
+        <v>-0.02067824648469807</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01965358383753697</v>
+        <v>0.01958021746413212</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.004807692307692291</v>
+        <v>-0.03180354267310781</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01423137543028304</v>
+        <v>0.01417917940931659</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00474245817415353</v>
+        <v>-0.0003970880211781047</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>120</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01489541879445196</v>
+        <v>0.01510068531136483</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01268690530131411</v>
+        <v>-0.02326621923937378</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008997393882889523</v>
+        <v>0.00897783224651315</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003250541756959491</v>
+        <v>-0.00886361735931096</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01482117792143928</v>
+        <v>0.01466601979830094</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01153612629022449</v>
+        <v>-0.03194103194103204</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02343330666786152</v>
+        <v>0.02328932563972873</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.007216404118630448</v>
+        <v>0.005673255917028497</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02516540622787186</v>
+        <v>0.02486677107897831</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01293283270755108</v>
+        <v>-0.01648351648351665</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>115</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02298954872235395</v>
+        <v>0.02318553892611718</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007437248218159054</v>
+        <v>-0.02214703168255916</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01781162278362404</v>
+        <v>0.01800427346016082</v>
       </c>
       <c r="E19" s="1">
-        <v>0.009725599166377386</v>
+        <v>-0.03577571379428968</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>115</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01986205820821903</v>
+        <v>0.01970164604226353</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.009146341463414642</v>
+        <v>-0.01755656108597292</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02805930045974973</v>
+        <v>0.0282842254517678</v>
       </c>
       <c r="E21" s="1">
-        <v>0.006928668786915226</v>
+        <v>-0.01635645798082352</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>121</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01793423271026618</v>
+        <v>0.01815291555271117</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01110170288832446</v>
+        <v>-0.004001116590676479</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02076119767026141</v>
+        <v>0.0204998465720825</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01365360303413388</v>
+        <v>-0.02819789797487815</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>115</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01855796852974387</v>
+        <v>0.01870131478810525</v>
       </c>
       <c r="E24" s="1">
-        <v>0.006637168141592875</v>
+        <v>-0.02051282051282055</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>122</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01981350167763751</v>
+        <v>0.01936870276930353</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02350380848748657</v>
+        <v>0.01181190104747043</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>123</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01781499736876098</v>
+        <v>0.01815798289677538</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01815311760063132</v>
+        <v>-0.01534883720930236</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>114</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02288043713625956</v>
+        <v>0.02279291360084531</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.004899872177247522</v>
+        <v>-0.02718903874973233</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>114</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02233412929797943</v>
+        <v>0.02227942273567138</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.00352556031226392</v>
+        <v>-0.01415213545615357</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>115</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01979137939729535</v>
+        <v>0.01976939830919619</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002188183807440014</v>
+        <v>-0.02412280701754377</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>114</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02146517362521745</v>
+        <v>0.02162235712201132</v>
       </c>
       <c r="E30" s="1">
-        <v>0.006236080178173786</v>
+        <v>-0.01239486498450615</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02025744710009713</v>
+        <v>0.01995125965727863</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01617724635132756</v>
+        <v>-0.01179624664879353</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>124</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02133075265059602</v>
+        <v>0.02096641758480998</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01814058956916087</v>
+        <v>-0.02155504234026162</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>116</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01784030675728803</v>
+        <v>0.01766438604903875</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01092896174863389</v>
+        <v>-0.01823204419889513</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01851241163039519</v>
+        <v>0.01860860115967107</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004111600587371589</v>
+        <v>-0.01140684410646398</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>120</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02123063995820014</v>
+        <v>0.02125356708178224</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>-0.0008477270318957286</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>123</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01749722393503248</v>
+        <v>0.01773570422475735</v>
       </c>
       <c r="E36" s="1">
-        <v>0.012536162005786</v>
+        <v>-0.01190476190476186</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02035024819136298</v>
+        <v>0.02041351404358103</v>
       </c>
       <c r="E37" s="1">
-        <v>0.002026753141467275</v>
+        <v>-0.01072006472491893</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>121</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01883524694182909</v>
+        <v>0.01890626070359134</v>
       </c>
       <c r="E38" s="1">
-        <v>0.002687449610319748</v>
+        <v>0.006432591798445353</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>114</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01866145580727669</v>
+        <v>0.01864219577402273</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.002109704641350185</v>
+        <v>-0.005919661733615134</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>120</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01711927039969524</v>
+        <v>0.016884390421969</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01478415138971023</v>
+        <v>-0.01980792316926772</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>121</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01326136968036492</v>
+        <v>0.01327268786005122</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.0002261931689662156</v>
+        <v>-0.008936651583710487</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>124</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01468319488472886</v>
+        <v>0.01387326197136575</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.0561797752808989</v>
+        <v>0.0345238095238094</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>116</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01667813713151639</v>
+        <v>0.01662595587469396</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.004204089432447988</v>
+        <v>-0.01535213970447136</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>118</v>
       </c>
       <c r="D44" s="1">
-        <v>0.0128903527922536</v>
+        <v>0.01277984172995373</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.009642654566080378</v>
+        <v>-0.009736540664375903</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>121</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01547097303725223</v>
+        <v>0.01519677716917516</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01878287002253942</v>
+        <v>-0.01952526799387455</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>121</v>
       </c>
       <c r="D46" s="1">
-        <v>0.0178290581401649</v>
+        <v>0.02102760107240015</v>
       </c>
       <c r="E46" s="1">
-        <v>0.1781282860147215</v>
+        <v>-0.04837558014994647</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>118</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0137611832345361</v>
+        <v>0.01359211821550663</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.013351134846462</v>
+        <v>-0.01691474966170503</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>116</v>
       </c>
       <c r="D48" s="1">
-        <v>0.02032812591102082</v>
+        <v>0.0202224564044191</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.006271327123489989</v>
+        <v>-0.03136890951276095</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01800716124461449</v>
+        <v>0.01814784820864695</v>
       </c>
       <c r="E49" s="1">
-        <v>0.006725663716814267</v>
+        <v>-0.0135372714486639</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>121</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01784911817403448</v>
+        <v>0.01771749932200813</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.008444757213230236</v>
+        <v>-0.002129169623846683</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>120</v>
       </c>
       <c r="D51" s="1">
-        <v>0.019456170607026</v>
+        <v>0.0189755144058023</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02575665597086108</v>
+        <v>-0.00382766601388651</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>121</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006546695165663073</v>
+        <v>0.006486200402196975</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01030927835051554</v>
+        <v>-0.01458333333333339</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>122</v>
       </c>
       <c r="D53" s="1">
-        <v>0.02148917067508013</v>
+        <v>0.02123198394965687</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01303403330919628</v>
+        <v>-0.00440205429200291</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>116</v>
       </c>
       <c r="D54" s="1">
-        <v>0.01788173916369156</v>
+        <v>0.01756360220598378</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.01885071450288844</v>
+        <v>-0.01084598698481565</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>116</v>
       </c>
       <c r="D55" s="1">
-        <v>0.02124507568350816</v>
+        <v>0.02054714178334852</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.03389486502942973</v>
+        <v>-0.007773109243697451</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.001078742382108255</v>
+        <v>-0.01357372563334791</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01863656539172915</v>
+        <v>0.01874460964046005</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007854984894259731</v>
+        <v>0.03197320341047494</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01816736686726467</v>
+        <v>0.0181281608459504</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01570247933884306</v>
+        <v>0.04617968094038627</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01987750164923281</v>
+        <v>0.02025719233069205</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005268524813051956</v>
+        <v>0.0263736263736265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>114</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02003965665928773</v>
+        <v>0.01990901291897828</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02000449539222293</v>
+        <v>0.02614678899082556</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>114</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02014438176994821</v>
+        <v>0.01997979037316272</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02163340600368946</v>
+        <v>0.03599588618443605</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>0.008012034003755464</v>
+        <v>0.008027152666778415</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01171234481143124</v>
+        <v>0.008058781701825168</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01962338372838285</v>
+        <v>0.01960459376119573</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01451825780906302</v>
+        <v>0.02477678571428577</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>118</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02288750402337734</v>
+        <v>0.02327094199273922</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002952029520295163</v>
+        <v>0.0264900662251657</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02314424945596431</v>
+        <v>0.0229775580294263</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02067824648469807</v>
+        <v>0.02027027027027017</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01958021746413212</v>
+        <v>0.01921836195475913</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.03180354267310781</v>
+        <v>0.05280665280665287</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01417917940931659</v>
+        <v>0.014368584247336</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0003970880211781047</v>
+        <v>0.006091101694915446</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>120</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01510068531136483</v>
+        <v>0.01495230798238402</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02326621923937378</v>
+        <v>0.009619789280806312</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.00897783224651315</v>
+        <v>0.009020700692991188</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00886361735931096</v>
+        <v>0.003712140386399998</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01466601979830094</v>
+        <v>0.0143929377799586</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.03194103194103204</v>
+        <v>0.009835025380710682</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02328932563972873</v>
+        <v>0.02374374299717024</v>
       </c>
       <c r="E16" s="1">
-        <v>0.005673255917028497</v>
+        <v>0.03129131776112826</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02486677107897831</v>
+        <v>0.02479341830559917</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01648351648351665</v>
+        <v>0.0201976794155565</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>115</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02318553892611718</v>
+        <v>0.02298402693652918</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02214703168255916</v>
+        <v>0.03208556149732633</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01800427346016082</v>
+        <v>0.01759904229732962</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.03577571379428968</v>
+        <v>0.02497324295397796</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>115</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01970164604226353</v>
+        <v>0.01962209786276823</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01755656108597292</v>
+        <v>0.0373986735445837</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0282842254517678</v>
+        <v>0.02820443496855255</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01635645798082352</v>
+        <v>0.003669724770642091</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>121</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01815291555271117</v>
+        <v>0.01832907749008688</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.004001116590676479</v>
+        <v>0.007006726457399193</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0204998465720825</v>
+        <v>0.02019592797518832</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02819789797487815</v>
+        <v>0.04299657082563946</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>115</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01870131478810525</v>
+        <v>0.0185697588867087</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02051282051282055</v>
+        <v>0.03814510097232615</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>122</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01936870276930353</v>
+        <v>0.01986715528478317</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01181190104747043</v>
+        <v>-0.006607929515418554</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>123</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01815798289677538</v>
+        <v>0.01812530691634619</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01534883720930236</v>
+        <v>0.01684774051330495</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>114</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02279291360084531</v>
+        <v>0.02247831061066293</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02718903874973233</v>
+        <v>0.0255281690140845</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>114</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02227942273567138</v>
+        <v>0.02226635877205684</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01415213545615357</v>
+        <v>0.01999487310945924</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>115</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01976939830919619</v>
+        <v>0.01955797957766028</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02412280701754377</v>
+        <v>0.02621722846441932</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>114</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02162235712201132</v>
+        <v>0.02164819761978466</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01239486498450615</v>
+        <v>0.03122665471387998</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01995125965727863</v>
+        <v>0.01998721059013366</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01179624664879353</v>
+        <v>0.05462108880448557</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>124</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02096641758480998</v>
+        <v>0.02079677528786162</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02155504234026162</v>
+        <v>0.007081038552320784</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>116</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01766438604903875</v>
+        <v>0.01758096740983628</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01823204419889513</v>
+        <v>0.02054023635340485</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01860860115967107</v>
+        <v>0.018649478653653</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01140684410646398</v>
+        <v>0.02396449704142012</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>120</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02125356708178224</v>
+        <v>0.02152776179048694</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0008477270318957286</v>
+        <v>-0.0004242231413723596</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>123</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01773570422475735</v>
+        <v>0.01776571178621556</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01190476190476186</v>
+        <v>0.01590361445783128</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02041351404358103</v>
+        <v>0.0204725688848232</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01072006472491893</v>
+        <v>0.01523205888366386</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>121</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01890626070359134</v>
+        <v>0.01928971019486441</v>
       </c>
       <c r="E38" s="1">
-        <v>0.006432591798445353</v>
+        <v>0.01597869507323568</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>114</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01864219577402273</v>
+        <v>0.01878684779860238</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.005919661733615134</v>
+        <v>0.03275202041684389</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>120</v>
       </c>
       <c r="D40" s="1">
-        <v>0.016884390421969</v>
+        <v>0.0167776813572376</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01980792316926772</v>
+        <v>0.009797917942437229</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>121</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01327268786005122</v>
+        <v>0.01333508120666427</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.008936651583710487</v>
+        <v>0.02157287980824107</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>124</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01387326197136575</v>
+        <v>0.01454971364621661</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0345238095238094</v>
+        <v>0.0517836593785963</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>116</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01662595587469396</v>
+        <v>0.01659598117243614</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.01535213970447136</v>
+        <v>0.03683492496589369</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>118</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01277984172995373</v>
+        <v>0.01282955514277163</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.009736540664375903</v>
+        <v>0.02544823597455181</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>121</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01519677716917516</v>
+        <v>0.01510508834719614</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01952526799387455</v>
+        <v>0.03279968762202268</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>121</v>
       </c>
       <c r="D46" s="1">
-        <v>0.02102760107240015</v>
+        <v>0.02028573162673417</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.04837558014994647</v>
+        <v>-0.04351903957981618</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>118</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01359211821550663</v>
+        <v>0.01354608173540229</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01691474966170503</v>
+        <v>0.04198210598761198</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>116</v>
       </c>
       <c r="D48" s="1">
-        <v>0.0202224564044191</v>
+        <v>0.01985764218610247</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.03136890951276095</v>
+        <v>0.03679218166139675</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01814784820864695</v>
+        <v>0.01814851887712711</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.0135372714486639</v>
+        <v>0.03368383532347186</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>121</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01771749932200813</v>
+        <v>0.01792305843839441</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.002129169623846683</v>
+        <v>0.002133712660028486</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>120</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0189755144058023</v>
+        <v>0.01916299572043743</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.00382766601388651</v>
+        <v>0.03109641676347064</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>121</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006486200402196975</v>
+        <v>0.006479561773401415</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01458333333333339</v>
+        <v>0.006342494714587588</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>122</v>
       </c>
       <c r="D53" s="1">
-        <v>0.02123198394965687</v>
+        <v>0.02142939635012846</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.00440205429200291</v>
+        <v>0.01621223286661744</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>116</v>
       </c>
       <c r="D54" s="1">
-        <v>0.01756360220598378</v>
+        <v>0.01761217037350899</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.01084598698481565</v>
+        <v>0.03853383458646609</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>116</v>
       </c>
       <c r="D55" s="1">
-        <v>0.02054714178334852</v>
+        <v>0.02066796793172487</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.007773109243697451</v>
+        <v>0.04107558755028595</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01357372563334791</v>
+        <v>0.02338205498533008</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01874460964046005</v>
+        <v>0.0187694540310349</v>
       </c>
       <c r="E2" s="1">
-        <v>0.03197320341047494</v>
+        <v>-0.02197964301519406</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0181281608459504</v>
+        <v>0.01838828746198256</v>
       </c>
       <c r="E3" s="1">
-        <v>0.04617968094038627</v>
+        <v>-0.02549688817506535</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02025719233069205</v>
+        <v>0.02076905569812642</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0263736263736265</v>
+        <v>0.009011891430704244</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>114</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01990901291897828</v>
+        <v>0.01985757844970974</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02614678899082556</v>
+        <v>-0.01795872838817636</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>114</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01997979037316272</v>
+        <v>0.02028064565371359</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03599588618443605</v>
+        <v>-0.0008191349934469905</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>0.008027152666778415</v>
+        <v>0.007855907592671929</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008058781701825168</v>
+        <v>-0.01809210526315796</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01960459376119573</v>
+        <v>0.0198601626298389</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02477678571428577</v>
+        <v>-0.03805044890979059</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>118</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02327094199273922</v>
+        <v>0.02363971065304262</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0264900662251657</v>
+        <v>-0.01756851721714692</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0229775580294263</v>
+        <v>0.0227908074806108</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02027027027027017</v>
+        <v>-0.01528294093349869</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01921836195475913</v>
+        <v>0.02004031690170092</v>
       </c>
       <c r="E11" s="1">
-        <v>0.05280665280665287</v>
+        <v>-0.03675048355899424</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="1">
-        <v>0.014368584247336</v>
+        <v>0.01432927881623876</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006091101694915446</v>
+        <v>-0.003606853020739376</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>120</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01495230798238402</v>
+        <v>0.01448617546693828</v>
       </c>
       <c r="E13" s="1">
-        <v>0.009619789280806312</v>
+        <v>-0.01009174311926631</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.009020700692991188</v>
+        <v>0.008925019828967883</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003712140386399998</v>
+        <v>-0.01497352746525482</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0143929377799586</v>
+        <v>0.01425138424377383</v>
       </c>
       <c r="E15" s="1">
-        <v>0.009835025380710682</v>
+        <v>-0.02890892135529999</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02374374299717024</v>
+        <v>0.02387985482076034</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03129131776112826</v>
+        <v>-0.00467647308902297</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02479341830559917</v>
+        <v>0.02488048628363334</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0201976794155565</v>
+        <v>-0.01786456169505601</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>115</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02298402693652918</v>
+        <v>0.02323805522725188</v>
       </c>
       <c r="E18" s="1">
-        <v>0.03208556149732633</v>
+        <v>-0.0232417748264413</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01759904229732962</v>
+        <v>0.01739060934782861</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02497324295397796</v>
+        <v>0.002451838879159451</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>115</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01962209786276823</v>
+        <v>0.02023948335594183</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0373986735445837</v>
+        <v>-0.03101715473921329</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02820443496855255</v>
+        <v>0.02802801768096044</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003669724770642091</v>
+        <v>-0.0186968204209581</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>121</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01832907749008688</v>
+        <v>0.01787015934608429</v>
       </c>
       <c r="E22" s="1">
-        <v>0.007006726457399193</v>
+        <v>-0.001115552663381814</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02019592797518832</v>
+        <v>0.02062175743076381</v>
       </c>
       <c r="E23" s="1">
-        <v>0.04299657082563946</v>
+        <v>-0.01428571428571435</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>115</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0185697588867087</v>
+        <v>0.0188645149429293</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03814510097232615</v>
+        <v>-0.02571428571428569</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>122</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01986715528478317</v>
+        <v>0.0189049389035213</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.006607929515418554</v>
+        <v>-0.003368515607455658</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>123</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01812530691634619</v>
+        <v>0.01795266852592274</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01684774051330495</v>
+        <v>-0.01927822331893891</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>114</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02247831061066293</v>
+        <v>0.02257539760841512</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0255281690140845</v>
+        <v>-0.03358843537414957</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>114</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02226635877205684</v>
+        <v>0.02228855361407743</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01999487310945924</v>
+        <v>-0.02236024844720497</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>115</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01955797957766028</v>
+        <v>0.01938651932902132</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02621722846441932</v>
+        <v>-0.02712609970674484</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>114</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02164819761978466</v>
+        <v>0.02165801366256034</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03122665471387998</v>
+        <v>-0.01680672268907568</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01998721059013366</v>
+        <v>0.02046744496019347</v>
       </c>
       <c r="E31" s="1">
-        <v>0.05462108880448557</v>
+        <v>-0.02553118574365998</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>124</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02079677528786162</v>
+        <v>0.02070002117181863</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007081038552320784</v>
+        <v>-0.04141104294478515</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>116</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01758096740983628</v>
+        <v>0.01736347545647235</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02054023635340485</v>
+        <v>-0.03150912106135983</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.018649478653653</v>
+        <v>0.01893336488494215</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02396449704142012</v>
+        <v>-0.02261803788521355</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>120</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02152776179048694</v>
+        <v>0.02093850408088189</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0004242231413723596</v>
+        <v>-0.00296202263831602</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>123</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01776571178621556</v>
+        <v>0.01747644104497599</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01590361445783128</v>
+        <v>-0.01330798479087447</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0204725688848232</v>
+        <v>0.02012762527320783</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01523205888366386</v>
+        <v>-0.02229395742963758</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>121</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01928971019486441</v>
+        <v>0.01906294305999045</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01597869507323568</v>
+        <v>0.002875816993464175</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>114</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01878684779860238</v>
+        <v>0.01887743584357515</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03275202041684389</v>
+        <v>-0.02628336755646821</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>120</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0167776813572376</v>
+        <v>0.01658600640618254</v>
       </c>
       <c r="E40" s="1">
-        <v>0.009797917942437229</v>
+        <v>-0.01262019230769229</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>121</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01333508120666427</v>
+        <v>0.01322214221518505</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02157287980824107</v>
+        <v>-0.01273174000446731</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>124</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01454971364621661</v>
+        <v>0.01460283274134073</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0517836593785963</v>
+        <v>-0.01779755283648499</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>116</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01659598117243614</v>
+        <v>0.01671263123251179</v>
       </c>
       <c r="E43" s="1">
-        <v>0.03683492496589369</v>
+        <v>-0.02328201276755526</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>118</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01282955514277163</v>
+        <v>0.01290022720480864</v>
       </c>
       <c r="E44" s="1">
-        <v>0.02544823597455181</v>
+        <v>-0.02901785714285743</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>121</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01510508834719614</v>
+        <v>0.01518648828194291</v>
       </c>
       <c r="E45" s="1">
-        <v>0.03279968762202268</v>
+        <v>-0.01808590806330068</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>121</v>
       </c>
       <c r="D46" s="1">
-        <v>0.02028573162673417</v>
+        <v>0.01948840985982853</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.04351903957981618</v>
+        <v>0.01704868346277699</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>118</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01354608173540229</v>
+        <v>0.0139829986789302</v>
       </c>
       <c r="E47" s="1">
-        <v>0.04198210598761198</v>
+        <v>-0.02457956015523943</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>116</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01985764218610247</v>
+        <v>0.01994617891128122</v>
       </c>
       <c r="E48" s="1">
-        <v>0.03679218166139675</v>
+        <v>0.03498056635202684</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01814851887712711</v>
+        <v>0.01833494260074472</v>
       </c>
       <c r="E49" s="1">
-        <v>0.03368383532347186</v>
+        <v>-0.01694335101831246</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>121</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01792305843839441</v>
+        <v>0.01747477978632153</v>
       </c>
       <c r="E50" s="1">
-        <v>0.002133712660028486</v>
+        <v>-0.002830856334041121</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>120</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01916299572043743</v>
+        <v>0.01931213185816026</v>
       </c>
       <c r="E51" s="1">
-        <v>0.03109641676347064</v>
+        <v>-0.01427956989247314</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>121</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006479561773401415</v>
+        <v>0.006374803210068556</v>
       </c>
       <c r="E52" s="1">
-        <v>0.006342494714587588</v>
+        <v>-0.02640722724113964</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>122</v>
       </c>
       <c r="D53" s="1">
-        <v>0.02142939635012846</v>
+        <v>0.02140273358265749</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01621223286661744</v>
+        <v>-0.02720114531138151</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>116</v>
       </c>
       <c r="D54" s="1">
-        <v>0.01761217037350899</v>
+        <v>0.01769148174858179</v>
       </c>
       <c r="E54" s="1">
-        <v>0.03853383458646609</v>
+        <v>-0.01361573373676228</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>116</v>
       </c>
       <c r="D55" s="1">
-        <v>0.02066796793172487</v>
+        <v>0.02081114091737287</v>
       </c>
       <c r="E55" s="1">
-        <v>0.04107558755028595</v>
+        <v>-0.0367197062423501</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.02338205498533008</v>
+        <v>-0.01669085028570894</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/SMALLCAP_holdings.xlsx
+++ b/SMALLCAP_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0187694540310349</v>
+        <v>0.01866850129196541</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02197964301519406</v>
+        <v>0.001357466063348411</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01838828746198256</v>
+        <v>0.0182236109142685</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02549688817506535</v>
+        <v>-0.01483312731767616</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02076905569812642</v>
+        <v>0.02131193854881264</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009011891430704244</v>
+        <v>-0.002219638516012923</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>114</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01985757844970974</v>
+        <v>0.01983197410249937</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01795872838817636</v>
+        <v>0.003407542026351518</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>114</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02028064565371359</v>
+        <v>0.02060799807777322</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0008191349934469905</v>
+        <v>0.008034103951467308</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>117</v>
       </c>
       <c r="D7" s="1">
-        <v>0.007855907592671929</v>
+        <v>0.007844712609263293</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01809210526315796</v>
+        <v>0.004307250538406304</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,10 +951,10 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0198601626298389</v>
+        <v>0.01942875700068799</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.03805044890979059</v>
+        <v>0.01644444444444448</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,10 +968,10 @@
         <v>118</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02363971065304262</v>
+        <v>0.02361861068431461</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01756851721714692</v>
+        <v>0.005007153075822668</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0227908074806108</v>
+        <v>0.02282343952822848</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01528294093349869</v>
+        <v>-0.01384228187919456</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02004031690170092</v>
+        <v>0.01963149185634734</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.03675048355899424</v>
+        <v>-0.006827309236947632</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>119</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01432927881623876</v>
+        <v>0.01451994544930643</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.003606853020739376</v>
+        <v>0.003749191984486089</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>120</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01448617546693828</v>
+        <v>0.01458339395042945</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01009174311926631</v>
+        <v>-0.04587581093605175</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008925019828967883</v>
+        <v>0.008940607134577462</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01497352746525482</v>
+        <v>0.009406231628453998</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01425138424377383</v>
+        <v>0.01407430420177374</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02890892135529999</v>
+        <v>0.002880921895006328</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02387985482076034</v>
+        <v>0.02417162631836318</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.00467647308902297</v>
+        <v>-0.003758756193405044</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>118</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02488048628363334</v>
+        <v>0.02485078808482202</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01786456169505601</v>
+        <v>-0.001692047377326533</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>115</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02323805522725188</v>
+        <v>0.02308324049140677</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0232417748264413</v>
+        <v>-0.01730531520395551</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01739060934782861</v>
+        <v>0.01772916312741041</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002451838879159451</v>
+        <v>-0.0003494060097833929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>115</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02023948335594183</v>
+        <v>0.01994460457786567</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.03101715473921329</v>
+        <v>-0.002682403433476255</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02802801768096044</v>
+        <v>0.02797083996992767</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0186968204209581</v>
+        <v>-0.00410724472333146</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>121</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01787015934608429</v>
+        <v>0.01815321686716456</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001115552663381814</v>
+        <v>0.008282922289436945</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02062175743076381</v>
+        <v>0.02067219744873202</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01428571428571435</v>
+        <v>0.00686498855835227</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>115</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0188645149429293</v>
+        <v>0.01869140282195656</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02571428571428569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>122</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0189049389035213</v>
+        <v>0.01916107190423406</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.003368515607455658</v>
+        <v>-0.01532221721496163</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>123</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01795266852592274</v>
+        <v>0.01790542982135868</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01927822331893891</v>
+        <v>0.002830633747444633</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>114</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02257539760841512</v>
+        <v>0.02218745277732674</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.03358843537414957</v>
+        <v>-0.003299604047514393</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>114</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02228855361407743</v>
+        <v>0.02216004602832094</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02236024844720497</v>
+        <v>-0.02210927573062271</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>115</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01938651932902132</v>
+        <v>0.01918078223742316</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02712609970674484</v>
+        <v>0.003014318010550188</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>114</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02165801366256034</v>
+        <v>0.02165546149867988</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01680672268907568</v>
+        <v>-0.001031535514294024</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>116</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02046744496019347</v>
+        <v>0.02028343459125931</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02553118574365998</v>
+        <v>0.01424301037453857</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>124</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02070002117181863</v>
+        <v>0.02017962683646337</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.04141104294478515</v>
+        <v>0.04239999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>116</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01736347545647235</v>
+        <v>0.01710181137962008</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.03150912106135983</v>
+        <v>-0.01398401826484019</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01893336488494215</v>
+        <v>0.01881923841149732</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.02261803788521355</v>
+        <v>-0.0002892681515764828</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1410,10 +1410,10 @@
         <v>120</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02093850408088189</v>
+        <v>0.0212308446065489</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.00296202263831602</v>
+        <v>0.000424403183023836</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1427,10 +1427,10 @@
         <v>123</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01747644104497599</v>
+        <v>0.01753656501453403</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01330798479087447</v>
+        <v>0.01156069364161838</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02012762527320783</v>
+        <v>0.02001293373292123</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02229395742963758</v>
+        <v>0.0005158893933139286</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1461,10 +1461,10 @@
         <v>121</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01906294305999045</v>
+        <v>0.01944227265773194</v>
       </c>
       <c r="E38" s="1">
-        <v>0.002875816993464175</v>
+        <v>0.00286757038581853</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,10 +1478,10 @@
         <v>114</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01887743584357515</v>
+        <v>0.018693279996546</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.02628336755646821</v>
+        <v>0.008013496415014698</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1495,10 +1495,10 @@
         <v>120</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01658600640618254</v>
+        <v>0.01665466839241584</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01262019230769229</v>
+        <v>0.01765063907486297</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,10 +1512,10 @@
         <v>121</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01322214221518505</v>
+        <v>0.01327537869650874</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01273174000446731</v>
+        <v>-0.001583710407239813</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1529,10 +1529,10 @@
         <v>124</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01460283274134073</v>
+        <v>0.01458639742977255</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01779755283648499</v>
+        <v>-0.04869762174405423</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1546,10 +1546,10 @@
         <v>116</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01671263123251179</v>
+        <v>0.01660060576424001</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.02328201276755526</v>
+        <v>-0.006151480199923065</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1563,10 +1563,10 @@
         <v>118</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01290022720480864</v>
+        <v>0.01273850676392934</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.02901785714285743</v>
+        <v>0.009770114942528885</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,10 +1580,10 @@
         <v>121</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01518648828194291</v>
+        <v>0.01516494263823748</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01808590806330068</v>
+        <v>-0.01650038372985418</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>121</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01948840985982853</v>
+        <v>0.02015710074139011</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01704868346277699</v>
+        <v>0.02588936487241567</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,10 +1614,10 @@
         <v>118</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0139829986789302</v>
+        <v>0.01387081847627861</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02457956015523943</v>
+        <v>0.009946949602122057</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,10 +1631,10 @@
         <v>116</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01994617891128122</v>
+        <v>0.02099432060827966</v>
       </c>
       <c r="E48" s="1">
-        <v>0.03498056635202684</v>
+        <v>0.01931330472102988</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,10 +1648,10 @@
         <v>123</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01833494260074472</v>
+        <v>0.0183302344309486</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01694335101831246</v>
+        <v>-0.02193593314763242</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1665,10 +1665,10 @@
         <v>121</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01747477978632153</v>
+        <v>0.01772109127667583</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.002830856334041121</v>
+        <v>-0.002838892831795503</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1682,10 +1682,10 @@
         <v>120</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01931213185816026</v>
+        <v>0.01935948925833771</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01427956989247314</v>
+        <v>-0.0135264857317392</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1699,10 +1699,10 @@
         <v>121</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006374803210068556</v>
+        <v>0.006311811839527854</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.02640722724113964</v>
+        <v>-0.01070663811563177</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>122</v>
       </c>
       <c r="D53" s="1">
-        <v>0.02140273358265749</v>
+        <v>0.02117396621648892</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.02720114531138151</v>
+        <v>0.002943340691685004</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,10 +1733,10 @@
         <v>116</v>
       </c>
       <c r="D54" s="1">
-        <v>0.01769148174858179</v>
+        <v>0.01774680856855113</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.01361573373676228</v>
+        <v>-0.01196319018404912</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1750,10 +1750,10 @@
         <v>116</v>
       </c>
       <c r="D55" s="1">
-        <v>0.02081114091737287</v>
+        <v>0.02038724234605526</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.0367197062423501</v>
+        <v>-0.02604828462515885</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01669085028570894</v>
+        <v>-0.001448052478292827</v>
       </c>
     </row>
     <row r="59" spans="1:5">
